--- a/examples/1_optimizations_of_ref_vehicle/multirotor/validation.xlsx
+++ b/examples/1_optimizations_of_ref_vehicle/multirotor/validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfiyandyhr/Github_Repos/MCEVS/examples/1_optimizations_of_ref_vehicle/multirotor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E377C3BE-2210-974A-B67E-CF508AEA613F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5DFACE-01FF-7B46-AD68-A2F0AAC728C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15320" yWindow="740" windowWidth="14920" windowHeight="18900" activeTab="3" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
   </bookViews>
@@ -10150,7 +10150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE37D87-B951-4841-B7CA-13CC46090773}">
   <dimension ref="B1:AO56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -14349,7 +14349,7 @@
   <dimension ref="B1:AO56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AI6" sqref="AI6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18493,7 +18493,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="J7:L7"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:H3"/>
@@ -18511,6 +18510,7 @@
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="J30:L30"/>
     <mergeCell ref="F33:H33"/>
+    <mergeCell ref="J7:L7"/>
     <mergeCell ref="J38:L38"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B46:D46"/>
@@ -18547,7 +18547,7 @@
   <dimension ref="B1:AO56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AI6" sqref="AI6"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22691,7 +22691,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="J7:L7"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:H3"/>
@@ -22709,6 +22708,7 @@
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="J30:L30"/>
     <mergeCell ref="F33:H33"/>
+    <mergeCell ref="J7:L7"/>
     <mergeCell ref="J38:L38"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B46:D46"/>
@@ -22745,7 +22745,7 @@
   <dimension ref="B1:AO56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26889,7 +26889,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="J7:L7"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:H3"/>
@@ -26907,6 +26906,7 @@
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="J30:L30"/>
     <mergeCell ref="F33:H33"/>
+    <mergeCell ref="J7:L7"/>
     <mergeCell ref="J38:L38"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B46:D46"/>

--- a/examples/1_optimizations_of_ref_vehicle/multirotor/validation.xlsx
+++ b/examples/1_optimizations_of_ref_vehicle/multirotor/validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfiyandyhr/Github_Repos/MCEVS/examples/1_optimizations_of_ref_vehicle/multirotor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5DFACE-01FF-7B46-AD68-A2F0AAC728C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C604E5-6A63-E24D-986A-59EE01558453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15320" yWindow="740" windowWidth="14920" windowHeight="18900" activeTab="3" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="3" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
   </bookViews>
   <sheets>
     <sheet name="multirotor_ref" sheetId="13" r:id="rId1"/>
@@ -717,18 +717,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -736,6 +727,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10150,8 +10150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE37D87-B951-4841-B7CA-13CC46090773}">
   <dimension ref="B1:AO56"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10195,11 +10195,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="2:41" x14ac:dyDescent="0.2">
       <c r="U2" s="16" t="s">
@@ -10210,26 +10210,26 @@
       </c>
     </row>
     <row r="3" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>118</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="28" t="s">
         <v>80</v>
       </c>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="N3" s="27" t="s">
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="N3" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
       <c r="U3" s="7" t="s">
         <v>41</v>
       </c>
@@ -10629,11 +10629,11 @@
       <c r="H7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
       <c r="N7" s="6" t="s">
         <v>159</v>
       </c>
@@ -11065,11 +11065,11 @@
       <c r="H11" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
       <c r="U11" s="2">
         <v>7</v>
       </c>
@@ -11147,11 +11147,11 @@
       </c>
     </row>
     <row r="12" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
       <c r="F12" s="24" t="s">
         <v>82</v>
       </c>
@@ -11172,11 +11172,11 @@
       <c r="L12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N12" s="30" t="s">
+      <c r="N12" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
       <c r="U12" s="2">
         <v>8</v>
       </c>
@@ -11371,7 +11371,7 @@
       <c r="D14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="28" t="s">
         <v>86</v>
       </c>
       <c r="G14" s="31"/>
@@ -11593,11 +11593,11 @@
       <c r="L16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N16" s="30" t="s">
+      <c r="N16" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
       <c r="U16" s="2">
         <v>12</v>
       </c>
@@ -11675,11 +11675,11 @@
       </c>
     </row>
     <row r="17" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
       <c r="F17" s="6" t="s">
         <v>124</v>
       </c>
@@ -12441,12 +12441,12 @@
       </c>
     </row>
     <row r="24" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="F24" s="30" t="s">
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="F24" s="28" t="s">
         <v>81</v>
       </c>
       <c r="G24" s="31"/>
@@ -12985,11 +12985,11 @@
       </c>
     </row>
     <row r="29" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
       <c r="F29" t="s">
         <v>97</v>
       </c>
@@ -13093,11 +13093,11 @@
       <c r="H30" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="J30" s="27" t="s">
+      <c r="J30" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
       <c r="U30" s="2">
         <v>26</v>
       </c>
@@ -13383,7 +13383,7 @@
         <v>0.80011066800000008</v>
       </c>
       <c r="D33"/>
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="28" t="s">
         <v>156</v>
       </c>
       <c r="G33" s="31"/>
@@ -13572,11 +13572,11 @@
       </c>
     </row>
     <row r="35" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
       <c r="F35" s="26" t="s">
         <v>132</v>
       </c>
@@ -13742,11 +13742,11 @@
       <c r="C38" s="17">
         <v>0.8</v>
       </c>
-      <c r="J38" s="27" t="s">
+      <c r="J38" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
       <c r="AF38" s="2">
         <v>34</v>
       </c>
@@ -13833,11 +13833,11 @@
       </c>
     </row>
     <row r="40" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
       <c r="J40" s="11" t="s">
         <v>52</v>
       </c>
@@ -14142,16 +14142,16 @@
       </c>
     </row>
     <row r="46" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="J46" s="27" t="s">
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="J46" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
       <c r="N46" s="6" t="s">
         <v>153</v>
       </c>
@@ -14255,11 +14255,11 @@
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
@@ -14295,6 +14295,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="F33:H33"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="N16:P16"/>
     <mergeCell ref="B1:D1"/>
@@ -14307,17 +14318,6 @@
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="N12:P12"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="F33:H33"/>
   </mergeCells>
   <conditionalFormatting sqref="K28">
     <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="FALSE">
@@ -14349,7 +14349,7 @@
   <dimension ref="B1:AO56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14393,11 +14393,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="2:41" x14ac:dyDescent="0.2">
       <c r="U2" s="16" t="s">
@@ -14408,26 +14408,26 @@
       </c>
     </row>
     <row r="3" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>118</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="28" t="s">
         <v>80</v>
       </c>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="N3" s="27" t="s">
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="N3" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
       <c r="U3" s="7" t="s">
         <v>41</v>
       </c>
@@ -14827,11 +14827,11 @@
       <c r="H7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
       <c r="N7" s="6" t="s">
         <v>159</v>
       </c>
@@ -15263,11 +15263,11 @@
       <c r="H11" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
       <c r="U11" s="2">
         <v>7</v>
       </c>
@@ -15345,11 +15345,11 @@
       </c>
     </row>
     <row r="12" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
       <c r="F12" s="24" t="s">
         <v>82</v>
       </c>
@@ -15370,11 +15370,11 @@
       <c r="L12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N12" s="30" t="s">
+      <c r="N12" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
       <c r="U12" s="2">
         <v>8</v>
       </c>
@@ -15569,7 +15569,7 @@
       <c r="D14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="28" t="s">
         <v>86</v>
       </c>
       <c r="G14" s="31"/>
@@ -15791,11 +15791,11 @@
       <c r="L16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N16" s="30" t="s">
+      <c r="N16" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
       <c r="U16" s="2">
         <v>12</v>
       </c>
@@ -15873,11 +15873,11 @@
       </c>
     </row>
     <row r="17" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
       <c r="F17" s="6" t="s">
         <v>124</v>
       </c>
@@ -16639,12 +16639,12 @@
       </c>
     </row>
     <row r="24" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="F24" s="30" t="s">
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="F24" s="28" t="s">
         <v>81</v>
       </c>
       <c r="G24" s="31"/>
@@ -17183,11 +17183,11 @@
       </c>
     </row>
     <row r="29" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
       <c r="F29" t="s">
         <v>97</v>
       </c>
@@ -17291,11 +17291,11 @@
       <c r="H30" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="J30" s="27" t="s">
+      <c r="J30" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
       <c r="U30" s="2">
         <v>26</v>
       </c>
@@ -17581,7 +17581,7 @@
         <v>0.80011066800000008</v>
       </c>
       <c r="D33"/>
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="28" t="s">
         <v>156</v>
       </c>
       <c r="G33" s="31"/>
@@ -17770,11 +17770,11 @@
       </c>
     </row>
     <row r="35" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
       <c r="F35" s="26" t="s">
         <v>132</v>
       </c>
@@ -17940,11 +17940,11 @@
       <c r="C38" s="17">
         <v>0.8</v>
       </c>
-      <c r="J38" s="27" t="s">
+      <c r="J38" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
       <c r="AF38" s="2">
         <v>34</v>
       </c>
@@ -18031,11 +18031,11 @@
       </c>
     </row>
     <row r="40" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
       <c r="J40" s="11" t="s">
         <v>52</v>
       </c>
@@ -18340,16 +18340,16 @@
       </c>
     </row>
     <row r="46" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="J46" s="27" t="s">
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="J46" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
       <c r="N46" s="6" t="s">
         <v>153</v>
       </c>
@@ -18453,11 +18453,11 @@
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
@@ -18493,11 +18493,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="J46:L46"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="B12:D12"/>
@@ -18510,12 +18511,11 @@
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="J30:L30"/>
     <mergeCell ref="F33:H33"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <conditionalFormatting sqref="K28">
     <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="FALSE">
@@ -18547,7 +18547,7 @@
   <dimension ref="B1:AO56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18591,11 +18591,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="2:41" x14ac:dyDescent="0.2">
       <c r="U2" s="16" t="s">
@@ -18606,26 +18606,26 @@
       </c>
     </row>
     <row r="3" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>118</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="28" t="s">
         <v>80</v>
       </c>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="N3" s="27" t="s">
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="N3" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
       <c r="U3" s="7" t="s">
         <v>41</v>
       </c>
@@ -19025,11 +19025,11 @@
       <c r="H7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
       <c r="N7" s="6" t="s">
         <v>159</v>
       </c>
@@ -19461,11 +19461,11 @@
       <c r="H11" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
       <c r="U11" s="2">
         <v>7</v>
       </c>
@@ -19543,11 +19543,11 @@
       </c>
     </row>
     <row r="12" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
       <c r="F12" s="24" t="s">
         <v>82</v>
       </c>
@@ -19568,11 +19568,11 @@
       <c r="L12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N12" s="30" t="s">
+      <c r="N12" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
       <c r="U12" s="2">
         <v>8</v>
       </c>
@@ -19767,7 +19767,7 @@
       <c r="D14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="28" t="s">
         <v>86</v>
       </c>
       <c r="G14" s="31"/>
@@ -19989,11 +19989,11 @@
       <c r="L16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N16" s="30" t="s">
+      <c r="N16" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
       <c r="U16" s="2">
         <v>12</v>
       </c>
@@ -20071,11 +20071,11 @@
       </c>
     </row>
     <row r="17" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
       <c r="F17" s="6" t="s">
         <v>124</v>
       </c>
@@ -20837,12 +20837,12 @@
       </c>
     </row>
     <row r="24" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="F24" s="30" t="s">
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="F24" s="28" t="s">
         <v>81</v>
       </c>
       <c r="G24" s="31"/>
@@ -21381,11 +21381,11 @@
       </c>
     </row>
     <row r="29" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
       <c r="F29" t="s">
         <v>97</v>
       </c>
@@ -21489,11 +21489,11 @@
       <c r="H30" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="J30" s="27" t="s">
+      <c r="J30" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
       <c r="U30" s="2">
         <v>26</v>
       </c>
@@ -21779,7 +21779,7 @@
         <v>0.80011066800000008</v>
       </c>
       <c r="D33"/>
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="28" t="s">
         <v>156</v>
       </c>
       <c r="G33" s="31"/>
@@ -21968,11 +21968,11 @@
       </c>
     </row>
     <row r="35" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
       <c r="F35" s="26" t="s">
         <v>132</v>
       </c>
@@ -22138,11 +22138,11 @@
       <c r="C38" s="17">
         <v>0.8</v>
       </c>
-      <c r="J38" s="27" t="s">
+      <c r="J38" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
       <c r="AF38" s="2">
         <v>34</v>
       </c>
@@ -22229,11 +22229,11 @@
       </c>
     </row>
     <row r="40" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
       <c r="J40" s="11" t="s">
         <v>52</v>
       </c>
@@ -22538,16 +22538,16 @@
       </c>
     </row>
     <row r="46" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="J46" s="27" t="s">
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="J46" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
       <c r="N46" s="6" t="s">
         <v>153</v>
       </c>
@@ -22651,11 +22651,11 @@
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
@@ -22691,11 +22691,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="J46:L46"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="B12:D12"/>
@@ -22708,12 +22709,11 @@
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="J30:L30"/>
     <mergeCell ref="F33:H33"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <conditionalFormatting sqref="K28">
     <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="FALSE">
@@ -22789,11 +22789,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="2:41" x14ac:dyDescent="0.2">
       <c r="U2" s="16" t="s">
@@ -22804,26 +22804,26 @@
       </c>
     </row>
     <row r="3" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>118</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="28" t="s">
         <v>80</v>
       </c>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="N3" s="27" t="s">
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="N3" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
       <c r="U3" s="7" t="s">
         <v>41</v>
       </c>
@@ -23223,11 +23223,11 @@
       <c r="H7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
       <c r="N7" s="6" t="s">
         <v>159</v>
       </c>
@@ -23659,11 +23659,11 @@
       <c r="H11" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
       <c r="U11" s="2">
         <v>7</v>
       </c>
@@ -23741,11 +23741,11 @@
       </c>
     </row>
     <row r="12" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
       <c r="F12" s="24" t="s">
         <v>82</v>
       </c>
@@ -23766,11 +23766,11 @@
       <c r="L12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N12" s="30" t="s">
+      <c r="N12" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
       <c r="U12" s="2">
         <v>8</v>
       </c>
@@ -23965,7 +23965,7 @@
       <c r="D14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="28" t="s">
         <v>86</v>
       </c>
       <c r="G14" s="31"/>
@@ -24187,11 +24187,11 @@
       <c r="L16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N16" s="30" t="s">
+      <c r="N16" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
       <c r="U16" s="2">
         <v>12</v>
       </c>
@@ -24269,11 +24269,11 @@
       </c>
     </row>
     <row r="17" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
       <c r="F17" s="6" t="s">
         <v>124</v>
       </c>
@@ -25035,12 +25035,12 @@
       </c>
     </row>
     <row r="24" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="F24" s="30" t="s">
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="F24" s="28" t="s">
         <v>81</v>
       </c>
       <c r="G24" s="31"/>
@@ -25579,11 +25579,11 @@
       </c>
     </row>
     <row r="29" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
       <c r="F29" t="s">
         <v>97</v>
       </c>
@@ -25687,11 +25687,11 @@
       <c r="H30" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="J30" s="27" t="s">
+      <c r="J30" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
       <c r="U30" s="2">
         <v>26</v>
       </c>
@@ -25977,7 +25977,7 @@
         <v>0.80011066800000008</v>
       </c>
       <c r="D33"/>
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="28" t="s">
         <v>156</v>
       </c>
       <c r="G33" s="31"/>
@@ -26166,11 +26166,11 @@
       </c>
     </row>
     <row r="35" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
       <c r="F35" s="26" t="s">
         <v>132</v>
       </c>
@@ -26336,11 +26336,11 @@
       <c r="C38" s="17">
         <v>0.8</v>
       </c>
-      <c r="J38" s="27" t="s">
+      <c r="J38" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
       <c r="AF38" s="2">
         <v>34</v>
       </c>
@@ -26427,11 +26427,11 @@
       </c>
     </row>
     <row r="40" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
       <c r="J40" s="11" t="s">
         <v>52</v>
       </c>
@@ -26736,16 +26736,16 @@
       </c>
     </row>
     <row r="46" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="J46" s="27" t="s">
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="J46" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
       <c r="N46" s="6" t="s">
         <v>153</v>
       </c>
@@ -26849,11 +26849,11 @@
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
@@ -26889,11 +26889,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="J46:L46"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="B12:D12"/>
@@ -26906,12 +26907,11 @@
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="J30:L30"/>
     <mergeCell ref="F33:H33"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <conditionalFormatting sqref="K28">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="FALSE">

--- a/examples/1_optimizations_of_ref_vehicle/multirotor/validation.xlsx
+++ b/examples/1_optimizations_of_ref_vehicle/multirotor/validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfiyandyhr/Github_Repos/MCEVS/examples/1_optimizations_of_ref_vehicle/multirotor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C604E5-6A63-E24D-986A-59EE01558453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101A3E6E-949C-0941-9E9F-DA5D16BEA6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="3" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
+    <workbookView xWindow="15320" yWindow="740" windowWidth="14920" windowHeight="18900" activeTab="3" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
   </bookViews>
   <sheets>
     <sheet name="multirotor_ref" sheetId="13" r:id="rId1"/>
@@ -717,9 +717,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -727,15 +736,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2407,19 +2407,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>20.149999999999999</c:v>
+                  <c:v>22.16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.08</c:v>
+                  <c:v>44.39</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.23</c:v>
+                  <c:v>21.49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.63</c:v>
+                  <c:v>7.09</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.91</c:v>
+                  <c:v>4.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2920,16 +2920,16 @@
                   <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1341.91</c:v>
+                  <c:v>1201.8699999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>691.48</c:v>
+                  <c:v>581.72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>197.37</c:v>
+                  <c:v>191.88</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>146.18</c:v>
+                  <c:v>132.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3427,19 +3427,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>19.579999999999998</c:v>
+                  <c:v>21.93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.62</c:v>
+                  <c:v>43.44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.47</c:v>
+                  <c:v>22.78</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.42</c:v>
+                  <c:v>6.97</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.92</c:v>
+                  <c:v>4.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3940,16 +3940,16 @@
                   <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1306.05</c:v>
+                  <c:v>1188.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>811.06</c:v>
+                  <c:v>623</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>196.6</c:v>
+                  <c:v>190.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150.81</c:v>
+                  <c:v>133.49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10195,11 +10195,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="2:41" x14ac:dyDescent="0.2">
       <c r="U2" s="16" t="s">
@@ -10210,26 +10210,26 @@
       </c>
     </row>
     <row r="3" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>118</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="30" t="s">
         <v>80</v>
       </c>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="N3" s="32" t="s">
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="N3" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
       <c r="U3" s="7" t="s">
         <v>41</v>
       </c>
@@ -10473,14 +10473,14 @@
         <v>500</v>
       </c>
       <c r="AH5" s="2">
-        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5" ca="1"/>
+        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5"/>
         <v>-1811.1257419457706</v>
       </c>
       <c r="AI5" s="3">
         <v>10000</v>
       </c>
       <c r="AJ5" s="2">
-        <f t="dataTable" ref="AJ5:AJ44" dt2D="0" dtr="0" r1="C5"/>
+        <f t="dataTable" ref="AJ5:AJ44" dt2D="0" dtr="0" r1="C5" ca="1"/>
         <v>1594.7116670535379</v>
       </c>
       <c r="AK5" s="2">
@@ -10629,11 +10629,11 @@
       <c r="H7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
       <c r="N7" s="6" t="s">
         <v>159</v>
       </c>
@@ -11065,11 +11065,11 @@
       <c r="H11" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
       <c r="U11" s="2">
         <v>7</v>
       </c>
@@ -11147,11 +11147,11 @@
       </c>
     </row>
     <row r="12" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
       <c r="F12" s="24" t="s">
         <v>82</v>
       </c>
@@ -11172,11 +11172,11 @@
       <c r="L12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N12" s="28" t="s">
+      <c r="N12" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
       <c r="U12" s="2">
         <v>8</v>
       </c>
@@ -11371,7 +11371,7 @@
       <c r="D14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="30" t="s">
         <v>86</v>
       </c>
       <c r="G14" s="31"/>
@@ -11593,11 +11593,11 @@
       <c r="L16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N16" s="28" t="s">
+      <c r="N16" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
       <c r="U16" s="2">
         <v>12</v>
       </c>
@@ -11675,11 +11675,11 @@
       </c>
     </row>
     <row r="17" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
       <c r="F17" s="6" t="s">
         <v>124</v>
       </c>
@@ -12441,12 +12441,12 @@
       </c>
     </row>
     <row r="24" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="F24" s="28" t="s">
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="F24" s="30" t="s">
         <v>81</v>
       </c>
       <c r="G24" s="31"/>
@@ -12985,11 +12985,11 @@
       </c>
     </row>
     <row r="29" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
       <c r="F29" t="s">
         <v>97</v>
       </c>
@@ -13093,11 +13093,11 @@
       <c r="H30" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="J30" s="32" t="s">
+      <c r="J30" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
       <c r="U30" s="2">
         <v>26</v>
       </c>
@@ -13383,7 +13383,7 @@
         <v>0.80011066800000008</v>
       </c>
       <c r="D33"/>
-      <c r="F33" s="28" t="s">
+      <c r="F33" s="30" t="s">
         <v>156</v>
       </c>
       <c r="G33" s="31"/>
@@ -13572,11 +13572,11 @@
       </c>
     </row>
     <row r="35" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
       <c r="F35" s="26" t="s">
         <v>132</v>
       </c>
@@ -13742,11 +13742,11 @@
       <c r="C38" s="17">
         <v>0.8</v>
       </c>
-      <c r="J38" s="32" t="s">
+      <c r="J38" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
       <c r="AF38" s="2">
         <v>34</v>
       </c>
@@ -13833,11 +13833,11 @@
       </c>
     </row>
     <row r="40" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
       <c r="J40" s="11" t="s">
         <v>52</v>
       </c>
@@ -14142,16 +14142,16 @@
       </c>
     </row>
     <row r="46" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="J46" s="32" t="s">
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="J46" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="K46" s="32"/>
-      <c r="L46" s="32"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
       <c r="N46" s="6" t="s">
         <v>153</v>
       </c>
@@ -14255,11 +14255,11 @@
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
@@ -14295,17 +14295,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="F33:H33"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="N16:P16"/>
     <mergeCell ref="B1:D1"/>
@@ -14318,6 +14307,17 @@
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="N12:P12"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="F33:H33"/>
   </mergeCells>
   <conditionalFormatting sqref="K28">
     <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="FALSE">
@@ -14348,8 +14348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D23DFBB-4DC1-7D4A-8A65-BB29C8D40E75}">
   <dimension ref="B1:AO56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14393,11 +14393,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="2:41" x14ac:dyDescent="0.2">
       <c r="U2" s="16" t="s">
@@ -14408,26 +14408,26 @@
       </c>
     </row>
     <row r="3" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>118</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="30" t="s">
         <v>80</v>
       </c>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="N3" s="32" t="s">
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="N3" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
       <c r="U3" s="7" t="s">
         <v>41</v>
       </c>
@@ -14511,7 +14511,7 @@
       </c>
       <c r="K4" s="6">
         <f>(1+$C$22/100)*MAX(G12,G22,G31,G35)</f>
-        <v>580.42646772418004</v>
+        <v>567.02943177951727</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>101</v>
@@ -14521,7 +14521,7 @@
       </c>
       <c r="O4" s="6">
         <f xml:space="preserve"> 0.5 * $C$47 * $C$8^2</f>
-        <v>2267.4637855940923</v>
+        <v>1935.8554336774664</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>23</v>
@@ -14534,14 +14534,14 @@
       </c>
       <c r="W4" s="2">
         <f t="shared" ref="W4:W34" si="0" xml:space="preserve"> $O$20 * TAN($O$17/180*PI()) + $O$21 / (2 * SQRT($O$20^2 + V4^2)) - V4</f>
-        <v>5.0288180336866384E-2</v>
+        <v>4.2553431105326354E-2</v>
       </c>
       <c r="X4" s="3">
         <v>1</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" ref="Y4:Y34" si="1" xml:space="preserve"> $O$20 * TAN($O$17/180*PI()) + $O$21 / (2 * SQRT($O$20^2 + X4^2)) - X4</f>
-        <v>-0.95443421059020572</v>
+        <v>-0.96355802661259327</v>
       </c>
       <c r="Z4" s="2">
         <f xml:space="preserve"> (V4 + X4)/2</f>
@@ -14549,15 +14549,15 @@
       </c>
       <c r="AA4" s="2">
         <f t="shared" ref="AA4:AA34" si="2" xml:space="preserve"> $O$20 * TAN($O$17/180*PI()) + $O$21 / (2 * SQRT($O$20^2 + Z4^2)) - Z4</f>
-        <v>-0.45220868062559072</v>
+        <v>-0.460974323390827</v>
       </c>
       <c r="AB4" s="2">
         <f>W4*AA4</f>
-        <v>-2.274075168119612E-2</v>
+        <v>-1.9616039111735987E-2</v>
       </c>
       <c r="AC4" s="2">
         <f>Y4*AA4</f>
-        <v>0.43160343511492416</v>
+        <v>0.44417550936554068</v>
       </c>
       <c r="AD4" s="2">
         <f>X4-V4</f>
@@ -14569,17 +14569,17 @@
       <c r="AG4" s="2"/>
       <c r="AH4" s="2">
         <f>K27</f>
-        <v>-9.52461617453082E-3</v>
+        <v>-8.2266087024436274E-3</v>
       </c>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2">
         <f>K27</f>
-        <v>-9.52461617453082E-3</v>
+        <v>-8.2266087024436274E-3</v>
       </c>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2">
         <f>K27</f>
-        <v>-9.52461617453082E-3</v>
+        <v>-8.2266087024436274E-3</v>
       </c>
       <c r="AM4" s="2"/>
       <c r="AN4" s="2"/>
@@ -14590,7 +14590,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="10">
-        <v>2976.9289843817201</v>
+        <v>2707.4864013965798</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>7</v>
@@ -14610,7 +14610,7 @@
       </c>
       <c r="K5" s="6">
         <f>K4/$C$18</f>
-        <v>145.10661693104501</v>
+        <v>141.75735794487932</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>101</v>
@@ -14620,7 +14620,7 @@
       </c>
       <c r="O5" s="6">
         <f xml:space="preserve"> $C$18 * 0.85 * ($C$5/$C$18 *2.20462/1000)^(2/3) * 0.3048^2</f>
-        <v>0.43941039480020244</v>
+        <v>0.41247933877031973</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>115</v>
@@ -14634,7 +14634,7 @@
       </c>
       <c r="W5" s="2">
         <f t="shared" si="0"/>
-        <v>5.0288180336866384E-2</v>
+        <v>4.2553431105326354E-2</v>
       </c>
       <c r="X5" s="2">
         <f>IF(AC4&gt;0, Z4, X4)</f>
@@ -14642,7 +14642,7 @@
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="1"/>
-        <v>-0.45220868062559072</v>
+        <v>-0.460974323390827</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" ref="Z5:Z34" si="3" xml:space="preserve"> (V5 + X5)/2</f>
@@ -14650,15 +14650,15 @@
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="2"/>
-        <v>-0.20061015471047389</v>
+        <v>-0.20882528223695196</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" ref="AB5:AB34" si="4">W5*AA5</f>
-        <v>-1.0088319637486977E-2</v>
+        <v>-8.8862322607204669E-3</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" ref="AC5:AC34" si="5">Y5*AA5</f>
-        <v>9.0717653381719027E-2</v>
+        <v>9.6263093186077411E-2</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" ref="AD5:AD33" si="6">X5-V5</f>
@@ -14671,15 +14671,15 @@
         <v>500</v>
       </c>
       <c r="AH5" s="2">
-        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5" ca="1"/>
-        <v>-1261.1497382974458</v>
+        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5"/>
+        <v>-1104.174433020557</v>
       </c>
       <c r="AI5" s="3">
         <v>10000</v>
       </c>
       <c r="AJ5" s="2">
-        <f t="dataTable" ref="AJ5:AJ44" dt2D="0" dtr="0" r1="C5"/>
-        <v>1640.5331186606627</v>
+        <f t="dataTable" ref="AJ5:AJ44" dt2D="0" dtr="0" r1="C5" ca="1"/>
+        <v>733.55861405586256</v>
       </c>
       <c r="AK5" s="2">
         <f>(AG5+AI5)/2</f>
@@ -14687,15 +14687,15 @@
       </c>
       <c r="AL5" s="2">
         <f t="dataTable" ref="AL5:AL44" dt2D="0" dtr="0" r1="C5" ca="1"/>
-        <v>845.83580987154937</v>
+        <v>749.23098877662414</v>
       </c>
       <c r="AM5" s="2">
         <f>AH5*AL5</f>
-        <v>-1066725.6102621127</v>
+        <v>-827281.70223386027</v>
       </c>
       <c r="AN5" s="2">
         <f>AJ5*AL5</f>
-        <v>1387621.6590434401</v>
+        <v>549604.84573468391</v>
       </c>
       <c r="AO5" s="2">
         <f>AI5-AG5</f>
@@ -14740,7 +14740,7 @@
       </c>
       <c r="W6" s="2">
         <f t="shared" si="0"/>
-        <v>5.0288180336866384E-2</v>
+        <v>4.2553431105326354E-2</v>
       </c>
       <c r="X6" s="2">
         <f t="shared" ref="X6:X34" si="8">IF(AC5&gt;0, Z5, X5)</f>
@@ -14748,7 +14748,7 @@
       </c>
       <c r="Y6" s="2">
         <f t="shared" si="1"/>
-        <v>-0.20061015471047389</v>
+        <v>-0.20882528223695196</v>
       </c>
       <c r="Z6" s="2">
         <f t="shared" si="3"/>
@@ -14756,15 +14756,15 @@
       </c>
       <c r="AA6" s="2">
         <f t="shared" si="2"/>
-        <v>-7.4965674082808589E-2</v>
+        <v>-8.2851801444217332E-2</v>
       </c>
       <c r="AB6" s="2">
         <f t="shared" si="4"/>
-        <v>-3.7698873373510286E-3</v>
+        <v>-3.5256284247086808E-3</v>
       </c>
       <c r="AC6" s="2">
         <f t="shared" si="5"/>
-        <v>1.5038875475727194E-2</v>
+        <v>1.7301550820428589E-2</v>
       </c>
       <c r="AD6" s="2">
         <f t="shared" si="6"/>
@@ -14778,29 +14778,29 @@
         <v>500</v>
       </c>
       <c r="AH6" s="2">
-        <v>-1261.1497382974458</v>
+        <v>-1104.174433020557</v>
       </c>
       <c r="AI6" s="2">
         <f>IF(AN5&gt;0, AK5, AI5)</f>
         <v>5250</v>
       </c>
       <c r="AJ6" s="2">
-        <v>845.83580987154937</v>
+        <v>749.23098877662414</v>
       </c>
       <c r="AK6" s="2">
         <f t="shared" ref="AK6:AK43" si="9">(AG6+AI6)/2</f>
         <v>2875</v>
       </c>
       <c r="AL6" s="2">
-        <v>-45.293977093621834</v>
+        <v>66.901717474489033</v>
       </c>
       <c r="AM6" s="2">
         <f t="shared" ref="AM6:AM44" si="10">AH6*AL6</f>
-        <v>57122.487358071681</v>
+        <v>-73871.165960495418</v>
       </c>
       <c r="AN6" s="2">
         <f t="shared" ref="AN6:AN44" si="11">AJ6*AL6</f>
-        <v>-38311.26779728703</v>
+        <v>50124.839934265772</v>
       </c>
       <c r="AO6" s="2">
         <f t="shared" ref="AO6:AO44" si="12">AI6-AG6</f>
@@ -14812,7 +14812,7 @@
         <v>142</v>
       </c>
       <c r="C7" s="17">
-        <v>326.57507282561801</v>
+        <v>404.33810347350698</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>125</v>
@@ -14822,22 +14822,22 @@
       </c>
       <c r="G7" s="8">
         <f>$C$6*2*PI()/60*$C$9</f>
-        <v>163.08259876973349</v>
+        <v>143.10856534931449</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
       <c r="N7" s="6" t="s">
         <v>159</v>
       </c>
       <c r="O7" s="6">
         <f>O5+$O$6</f>
-        <v>1.0696870181352984</v>
+        <v>1.0427559621054159</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>115</v>
@@ -14851,7 +14851,7 @@
       </c>
       <c r="W7" s="2">
         <f t="shared" si="0"/>
-        <v>5.0288180336866384E-2</v>
+        <v>4.2553431105326354E-2</v>
       </c>
       <c r="X7" s="2">
         <f t="shared" si="8"/>
@@ -14859,7 +14859,7 @@
       </c>
       <c r="Y7" s="2">
         <f t="shared" si="1"/>
-        <v>-7.4965674082808589E-2</v>
+        <v>-8.2851801444217332E-2</v>
       </c>
       <c r="Z7" s="2">
         <f t="shared" si="3"/>
@@ -14867,15 +14867,15 @@
       </c>
       <c r="AA7" s="2">
         <f t="shared" si="2"/>
-        <v>-1.2277458483441174E-2</v>
+        <v>-2.0052640807819391E-2</v>
       </c>
       <c r="AB7" s="2">
         <f t="shared" si="4"/>
-        <v>-6.1741104629367983E-4</v>
+        <v>-8.5330866909539833E-4</v>
       </c>
       <c r="AC7" s="2">
         <f t="shared" si="5"/>
-        <v>9.2038795123486447E-4</v>
+        <v>1.6613974146416622E-3</v>
       </c>
       <c r="AD7" s="2">
         <f t="shared" si="6"/>
@@ -14886,32 +14886,32 @@
       </c>
       <c r="AG7" s="2">
         <f t="shared" ref="AG7:AG44" si="13">IF(AM6&gt;0, AK6, AG6)</f>
-        <v>2875</v>
+        <v>500</v>
       </c>
       <c r="AH7" s="2">
-        <v>-45.293977093621834</v>
+        <v>-1104.174433020557</v>
       </c>
       <c r="AI7" s="2">
         <f t="shared" ref="AI7:AI44" si="14">IF(AN6&gt;0, AK6, AI6)</f>
-        <v>5250</v>
+        <v>2875</v>
       </c>
       <c r="AJ7" s="2">
-        <v>845.83580987154937</v>
+        <v>66.901717474489033</v>
       </c>
       <c r="AK7" s="2">
         <f t="shared" si="9"/>
-        <v>4062.5</v>
+        <v>1687.5</v>
       </c>
       <c r="AL7" s="2">
-        <v>443.7238009801481</v>
+        <v>-456.43225661206861</v>
       </c>
       <c r="AM7" s="2">
         <f t="shared" si="10"/>
-        <v>-20098.015677489642</v>
+        <v>503980.82815692422</v>
       </c>
       <c r="AN7" s="2">
         <f t="shared" si="11"/>
-        <v>375317.48056132573</v>
+        <v>-30536.101878104095</v>
       </c>
       <c r="AO7" s="2">
         <f t="shared" si="12"/>
@@ -14923,8 +14923,8 @@
         <v>9</v>
       </c>
       <c r="C8" s="17">
-        <f>150 * 1609.344 / 3600</f>
-        <v>67.055999999999997</v>
+        <f xml:space="preserve"> 223.05215597965 * 1000 / 3600</f>
+        <v>61.958932216569444</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>10</v>
@@ -14934,7 +14934,7 @@
       </c>
       <c r="G8" s="8">
         <f>G7/$C$43</f>
-        <v>0.48839270188810274</v>
+        <v>0.42857533189649721</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>122</v>
@@ -14944,7 +14944,7 @@
       </c>
       <c r="K8" s="6">
         <f xml:space="preserve"> $C$15 * (G12*G6 + G22*G15 + G31*G27 +G35*G34)/3600</f>
-        <v>228.12538666005614</v>
+        <v>204.31753289898714</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>102</v>
@@ -14954,7 +14954,7 @@
       </c>
       <c r="O8" s="6">
         <f xml:space="preserve"> O4 *O7</f>
-        <v>2425.4765755419203</v>
+        <v>2018.6247952413437</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>20</v>
@@ -14968,7 +14968,7 @@
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>5.0288180336866384E-2</v>
+        <v>4.2553431105326354E-2</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="8"/>
@@ -14976,7 +14976,7 @@
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="1"/>
-        <v>-1.2277458483441174E-2</v>
+        <v>-2.0052640807819391E-2</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="3"/>
@@ -14984,15 +14984,15 @@
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="2"/>
-        <v>1.9021628135484858E-2</v>
+        <v>1.1276595642216267E-2</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="4"/>
-        <v>9.5656306597807403E-4</v>
+        <v>4.7985783576367331E-4</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="5"/>
-        <v>-2.3353724972087188E-4</v>
+        <v>-2.2612552194838423E-4</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="6"/>
@@ -15003,32 +15003,32 @@
       </c>
       <c r="AG8" s="2">
         <f t="shared" si="13"/>
-        <v>2875</v>
+        <v>1687.5</v>
       </c>
       <c r="AH8" s="2">
-        <v>-45.293977093621834</v>
+        <v>-456.43225661206861</v>
       </c>
       <c r="AI8" s="2">
         <f t="shared" si="14"/>
-        <v>4062.5</v>
+        <v>2875</v>
       </c>
       <c r="AJ8" s="2">
-        <v>443.7238009801481</v>
+        <v>66.901717474489033</v>
       </c>
       <c r="AK8" s="2">
         <f t="shared" si="9"/>
-        <v>3468.75</v>
+        <v>2281.25</v>
       </c>
       <c r="AL8" s="2">
-        <v>210.10678774913731</v>
+        <v>-181.22118101376691</v>
       </c>
       <c r="AM8" s="2">
         <f t="shared" si="10"/>
-        <v>-9516.5720315238905</v>
+        <v>82715.19259601779</v>
       </c>
       <c r="AN8" s="2">
         <f t="shared" si="11"/>
-        <v>93229.382471776422</v>
+        <v>-12124.00825257627</v>
       </c>
       <c r="AO8" s="2">
         <f t="shared" si="12"/>
@@ -15040,7 +15040,7 @@
         <v>95</v>
       </c>
       <c r="C9" s="17">
-        <v>3.8933102589713</v>
+        <v>3.41646533611994</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>8</v>
@@ -15050,7 +15050,7 @@
       </c>
       <c r="G9" s="6">
         <f xml:space="preserve"> $C$5 * $C$44 / $C$18</f>
-        <v>7294.5858052051262</v>
+        <v>6634.3510292084729</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>20</v>
@@ -15060,7 +15060,7 @@
       </c>
       <c r="K9" s="6">
         <f xml:space="preserve"> $C$15 * (G6 + G15 + G27 + G34)/60</f>
-        <v>49.333333333333336</v>
+        <v>51.307699617999866</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>103</v>
@@ -15070,7 +15070,7 @@
       </c>
       <c r="O9" s="6">
         <f xml:space="preserve"> O8</f>
-        <v>2425.4765755419203</v>
+        <v>2018.6247952413437</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>20</v>
@@ -15084,7 +15084,7 @@
       </c>
       <c r="W9" s="2">
         <f t="shared" si="0"/>
-        <v>1.9021628135484858E-2</v>
+        <v>1.1276595642216267E-2</v>
       </c>
       <c r="X9" s="2">
         <f t="shared" si="8"/>
@@ -15092,7 +15092,7 @@
       </c>
       <c r="Y9" s="2">
         <f t="shared" si="1"/>
-        <v>-1.2277458483441174E-2</v>
+        <v>-2.0052640807819391E-2</v>
       </c>
       <c r="Z9" s="2">
         <f t="shared" si="3"/>
@@ -15100,15 +15100,15 @@
       </c>
       <c r="AA9" s="2">
         <f t="shared" si="2"/>
-        <v>3.3760722230067458E-3</v>
+        <v>-4.3816487473368887E-3</v>
       </c>
       <c r="AB9" s="2">
         <f t="shared" si="4"/>
-        <v>6.4218390384574033E-5</v>
+        <v>-4.9410081169941526E-5</v>
       </c>
       <c r="AC9" s="2">
         <f t="shared" si="5"/>
-        <v>-4.1449586555064274E-5</v>
+        <v>8.7863628476378411E-5</v>
       </c>
       <c r="AD9" s="2">
         <f t="shared" si="6"/>
@@ -15119,32 +15119,32 @@
       </c>
       <c r="AG9" s="2">
         <f t="shared" si="13"/>
-        <v>2875</v>
+        <v>2281.25</v>
       </c>
       <c r="AH9" s="2">
-        <v>-45.293977093621834</v>
+        <v>-181.22118101376691</v>
       </c>
       <c r="AI9" s="2">
         <f t="shared" si="14"/>
-        <v>3468.75</v>
+        <v>2875</v>
       </c>
       <c r="AJ9" s="2">
-        <v>210.10678774913731</v>
+        <v>66.901717474489033</v>
       </c>
       <c r="AK9" s="2">
         <f t="shared" si="9"/>
-        <v>3171.875</v>
+        <v>2578.125</v>
       </c>
       <c r="AL9" s="2">
-        <v>84.990542120280679</v>
+        <v>-53.395882295584443</v>
       </c>
       <c r="AM9" s="2">
         <f t="shared" si="10"/>
-        <v>-3849.5596679704945</v>
+        <v>9676.4648508778992</v>
       </c>
       <c r="AN9" s="2">
         <f t="shared" si="11"/>
-        <v>17857.089793949926</v>
+        <v>-3572.2762316402614</v>
       </c>
       <c r="AO9" s="2">
         <f t="shared" si="12"/>
@@ -15164,7 +15164,7 @@
       </c>
       <c r="G10" s="6">
         <f>G12/$C$18</f>
-        <v>96.737744620696674</v>
+        <v>94.504905296586216</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>101</v>
@@ -15174,42 +15174,42 @@
       </c>
       <c r="O10" s="6">
         <f>O7/(0.3048^2)/($C$5*2.20462/1000)^(2/3)</f>
-        <v>3.2846718472403547</v>
+        <v>3.4110341834524207</v>
       </c>
       <c r="U10" s="2">
         <v>6</v>
       </c>
       <c r="V10" s="2">
         <f t="shared" si="7"/>
-        <v>4.6875E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="W10" s="2">
         <f t="shared" si="0"/>
-        <v>3.3760722230067458E-3</v>
+        <v>1.1276595642216267E-2</v>
       </c>
       <c r="X10" s="2">
         <f t="shared" si="8"/>
-        <v>6.25E-2</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="Y10" s="2">
         <f t="shared" si="1"/>
-        <v>-1.2277458483441174E-2</v>
+        <v>-4.3816487473368887E-3</v>
       </c>
       <c r="Z10" s="2">
         <f t="shared" si="3"/>
-        <v>5.46875E-2</v>
+        <v>3.90625E-2</v>
       </c>
       <c r="AA10" s="2">
         <f t="shared" si="2"/>
-        <v>-4.4497098597074264E-3</v>
+        <v>3.4490947104885775E-3</v>
       </c>
       <c r="AB10" s="2">
         <f t="shared" si="4"/>
-        <v>-1.5022541857797485E-5</v>
+        <v>3.8894046381886671E-5</v>
       </c>
       <c r="AC10" s="2">
         <f t="shared" si="5"/>
-        <v>5.4631128065916778E-5</v>
+        <v>-1.5112721517658564E-5</v>
       </c>
       <c r="AD10" s="2">
         <f t="shared" si="6"/>
@@ -15220,32 +15220,32 @@
       </c>
       <c r="AG10" s="2">
         <f t="shared" si="13"/>
-        <v>2875</v>
+        <v>2578.125</v>
       </c>
       <c r="AH10" s="2">
-        <v>-45.293977093621834</v>
+        <v>-53.395882295584443</v>
       </c>
       <c r="AI10" s="2">
         <f t="shared" si="14"/>
-        <v>3171.875</v>
+        <v>2875</v>
       </c>
       <c r="AJ10" s="2">
-        <v>84.990542120280679</v>
+        <v>66.901717474489033</v>
       </c>
       <c r="AK10" s="2">
         <f t="shared" si="9"/>
-        <v>3023.4375</v>
+        <v>2726.5625</v>
       </c>
       <c r="AL10" s="2">
-        <v>20.464427178364076</v>
+        <v>7.7394681521304847</v>
       </c>
       <c r="AM10" s="2">
         <f t="shared" si="10"/>
-        <v>-926.9152958509145</v>
+        <v>-413.25573048158378</v>
       </c>
       <c r="AN10" s="2">
         <f t="shared" si="11"/>
-        <v>1739.2827600701687</v>
+        <v>517.78371171663935</v>
       </c>
       <c r="AO10" s="2">
         <f t="shared" si="12"/>
@@ -15258,50 +15258,50 @@
       </c>
       <c r="G11" s="6">
         <f xml:space="preserve"> (G9/$C$44*1000) / ($G$10*1000)</f>
-        <v>7.6932974715662779</v>
+        <v>7.1622906580870938</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
       <c r="U11" s="2">
         <v>7</v>
       </c>
       <c r="V11" s="2">
         <f t="shared" si="7"/>
-        <v>4.6875E-2</v>
+        <v>3.90625E-2</v>
       </c>
       <c r="W11" s="2">
         <f t="shared" si="0"/>
-        <v>3.3760722230067458E-3</v>
+        <v>3.4490947104885775E-3</v>
       </c>
       <c r="X11" s="2">
         <f t="shared" si="8"/>
-        <v>5.46875E-2</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="Y11" s="2">
         <f t="shared" si="1"/>
-        <v>-4.4497098597074264E-3</v>
+        <v>-4.3816487473368887E-3</v>
       </c>
       <c r="Z11" s="2">
         <f t="shared" si="3"/>
-        <v>5.078125E-2</v>
+        <v>4.296875E-2</v>
       </c>
       <c r="AA11" s="2">
         <f t="shared" si="2"/>
-        <v>-5.3657114717860221E-4</v>
+        <v>-4.6587483385068101E-4</v>
       </c>
       <c r="AB11" s="2">
         <f t="shared" si="4"/>
-        <v>-1.8115029456565434E-6</v>
+        <v>-1.6068464251841288E-6</v>
       </c>
       <c r="AC11" s="2">
         <f t="shared" si="5"/>
-        <v>2.387585924035151E-6</v>
+        <v>2.0412998821576176E-6</v>
       </c>
       <c r="AD11" s="2">
         <f t="shared" si="6"/>
@@ -15312,32 +15312,32 @@
       </c>
       <c r="AG11" s="2">
         <f t="shared" si="13"/>
-        <v>2875</v>
+        <v>2578.125</v>
       </c>
       <c r="AH11" s="2">
-        <v>-45.293977093621834</v>
+        <v>-53.395882295584443</v>
       </c>
       <c r="AI11" s="2">
         <f t="shared" si="14"/>
-        <v>3023.4375</v>
+        <v>2726.5625</v>
       </c>
       <c r="AJ11" s="2">
-        <v>20.464427178364076</v>
+        <v>7.7394681521304847</v>
       </c>
       <c r="AK11" s="2">
         <f t="shared" si="9"/>
-        <v>2949.21875</v>
+        <v>2652.34375</v>
       </c>
       <c r="AL11" s="2">
-        <v>-12.2647766498294</v>
+        <v>-22.586257150780511</v>
       </c>
       <c r="AM11" s="2">
         <f t="shared" si="10"/>
-        <v>555.52051263576084</v>
+        <v>1206.0131283208786</v>
       </c>
       <c r="AN11" s="2">
         <f t="shared" si="11"/>
-        <v>-250.99162860933387</v>
+        <v>-174.80561789429518</v>
       </c>
       <c r="AO11" s="2">
         <f t="shared" si="12"/>
@@ -15345,17 +15345,17 @@
       </c>
     </row>
     <row r="12" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
       <c r="F12" s="24" t="s">
         <v>82</v>
       </c>
       <c r="G12" s="25">
         <f xml:space="preserve"> 1/1000 * (($C$5*$C$44)/$C$21 * ( ($G$4/2) + SQRT( ($G$4/2)^2 + ($C$5*$C$44) / (2*$C$41*PI()*$C$9^2 * $C$18) ) ) )</f>
-        <v>386.9509784827867</v>
+        <v>378.01962118634486</v>
       </c>
       <c r="H12" s="25" t="s">
         <v>101</v>
@@ -15365,50 +15365,50 @@
       </c>
       <c r="K12" s="6">
         <f>C5</f>
-        <v>2976.9289843817201</v>
+        <v>2707.4864013965798</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N12" s="28" t="s">
+      <c r="N12" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
       <c r="U12" s="2">
         <v>8</v>
       </c>
       <c r="V12" s="2">
         <f t="shared" si="7"/>
-        <v>4.6875E-2</v>
+        <v>3.90625E-2</v>
       </c>
       <c r="W12" s="2">
         <f t="shared" si="0"/>
-        <v>3.3760722230067458E-3</v>
+        <v>3.4490947104885775E-3</v>
       </c>
       <c r="X12" s="2">
         <f t="shared" si="8"/>
-        <v>5.078125E-2</v>
+        <v>4.296875E-2</v>
       </c>
       <c r="Y12" s="2">
         <f t="shared" si="1"/>
-        <v>-5.3657114717860221E-4</v>
+        <v>-4.6587483385068101E-4</v>
       </c>
       <c r="Z12" s="2">
         <f t="shared" si="3"/>
-        <v>4.8828125E-2</v>
+        <v>4.1015625E-2</v>
       </c>
       <c r="AA12" s="2">
         <f t="shared" si="2"/>
-        <v>1.4198126739773248E-3</v>
+        <v>1.4917108979686441E-3</v>
       </c>
       <c r="AB12" s="2">
         <f t="shared" si="4"/>
-        <v>4.7933901304877793E-6</v>
+        <v>5.1450521677618162E-6</v>
       </c>
       <c r="AC12" s="2">
         <f t="shared" si="5"/>
-        <v>-7.6183051525473193E-7</v>
+        <v>-6.949505667443923E-7</v>
       </c>
       <c r="AD12" s="2">
         <f t="shared" si="6"/>
@@ -15419,32 +15419,32 @@
       </c>
       <c r="AG12" s="2">
         <f t="shared" si="13"/>
-        <v>2949.21875</v>
+        <v>2652.34375</v>
       </c>
       <c r="AH12" s="2">
-        <v>-12.2647766498294</v>
+        <v>-22.586257150780511</v>
       </c>
       <c r="AI12" s="2">
         <f t="shared" si="14"/>
-        <v>3023.4375</v>
+        <v>2726.5625</v>
       </c>
       <c r="AJ12" s="2">
-        <v>20.464427178364076</v>
+        <v>7.7394681521304847</v>
       </c>
       <c r="AK12" s="2">
         <f t="shared" si="9"/>
-        <v>2986.328125</v>
+        <v>2689.453125</v>
       </c>
       <c r="AL12" s="2">
-        <v>4.1378206229510397</v>
+        <v>-7.3622360562044378</v>
       </c>
       <c r="AM12" s="2">
         <f t="shared" si="10"/>
-        <v>-50.749445757552458</v>
+        <v>166.28535677018161</v>
       </c>
       <c r="AN12" s="2">
         <f t="shared" si="11"/>
-        <v>84.678128815514626</v>
+        <v>-56.979791485460986</v>
       </c>
       <c r="AO12" s="2">
         <f t="shared" si="12"/>
@@ -15467,7 +15467,7 @@
       </c>
       <c r="K13" s="6">
         <f xml:space="preserve"> K8 * 1000 / ($C$36 * $C$37 * $C$38)</f>
-        <v>1341.9140391768008</v>
+        <v>1201.8678405822773</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>7</v>
@@ -15477,7 +15477,7 @@
       </c>
       <c r="O13" s="6">
         <f xml:space="preserve"> SQRT( ($C$5*$C$50)^2 + O9^2)</f>
-        <v>29276.198297174353</v>
+        <v>26611.537867599895</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>20</v>
@@ -15487,35 +15487,35 @@
       </c>
       <c r="V13" s="2">
         <f t="shared" si="7"/>
-        <v>4.8828125E-2</v>
+        <v>4.1015625E-2</v>
       </c>
       <c r="W13" s="2">
         <f t="shared" si="0"/>
-        <v>1.4198126739773248E-3</v>
+        <v>1.4917108979686441E-3</v>
       </c>
       <c r="X13" s="2">
         <f t="shared" si="8"/>
-        <v>5.078125E-2</v>
+        <v>4.296875E-2</v>
       </c>
       <c r="Y13" s="2">
         <f t="shared" si="1"/>
-        <v>-5.3657114717860221E-4</v>
+        <v>-4.6587483385068101E-4</v>
       </c>
       <c r="Z13" s="2">
         <f t="shared" si="3"/>
-        <v>4.98046875E-2</v>
+        <v>4.19921875E-2</v>
       </c>
       <c r="AA13" s="2">
         <f t="shared" si="2"/>
-        <v>4.4163627073893347E-4</v>
+        <v>5.1294322164768813E-4</v>
       </c>
       <c r="AB13" s="2">
         <f t="shared" si="4"/>
-        <v>6.2704077448321894E-7</v>
+        <v>7.6516299377100211E-7</v>
       </c>
       <c r="AC13" s="2">
         <f t="shared" si="5"/>
-        <v>-2.3696928042606929E-7</v>
+        <v>-2.3896733815994974E-7</v>
       </c>
       <c r="AD13" s="2">
         <f t="shared" si="6"/>
@@ -15526,32 +15526,32 @@
       </c>
       <c r="AG13" s="2">
         <f t="shared" si="13"/>
-        <v>2949.21875</v>
+        <v>2689.453125</v>
       </c>
       <c r="AH13" s="2">
-        <v>-12.2647766498294</v>
+        <v>-7.3622360562044378</v>
       </c>
       <c r="AI13" s="2">
         <f t="shared" si="14"/>
-        <v>2986.328125</v>
+        <v>2726.5625</v>
       </c>
       <c r="AJ13" s="2">
-        <v>4.1378206229510397</v>
+        <v>7.7394681521304847</v>
       </c>
       <c r="AK13" s="2">
         <f t="shared" si="9"/>
-        <v>2967.7734375</v>
+        <v>2708.0078125</v>
       </c>
       <c r="AL13" s="2">
-        <v>-4.0540513370187909</v>
+        <v>0.20399053677647316</v>
       </c>
       <c r="AM13" s="2">
         <f t="shared" si="10"/>
-        <v>49.722034175477731</v>
+        <v>-1.5018264849802481</v>
       </c>
       <c r="AN13" s="2">
         <f t="shared" si="11"/>
-        <v>-16.77493722881859</v>
+        <v>1.5787782627175164</v>
       </c>
       <c r="AO13" s="2">
         <f t="shared" si="12"/>
@@ -15569,7 +15569,7 @@
       <c r="D14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="30" t="s">
         <v>86</v>
       </c>
       <c r="G14" s="31"/>
@@ -15579,7 +15579,7 @@
       </c>
       <c r="K14" s="6">
         <f xml:space="preserve"> $C$54 * $C$18 * (0.0095 * MAX(G9,O18,G28) - 1.9275)</f>
-        <v>216.33110705852511</v>
+        <v>196.07968779375921</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>7</v>
@@ -15589,42 +15589,42 @@
       </c>
       <c r="O14" s="6">
         <f>$C$5*$C$50/O13</f>
-        <v>0.9965621892366161</v>
+        <v>0.99711884016112051</v>
       </c>
       <c r="U14" s="2">
         <v>10</v>
       </c>
       <c r="V14" s="2">
         <f t="shared" si="7"/>
-        <v>4.98046875E-2</v>
+        <v>4.19921875E-2</v>
       </c>
       <c r="W14" s="2">
         <f t="shared" si="0"/>
-        <v>4.4163627073893347E-4</v>
+        <v>5.1294322164768813E-4</v>
       </c>
       <c r="X14" s="2">
         <f t="shared" si="8"/>
-        <v>5.078125E-2</v>
+        <v>4.296875E-2</v>
       </c>
       <c r="Y14" s="2">
         <f t="shared" si="1"/>
-        <v>-5.3657114717860221E-4</v>
+        <v>-4.6587483385068101E-4</v>
       </c>
       <c r="Z14" s="2">
         <f t="shared" si="3"/>
-        <v>5.029296875E-2</v>
+        <v>4.248046875E-2</v>
       </c>
       <c r="AA14" s="2">
         <f t="shared" si="2"/>
-        <v>-4.746356477287883E-5</v>
+        <v>2.3540484885176127E-5</v>
       </c>
       <c r="AB14" s="2">
         <f t="shared" si="4"/>
-        <v>-2.0961631742270021E-8</v>
+        <v>1.2074932156150951E-8</v>
       </c>
       <c r="AC14" s="2">
         <f t="shared" si="5"/>
-        <v>2.5467579399369485E-8</v>
+        <v>-1.0966919484645896E-8</v>
       </c>
       <c r="AD14" s="2">
         <f t="shared" si="6"/>
@@ -15635,32 +15635,32 @@
       </c>
       <c r="AG14" s="2">
         <f t="shared" si="13"/>
-        <v>2967.7734375</v>
+        <v>2689.453125</v>
       </c>
       <c r="AH14" s="2">
-        <v>-4.0540513370187909</v>
+        <v>-7.3622360562044378</v>
       </c>
       <c r="AI14" s="2">
         <f t="shared" si="14"/>
-        <v>2986.328125</v>
+        <v>2708.0078125</v>
       </c>
       <c r="AJ14" s="2">
-        <v>4.1378206229510397</v>
+        <v>0.20399053677647316</v>
       </c>
       <c r="AK14" s="2">
         <f t="shared" si="9"/>
-        <v>2977.05078125</v>
+        <v>2698.73046875</v>
       </c>
       <c r="AL14" s="2">
-        <v>4.4256376820158039E-2</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AM14" s="2">
         <f t="shared" si="10"/>
-        <v>-0.17941762361936914</v>
+        <v>26.322225483958952</v>
       </c>
       <c r="AN14" s="2">
         <f t="shared" si="11"/>
-        <v>0.18312494870354229</v>
+        <v>-0.72932800098131567</v>
       </c>
       <c r="AO14" s="2">
         <f t="shared" si="12"/>
@@ -15679,7 +15679,7 @@
       </c>
       <c r="G15" s="6">
         <f xml:space="preserve"> $C$14/$C$8</f>
-        <v>1440</v>
+        <v>1558.4619770799916</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>13</v>
@@ -15689,7 +15689,7 @@
       </c>
       <c r="K15" s="6">
         <f xml:space="preserve"> $C$54 * $C$18 * ( 0.0037 * $C$19^0.28 * ($C$9*3.28084)^1.5 * ($G$7*3.28084)^0.43 * ( 0.01742 * $C$19^0.66 * ($C$10*$C$9*3.28084) * ($C$9*3.28084)^1.3 * ($G$7*3.28084)^0.67 + 0.5*(K14/$C$18)* 2.20462 * 9.80665*3.28084 )^0.55 ) * 0.453592</f>
-        <v>322.51528022272817</v>
+        <v>236.5341157418153</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>7</v>
@@ -15699,35 +15699,35 @@
       </c>
       <c r="V15" s="2">
         <f t="shared" si="7"/>
-        <v>4.98046875E-2</v>
+        <v>4.248046875E-2</v>
       </c>
       <c r="W15" s="2">
         <f t="shared" si="0"/>
-        <v>4.4163627073893347E-4</v>
+        <v>2.3540484885176127E-5</v>
       </c>
       <c r="X15" s="2">
         <f t="shared" si="8"/>
-        <v>5.029296875E-2</v>
+        <v>4.296875E-2</v>
       </c>
       <c r="Y15" s="2">
         <f t="shared" si="1"/>
-        <v>-4.746356477287883E-5</v>
+        <v>-4.6587483385068101E-4</v>
       </c>
       <c r="Z15" s="2">
         <f t="shared" si="3"/>
-        <v>5.0048828125E-2</v>
+        <v>4.2724609375E-2</v>
       </c>
       <c r="AA15" s="2">
         <f t="shared" si="2"/>
-        <v>1.9708732177063648E-4</v>
+        <v>-2.2116560254486356E-4</v>
       </c>
       <c r="AB15" s="2">
         <f t="shared" si="4"/>
-        <v>8.7040909796708105E-8</v>
+        <v>-5.2063455238282318E-9</v>
       </c>
       <c r="AC15" s="2">
         <f t="shared" si="5"/>
-        <v>-9.3544668627738174E-9</v>
+        <v>1.0303548833907407E-7</v>
       </c>
       <c r="AD15" s="2">
         <f t="shared" si="6"/>
@@ -15738,32 +15738,32 @@
       </c>
       <c r="AG15" s="2">
         <f t="shared" si="13"/>
-        <v>2967.7734375</v>
+        <v>2698.73046875</v>
       </c>
       <c r="AH15" s="2">
-        <v>-4.0540513370187909</v>
+        <v>-7.3622360562044378</v>
       </c>
       <c r="AI15" s="2">
         <f t="shared" si="14"/>
-        <v>2977.05078125</v>
+        <v>2708.0078125</v>
       </c>
       <c r="AJ15" s="2">
-        <v>4.4256376820158039E-2</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AK15" s="2">
         <f t="shared" si="9"/>
-        <v>2972.412109375</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AL15" s="2">
-        <v>-2.0043114626937495</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AM15" s="2">
         <f t="shared" si="10"/>
-        <v>8.1255815651356844</v>
+        <v>26.322225483958952</v>
       </c>
       <c r="AN15" s="2">
         <f t="shared" si="11"/>
-        <v>-8.8703563357936707E-2</v>
+        <v>12.782792343582694</v>
       </c>
       <c r="AO15" s="2">
         <f t="shared" si="12"/>
@@ -15776,7 +15776,7 @@
       </c>
       <c r="G16" s="8">
         <f>O19*$C$9</f>
-        <v>133.14677892454188</v>
+        <v>144.66061476039064</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>10</v>
@@ -15786,50 +15786,50 @@
       </c>
       <c r="K16" s="6">
         <f xml:space="preserve"> $C$54 * 0.2138 * K4</f>
-        <v>99.276143039543754</v>
+        <v>96.984714011568627</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N16" s="28" t="s">
+      <c r="N16" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
       <c r="U16" s="2">
         <v>12</v>
       </c>
       <c r="V16" s="2">
         <f t="shared" si="7"/>
-        <v>5.0048828125E-2</v>
+        <v>4.248046875E-2</v>
       </c>
       <c r="W16" s="2">
         <f t="shared" si="0"/>
-        <v>1.9708732177063648E-4</v>
+        <v>2.3540484885176127E-5</v>
       </c>
       <c r="X16" s="2">
         <f t="shared" si="8"/>
-        <v>5.029296875E-2</v>
+        <v>4.2724609375E-2</v>
       </c>
       <c r="Y16" s="2">
         <f t="shared" si="1"/>
-        <v>-4.746356477287883E-5</v>
+        <v>-2.2116560254486356E-4</v>
       </c>
       <c r="Z16" s="2">
         <f t="shared" si="3"/>
-        <v>5.01708984375E-2</v>
+        <v>4.26025390625E-2</v>
       </c>
       <c r="AA16" s="2">
         <f t="shared" si="2"/>
-        <v>7.481212064269771E-5</v>
+        <v>-9.8812165743936142E-5</v>
       </c>
       <c r="AB16" s="2">
         <f t="shared" si="4"/>
-        <v>1.4744520493451039E-8</v>
+        <v>-2.3260862941666469E-9</v>
       </c>
       <c r="AC16" s="2">
         <f t="shared" si="5"/>
-        <v>-3.5508499339211081E-9</v>
+        <v>2.1853852175520563E-8</v>
       </c>
       <c r="AD16" s="2">
         <f t="shared" si="6"/>
@@ -15840,50 +15840,50 @@
       </c>
       <c r="AG16" s="2">
         <f t="shared" si="13"/>
-        <v>2972.412109375</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AH16" s="2">
-        <v>-2.0043114626937495</v>
+        <v>-7.3622360562044378</v>
       </c>
       <c r="AI16" s="2">
         <f t="shared" si="14"/>
-        <v>2977.05078125</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AJ16" s="2">
-        <v>4.4256376820158039E-2</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AK16" s="2">
         <f t="shared" si="9"/>
-        <v>2974.7314453125</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AL16" s="2">
-        <v>-0.97987566399478965</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AM16" s="2">
         <f t="shared" si="10"/>
-        <v>1.9639760253594059</v>
+        <v>26.322225483958952</v>
       </c>
       <c r="AN16" s="2">
         <f t="shared" si="11"/>
-        <v>-4.3365746622655972E-2</v>
+        <v>12.782792343582694</v>
       </c>
       <c r="AO16" s="2">
         <f t="shared" si="12"/>
-        <v>4.638671875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
       <c r="F17" s="6" t="s">
         <v>124</v>
       </c>
       <c r="G17" s="6">
         <f>G16/$C$49</f>
-        <v>0.40017455445858202</v>
+        <v>0.43477955326468354</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>122</v>
@@ -15893,7 +15893,7 @@
       </c>
       <c r="K17" s="6">
         <f xml:space="preserve"> $C$54 * 0.1149 * K4</f>
-        <v>53.352800913206629</v>
+        <v>52.121345369173227</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>7</v>
@@ -15903,7 +15903,7 @@
       </c>
       <c r="O17" s="6">
         <f xml:space="preserve"> ACOS(O14)/PI()*180</f>
-        <v>4.7522919249536564</v>
+        <v>4.3503643789181154</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>40</v>
@@ -15913,35 +15913,35 @@
       </c>
       <c r="V17" s="2">
         <f t="shared" si="7"/>
-        <v>5.01708984375E-2</v>
+        <v>4.248046875E-2</v>
       </c>
       <c r="W17" s="2">
         <f t="shared" si="0"/>
-        <v>7.481212064269771E-5</v>
+        <v>2.3540484885176127E-5</v>
       </c>
       <c r="X17" s="2">
         <f t="shared" si="8"/>
-        <v>5.029296875E-2</v>
+        <v>4.26025390625E-2</v>
       </c>
       <c r="Y17" s="2">
         <f t="shared" si="1"/>
-        <v>-4.746356477287883E-5</v>
+        <v>-9.8812165743936142E-5</v>
       </c>
       <c r="Z17" s="2">
         <f t="shared" si="3"/>
-        <v>5.023193359375E-2</v>
+        <v>4.254150390625E-2</v>
       </c>
       <c r="AA17" s="2">
         <f t="shared" si="2"/>
-        <v>1.367433846422017E-5</v>
+        <v>-3.7635742145256113E-5</v>
       </c>
       <c r="AB17" s="2">
         <f t="shared" si="4"/>
-        <v>1.0230062588943212E-9</v>
+        <v>-8.8596361911278769E-10</v>
       </c>
       <c r="AC17" s="2">
         <f t="shared" si="5"/>
-        <v>-6.4903284942278247E-10</v>
+        <v>3.71886919075309E-9</v>
       </c>
       <c r="AD17" s="2">
         <f t="shared" si="6"/>
@@ -15952,36 +15952,36 @@
       </c>
       <c r="AG17" s="2">
         <f t="shared" si="13"/>
-        <v>2974.7314453125</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AH17" s="2">
-        <v>-0.97987566399478965</v>
+        <v>-7.3622360562044378</v>
       </c>
       <c r="AI17" s="2">
         <f t="shared" si="14"/>
-        <v>2977.05078125</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AJ17" s="2">
-        <v>4.4256376820158039E-2</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AK17" s="2">
         <f t="shared" si="9"/>
-        <v>2975.89111328125</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AL17" s="2">
-        <v>-0.46776479631671464</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AM17" s="2">
         <f t="shared" si="10"/>
-        <v>0.45835134038422831</v>
+        <v>26.322225483958952</v>
       </c>
       <c r="AN17" s="2">
         <f t="shared" si="11"/>
-        <v>-2.0701575088996997E-2</v>
+        <v>12.782792343582694</v>
       </c>
       <c r="AO17" s="2">
         <f t="shared" si="12"/>
-        <v>2.3193359375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:41" x14ac:dyDescent="0.2">
@@ -15996,7 +15996,7 @@
       </c>
       <c r="G18" s="6">
         <f>O18</f>
-        <v>7319.0495742935882</v>
+        <v>6652.8844668999736</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>20</v>
@@ -16006,7 +16006,7 @@
       </c>
       <c r="K18" s="6">
         <f xml:space="preserve"> $C$55 * (14.86 * ($C$5*2.20462)^0.144 * ($C$26/(PI()*$C$27))^0.778 * ($C$26*3.28084)^0.383 * $C$25^0.455 * 0.453592)</f>
-        <v>137.66917835506354</v>
+        <v>135.80119919510028</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>7</v>
@@ -16016,7 +16016,7 @@
       </c>
       <c r="O18" s="6">
         <f xml:space="preserve"> O13 / $C$18</f>
-        <v>7319.0495742935882</v>
+        <v>6652.8844668999736</v>
       </c>
       <c r="P18" s="6" t="s">
         <v>20</v>
@@ -16026,35 +16026,35 @@
       </c>
       <c r="V18" s="2">
         <f t="shared" si="7"/>
-        <v>5.023193359375E-2</v>
+        <v>4.248046875E-2</v>
       </c>
       <c r="W18" s="2">
         <f t="shared" si="0"/>
-        <v>1.367433846422017E-5</v>
+        <v>2.3540484885176127E-5</v>
       </c>
       <c r="X18" s="2">
         <f t="shared" si="8"/>
-        <v>5.029296875E-2</v>
+        <v>4.254150390625E-2</v>
       </c>
       <c r="Y18" s="2">
         <f t="shared" si="1"/>
-        <v>-4.746356477287883E-5</v>
+        <v>-3.7635742145256113E-5</v>
       </c>
       <c r="Z18" s="2">
         <f t="shared" si="3"/>
-        <v>5.0262451171875E-2</v>
+        <v>4.2510986328125E-2</v>
       </c>
       <c r="AA18" s="2">
         <f t="shared" si="2"/>
-        <v>-1.6894598022836049E-5</v>
+        <v>-7.0476040574252163E-6</v>
       </c>
       <c r="AB18" s="2">
         <f t="shared" si="4"/>
-        <v>-2.3102245158120504E-10</v>
+        <v>-1.6590401679052424E-10</v>
       </c>
       <c r="AC18" s="2">
         <f t="shared" si="5"/>
-        <v>8.0187784756862942E-10</v>
+        <v>2.6524180904711622E-10</v>
       </c>
       <c r="AD18" s="2">
         <f t="shared" si="6"/>
@@ -16065,36 +16065,36 @@
       </c>
       <c r="AG18" s="2">
         <f t="shared" si="13"/>
-        <v>2975.89111328125</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AH18" s="2">
-        <v>-0.46776479631671464</v>
+        <v>-7.3622360562044378</v>
       </c>
       <c r="AI18" s="2">
         <f t="shared" si="14"/>
-        <v>2977.05078125</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AJ18" s="2">
-        <v>4.4256376820158039E-2</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AK18" s="2">
         <f t="shared" si="9"/>
-        <v>2976.470947265625</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AL18" s="2">
-        <v>-0.21175652219835683</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AM18" s="2">
         <f t="shared" si="10"/>
-        <v>9.9052246474850239E-2</v>
+        <v>26.322225483958952</v>
       </c>
       <c r="AN18" s="2">
         <f t="shared" si="11"/>
-        <v>-9.3715764405366414E-3</v>
+        <v>12.782792343582694</v>
       </c>
       <c r="AO18" s="2">
         <f t="shared" si="12"/>
-        <v>1.15966796875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:41" x14ac:dyDescent="0.2">
@@ -16110,7 +16110,7 @@
       </c>
       <c r="G19" s="6">
         <f xml:space="preserve"> 1/1000 * (O23 + O18 * (O25 * O28 + $C$8 * SIN(O17/180*PI())))</f>
-        <v>67.048859825465854</v>
+        <v>56.56895125955743</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>101</v>
@@ -16120,7 +16120,7 @@
       </c>
       <c r="K19" s="6">
         <f xml:space="preserve"> $C$55 * C31 * $C$5</f>
-        <v>33.34160462507527</v>
+        <v>30.3238476956417</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>7</v>
@@ -16130,7 +16130,7 @@
       </c>
       <c r="O19" s="6">
         <f>$C$7*2*PI()/60</f>
-        <v>34.198861654483771</v>
+        <v>42.342187181293305</v>
       </c>
       <c r="P19" s="6" t="s">
         <v>27</v>
@@ -16140,35 +16140,35 @@
       </c>
       <c r="V19" s="2">
         <f t="shared" si="7"/>
-        <v>5.023193359375E-2</v>
+        <v>4.248046875E-2</v>
       </c>
       <c r="W19" s="2">
         <f t="shared" si="0"/>
-        <v>1.367433846422017E-5</v>
+        <v>2.3540484885176127E-5</v>
       </c>
       <c r="X19" s="2">
         <f t="shared" si="8"/>
-        <v>5.0262451171875E-2</v>
+        <v>4.2510986328125E-2</v>
       </c>
       <c r="Y19" s="2">
         <f t="shared" si="1"/>
-        <v>-1.6894598022836049E-5</v>
+        <v>-7.0476040574252163E-6</v>
       </c>
       <c r="Z19" s="2">
         <f t="shared" si="3"/>
-        <v>5.02471923828125E-2</v>
+        <v>4.24957275390625E-2</v>
       </c>
       <c r="AA19" s="2">
         <f t="shared" si="2"/>
-        <v>-1.6101259963305359E-6</v>
+        <v>8.2464465572251733E-6</v>
       </c>
       <c r="AB19" s="2">
         <f t="shared" si="4"/>
-        <v>-2.2017407843863473E-11</v>
+        <v>1.9412535053677189E-10</v>
       </c>
       <c r="AC19" s="2">
         <f t="shared" si="5"/>
-        <v>2.7202431474122797E-11</v>
+        <v>-5.8117690216040337E-11</v>
       </c>
       <c r="AD19" s="2">
         <f t="shared" si="6"/>
@@ -16179,36 +16179,36 @@
       </c>
       <c r="AG19" s="2">
         <f t="shared" si="13"/>
-        <v>2976.470947265625</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AH19" s="2">
-        <v>-0.21175652219835683</v>
+        <v>-7.3622360562044378</v>
       </c>
       <c r="AI19" s="2">
         <f t="shared" si="14"/>
-        <v>2977.05078125</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AJ19" s="2">
-        <v>4.4256376820158039E-2</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AK19" s="2">
         <f t="shared" si="9"/>
-        <v>2976.7608642578125</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AL19" s="2">
-        <v>-8.3734852954421513E-2</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AM19" s="2">
         <f t="shared" si="10"/>
-        <v>1.7731401248419106E-2</v>
+        <v>26.322225483958952</v>
       </c>
       <c r="AN19" s="2">
         <f t="shared" si="11"/>
-        <v>-3.7058012053314019E-3</v>
+        <v>12.782792343582694</v>
       </c>
       <c r="AO19" s="2">
         <f t="shared" si="12"/>
-        <v>0.579833984375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:41" x14ac:dyDescent="0.2">
@@ -16224,7 +16224,7 @@
       </c>
       <c r="G20" s="6">
         <f xml:space="preserve"> (G18/$C$50*1000) / ($G$19*1000)</f>
-        <v>11.138140212206299</v>
+        <v>11.99999992058313</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>147</v>
@@ -16244,42 +16244,42 @@
       </c>
       <c r="O20" s="6">
         <f xml:space="preserve"> $C$8 * COS(O17/180*PI()) / (O19 * $C$9)</f>
-        <v>0.50189328424777335</v>
+        <v>0.42707145086959242</v>
       </c>
       <c r="U20" s="2">
         <v>16</v>
       </c>
       <c r="V20" s="2">
         <f t="shared" si="7"/>
-        <v>5.023193359375E-2</v>
+        <v>4.24957275390625E-2</v>
       </c>
       <c r="W20" s="2">
         <f t="shared" si="0"/>
-        <v>1.367433846422017E-5</v>
+        <v>8.2464465572251733E-6</v>
       </c>
       <c r="X20" s="2">
         <f t="shared" si="8"/>
-        <v>5.02471923828125E-2</v>
+        <v>4.2510986328125E-2</v>
       </c>
       <c r="Y20" s="2">
         <f t="shared" si="1"/>
-        <v>-1.6101259963305359E-6</v>
+        <v>-7.0476040574252163E-6</v>
       </c>
       <c r="Z20" s="2">
         <f t="shared" si="3"/>
-        <v>5.023956298828125E-2</v>
+        <v>4.250335693359375E-2</v>
       </c>
       <c r="AA20" s="2">
         <f t="shared" si="2"/>
-        <v>6.0321071796987091E-6</v>
+        <v>5.994227857131218E-7</v>
       </c>
       <c r="AB20" s="2">
         <f t="shared" si="4"/>
-        <v>8.2485075227652704E-11</v>
+        <v>4.9431079675662962E-12</v>
       </c>
       <c r="AC20" s="2">
         <f t="shared" si="5"/>
-        <v>-9.7124525826849628E-12</v>
+        <v>-4.2244944567049233E-12</v>
       </c>
       <c r="AD20" s="2">
         <f t="shared" si="6"/>
@@ -16290,36 +16290,36 @@
       </c>
       <c r="AG20" s="2">
         <f t="shared" si="13"/>
-        <v>2976.7608642578125</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AH20" s="2">
-        <v>-8.3734852954421513E-2</v>
+        <v>-7.3622360562044378</v>
       </c>
       <c r="AI20" s="2">
         <f t="shared" si="14"/>
-        <v>2977.05078125</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AJ20" s="2">
-        <v>4.4256376820158039E-2</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AK20" s="2">
         <f t="shared" si="9"/>
-        <v>2976.9058227539062</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AL20" s="2">
-        <v>-1.9739946100798988E-2</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AM20" s="2">
         <f t="shared" si="10"/>
-        <v>1.6529214840786096E-3</v>
+        <v>26.322225483958952</v>
       </c>
       <c r="AN20" s="2">
         <f t="shared" si="11"/>
-        <v>-8.7361849304656944E-4</v>
+        <v>12.782792343582694</v>
       </c>
       <c r="AO20" s="2">
         <f t="shared" si="12"/>
-        <v>0.2899169921875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:41" x14ac:dyDescent="0.2">
@@ -16334,7 +16334,7 @@
       </c>
       <c r="G21" s="6">
         <f>O21/ ($C$19*$C$10/PI())</f>
-        <v>0.13999999999578605</v>
+        <v>0.13999999999236509</v>
       </c>
       <c r="J21" s="14" t="s">
         <v>63</v>
@@ -16351,42 +16351,42 @@
       </c>
       <c r="O21" s="6">
         <f xml:space="preserve"> O18 / ($C$47 * PI() * $C$9^2 * O19^2 * $C$9^2)</f>
-        <v>8.596276786020705E-3</v>
+        <v>8.5962767858106508E-3</v>
       </c>
       <c r="U21" s="2">
         <v>17</v>
       </c>
       <c r="V21" s="2">
         <f t="shared" si="7"/>
-        <v>5.023956298828125E-2</v>
+        <v>4.250335693359375E-2</v>
       </c>
       <c r="W21" s="2">
         <f t="shared" si="0"/>
-        <v>6.0321071796987091E-6</v>
+        <v>5.994227857131218E-7</v>
       </c>
       <c r="X21" s="2">
         <f t="shared" si="8"/>
-        <v>5.02471923828125E-2</v>
+        <v>4.2510986328125E-2</v>
       </c>
       <c r="Y21" s="2">
         <f t="shared" si="1"/>
-        <v>-1.6101259963305359E-6</v>
+        <v>-7.0476040574252163E-6</v>
       </c>
       <c r="Z21" s="2">
         <f t="shared" si="3"/>
-        <v>5.0243377685546875E-2</v>
+        <v>4.2507171630859375E-2</v>
       </c>
       <c r="AA21" s="2">
         <f t="shared" si="2"/>
-        <v>2.2109908281164881E-6</v>
+        <v>-3.2240902519062309E-6</v>
       </c>
       <c r="AB21" s="2">
         <f t="shared" si="4"/>
-        <v>1.3336933648529462E-11</v>
+        <v>-1.9325931601881535E-12</v>
       </c>
       <c r="AC21" s="2">
         <f t="shared" si="5"/>
-        <v>-3.5599738099987371E-12</v>
+        <v>2.2722111540839439E-11</v>
       </c>
       <c r="AD21" s="2">
         <f t="shared" si="6"/>
@@ -16397,36 +16397,36 @@
       </c>
       <c r="AG21" s="2">
         <f t="shared" si="13"/>
-        <v>2976.9058227539062</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AH21" s="2">
-        <v>-1.9739946100798988E-2</v>
+        <v>-7.3622360562044378</v>
       </c>
       <c r="AI21" s="2">
         <f t="shared" si="14"/>
-        <v>2977.05078125</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AJ21" s="2">
-        <v>4.4256376820158039E-2</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AK21" s="2">
         <f t="shared" si="9"/>
-        <v>2976.9783020019531</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AL21" s="2">
-        <v>1.225803835404804E-2</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AM21" s="2">
         <f t="shared" si="10"/>
-        <v>-2.4197301641043506E-4</v>
+        <v>26.322225483958952</v>
       </c>
       <c r="AN21" s="2">
         <f t="shared" si="11"/>
-        <v>5.4249636447269991E-4</v>
+        <v>12.782792343582694</v>
       </c>
       <c r="AO21" s="2">
         <f t="shared" si="12"/>
-        <v>0.14495849609375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:41" x14ac:dyDescent="0.2">
@@ -16444,7 +16444,7 @@
       </c>
       <c r="G22" s="25">
         <f>$C$18 * G19</f>
-        <v>268.19543930186342</v>
+        <v>226.27580503822972</v>
       </c>
       <c r="H22" s="25" t="s">
         <v>101</v>
@@ -16454,7 +16454,7 @@
       </c>
       <c r="K22" s="6">
         <f>$C$55*(0.14*$G$12*1000/745.7)*0.453592</f>
-        <v>26.361809362987781</v>
+        <v>25.753342783255373</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>7</v>
@@ -16470,35 +16470,35 @@
       </c>
       <c r="V22" s="2">
         <f t="shared" si="7"/>
-        <v>5.0243377685546875E-2</v>
+        <v>4.250335693359375E-2</v>
       </c>
       <c r="W22" s="2">
         <f t="shared" si="0"/>
-        <v>2.2109908281164881E-6</v>
+        <v>5.994227857131218E-7</v>
       </c>
       <c r="X22" s="2">
         <f t="shared" si="8"/>
-        <v>5.02471923828125E-2</v>
+        <v>4.2507171630859375E-2</v>
       </c>
       <c r="Y22" s="2">
         <f t="shared" si="1"/>
-        <v>-1.6101259963305359E-6</v>
+        <v>-3.2240902519062309E-6</v>
       </c>
       <c r="Z22" s="2">
         <f t="shared" si="3"/>
-        <v>5.0245285034179688E-2</v>
+        <v>4.2505264282226562E-2</v>
       </c>
       <c r="AA22" s="2">
         <f t="shared" si="2"/>
-        <v>3.004324750088827E-7</v>
+        <v>-1.3123336371073657E-6</v>
       </c>
       <c r="AB22" s="2">
         <f t="shared" si="4"/>
-        <v>6.6425344671297569E-13</v>
+        <v>-7.8664268453993024E-13</v>
       </c>
       <c r="AC22" s="2">
         <f t="shared" si="5"/>
-        <v>-4.8373413815372609E-13</v>
+        <v>4.2310820866465073E-12</v>
       </c>
       <c r="AD22" s="2">
         <f t="shared" si="6"/>
@@ -16509,36 +16509,36 @@
       </c>
       <c r="AG22" s="2">
         <f t="shared" si="13"/>
-        <v>2976.9058227539062</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AH22" s="2">
-        <v>-1.9739946100798988E-2</v>
+        <v>-7.3622360562044378</v>
       </c>
       <c r="AI22" s="2">
         <f t="shared" si="14"/>
-        <v>2976.9783020019531</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AJ22" s="2">
-        <v>1.225803835404804E-2</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AK22" s="2">
         <f t="shared" si="9"/>
-        <v>2976.9420623779297</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AL22" s="2">
-        <v>-3.7500255593840848E-3</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AM22" s="2">
         <f t="shared" si="10"/>
-        <v>7.4025302418860404E-5</v>
+        <v>26.322225483958952</v>
       </c>
       <c r="AN22" s="2">
         <f t="shared" si="11"/>
-        <v>-4.5967957135590568E-5</v>
+        <v>12.782792343582694</v>
       </c>
       <c r="AO22" s="2">
         <f t="shared" si="12"/>
-        <v>7.2479248046875E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:41" x14ac:dyDescent="0.2">
@@ -16547,7 +16547,7 @@
       </c>
       <c r="K23" s="6">
         <f xml:space="preserve"> $C$56 * (0.0268 * $C$5)</f>
-        <v>63.825357425144084</v>
+        <v>58.048508445942673</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>7</v>
@@ -16557,7 +16557,7 @@
       </c>
       <c r="O23" s="6">
         <f xml:space="preserve"> ($C$20 * O22 / 8) * (1 + 4.65 *O20^ 2) * ( PI() * $C$47 * O19^3 *$C$9^ 5)</f>
-        <v>16814.395477735114</v>
+        <v>14133.864967567351</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>18</v>
@@ -16567,35 +16567,35 @@
       </c>
       <c r="V23" s="2">
         <f t="shared" si="7"/>
-        <v>5.0245285034179688E-2</v>
+        <v>4.250335693359375E-2</v>
       </c>
       <c r="W23" s="2">
         <f t="shared" si="0"/>
-        <v>3.004324750088827E-7</v>
+        <v>5.994227857131218E-7</v>
       </c>
       <c r="X23" s="2">
         <f t="shared" si="8"/>
-        <v>5.02471923828125E-2</v>
+        <v>4.2505264282226562E-2</v>
       </c>
       <c r="Y23" s="2">
         <f t="shared" si="1"/>
-        <v>-1.6101259963305359E-6</v>
+        <v>-1.3123336371073657E-6</v>
       </c>
       <c r="Z23" s="2">
         <f t="shared" si="3"/>
-        <v>5.0246238708496094E-2</v>
+        <v>4.2504310607910156E-2</v>
       </c>
       <c r="AA23" s="2">
         <f t="shared" si="2"/>
-        <v>-6.5484674588445202E-7</v>
+        <v>-3.5645540170242684E-7</v>
       </c>
       <c r="AB23" s="2">
         <f t="shared" si="4"/>
-        <v>-1.967372286175788E-13</v>
+        <v>-2.1366748987095856E-13</v>
       </c>
       <c r="AC23" s="2">
         <f t="shared" si="5"/>
-        <v>1.0543857691610125E-12</v>
+        <v>4.6778841378271294E-13</v>
       </c>
       <c r="AD23" s="2">
         <f t="shared" si="6"/>
@@ -16606,45 +16606,45 @@
       </c>
       <c r="AG23" s="2">
         <f t="shared" si="13"/>
-        <v>2976.9420623779297</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AH23" s="2">
-        <v>-3.7500255593840848E-3</v>
+        <v>-7.3622360562044378</v>
       </c>
       <c r="AI23" s="2">
         <f t="shared" si="14"/>
-        <v>2976.9783020019531</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AJ23" s="2">
-        <v>1.225803835404804E-2</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AK23" s="2">
         <f t="shared" si="9"/>
-        <v>2976.9601821899414</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AL23" s="2">
-        <v>4.2630227935660514E-3</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AM23" s="2">
         <f t="shared" si="10"/>
-        <v>-1.5986444436109635E-5</v>
+        <v>26.322225483958952</v>
       </c>
       <c r="AN23" s="2">
         <f t="shared" si="11"/>
-        <v>5.2256296907713675E-5</v>
+        <v>12.782792343582694</v>
       </c>
       <c r="AO23" s="2">
         <f t="shared" si="12"/>
-        <v>3.62396240234375E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="F24" s="28" t="s">
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="F24" s="30" t="s">
         <v>81</v>
       </c>
       <c r="G24" s="31"/>
@@ -16654,7 +16654,7 @@
       </c>
       <c r="K24" s="6">
         <f xml:space="preserve"> $C$56 * (11.5 * ($C$5*2.20462/1000)^0.4 * 0.453592)</f>
-        <v>8.8571520582248784</v>
+        <v>8.5273330301091974</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>7</v>
@@ -16664,42 +16664,42 @@
       </c>
       <c r="O24" s="18">
         <f>Z34</f>
-        <v>5.0245585385710001E-2</v>
+        <v>4.250395530834794E-2</v>
       </c>
       <c r="U24" s="2">
         <v>20</v>
       </c>
       <c r="V24" s="2">
         <f t="shared" si="7"/>
-        <v>5.0245285034179688E-2</v>
+        <v>4.250335693359375E-2</v>
       </c>
       <c r="W24" s="2">
         <f t="shared" si="0"/>
-        <v>3.004324750088827E-7</v>
+        <v>5.994227857131218E-7</v>
       </c>
       <c r="X24" s="2">
         <f t="shared" si="8"/>
-        <v>5.0246238708496094E-2</v>
+        <v>4.2504310607910156E-2</v>
       </c>
       <c r="Y24" s="2">
         <f t="shared" si="1"/>
-        <v>-6.5484674588445202E-7</v>
+        <v>-3.5645540170242684E-7</v>
       </c>
       <c r="Z24" s="2">
         <f t="shared" si="3"/>
-        <v>5.0245761871337891E-2</v>
+        <v>4.2503833770751953E-2</v>
       </c>
       <c r="AA24" s="2">
         <f t="shared" si="2"/>
-        <v>-1.772071317462931E-7</v>
+        <v>1.2148369800402126E-7</v>
       </c>
       <c r="AB24" s="2">
         <f t="shared" si="4"/>
-        <v>-5.323877717976399E-14</v>
+        <v>7.2820096676302035E-14</v>
       </c>
       <c r="AC24" s="2">
         <f t="shared" si="5"/>
-        <v>1.1604351357157741E-13</v>
+        <v>-4.330352037231971E-14</v>
       </c>
       <c r="AD24" s="2">
         <f t="shared" si="6"/>
@@ -16710,36 +16710,36 @@
       </c>
       <c r="AG24" s="2">
         <f t="shared" si="13"/>
-        <v>2976.9420623779297</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AH24" s="2">
-        <v>-3.7500255593840848E-3</v>
+        <v>-7.3622360562044378</v>
       </c>
       <c r="AI24" s="2">
         <f t="shared" si="14"/>
-        <v>2976.9601821899414</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AJ24" s="2">
-        <v>4.2630227935660514E-3</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AK24" s="2">
         <f t="shared" si="9"/>
-        <v>2976.9511222839355</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AL24" s="2">
-        <v>2.5649583267295384E-4</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AM24" s="2">
         <f t="shared" si="10"/>
-        <v>-9.6186592839908034E-7</v>
+        <v>26.322225483958952</v>
       </c>
       <c r="AN24" s="2">
         <f t="shared" si="11"/>
-        <v>1.0934475811395062E-6</v>
+        <v>12.782792343582694</v>
       </c>
       <c r="AO24" s="2">
         <f t="shared" si="12"/>
-        <v>1.811981201171875E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:41" x14ac:dyDescent="0.2">
@@ -16765,7 +16765,7 @@
       </c>
       <c r="K25" s="6">
         <f xml:space="preserve"> $C$56 * (8 * ($C$5/1000))</f>
-        <v>19.05234550004301</v>
+        <v>17.327912968938112</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>7</v>
@@ -16775,7 +16775,7 @@
       </c>
       <c r="O25" s="6">
         <f xml:space="preserve"> O19 * $C$9 * O24 - $C$8 * SIN(O17/180*PI())</f>
-        <v>1.1345775535665625</v>
+        <v>1.4487381573592906</v>
       </c>
       <c r="P25" s="6" t="s">
         <v>10</v>
@@ -16785,35 +16785,35 @@
       </c>
       <c r="V25" s="2">
         <f t="shared" si="7"/>
-        <v>5.0245285034179688E-2</v>
+        <v>4.2503833770751953E-2</v>
       </c>
       <c r="W25" s="2">
         <f t="shared" si="0"/>
-        <v>3.004324750088827E-7</v>
+        <v>1.2148369800402126E-7</v>
       </c>
       <c r="X25" s="2">
         <f t="shared" si="8"/>
-        <v>5.0245761871337891E-2</v>
+        <v>4.2504310607910156E-2</v>
       </c>
       <c r="Y25" s="2">
         <f t="shared" si="1"/>
-        <v>-1.772071317462931E-7</v>
+        <v>-3.5645540170242684E-7</v>
       </c>
       <c r="Z25" s="2">
         <f t="shared" si="3"/>
-        <v>5.0245523452758789E-2</v>
+        <v>4.2504072189331055E-2</v>
       </c>
       <c r="AA25" s="2">
         <f t="shared" si="2"/>
-        <v>6.1612672547228797E-8</v>
+        <v>-1.1748585034693226E-7</v>
       </c>
       <c r="AB25" s="2">
         <f t="shared" si="4"/>
-        <v>1.8510447705275788E-14</v>
+        <v>-1.4272615563292356E-14</v>
       </c>
       <c r="AC25" s="2">
         <f t="shared" si="5"/>
-        <v>-1.091820498131799E-14</v>
+        <v>4.1878465979766941E-14</v>
       </c>
       <c r="AD25" s="2">
         <f t="shared" si="6"/>
@@ -16824,36 +16824,36 @@
       </c>
       <c r="AG25" s="2">
         <f t="shared" si="13"/>
-        <v>2976.9420623779297</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AH25" s="2">
-        <v>-3.7500255593840848E-3</v>
+        <v>-7.3622360562044378</v>
       </c>
       <c r="AI25" s="2">
         <f t="shared" si="14"/>
-        <v>2976.9511222839355</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AJ25" s="2">
-        <v>2.5649583267295384E-4</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AK25" s="2">
         <f t="shared" si="9"/>
-        <v>2976.9465923309326</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AL25" s="2">
-        <v>-1.7377381118421908E-3</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AM25" s="2">
         <f t="shared" si="10"/>
-        <v>6.5165623349240549E-6</v>
+        <v>26.322225483958952</v>
       </c>
       <c r="AN25" s="2">
         <f t="shared" si="11"/>
-        <v>-4.4572258396448931E-7</v>
+        <v>12.782792343582694</v>
       </c>
       <c r="AO25" s="2">
         <f t="shared" si="12"/>
-        <v>9.059906005859375E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:41" x14ac:dyDescent="0.2">
@@ -16881,7 +16881,7 @@
       </c>
       <c r="K26" s="6">
         <f xml:space="preserve"> $C$56 * (13 * ($C$5*2.20462/1000)^1.3 * 0.453592)</f>
-        <v>54.44169126055133</v>
+        <v>48.124780387700895</v>
       </c>
       <c r="L26" s="6" t="s">
         <v>7</v>
@@ -16891,42 +16891,42 @@
       </c>
       <c r="O26" s="6">
         <f xml:space="preserve"> 1/$C$21 - O23 * SQRT( (2*$C$47*PI()*$C$9^2) / O18^3 )</f>
-        <v>1.0701516216643949</v>
+        <v>1.1093269200264353</v>
       </c>
       <c r="U26" s="2">
         <v>22</v>
       </c>
       <c r="V26" s="2">
         <f t="shared" si="7"/>
-        <v>5.0245523452758789E-2</v>
+        <v>4.2503833770751953E-2</v>
       </c>
       <c r="W26" s="2">
         <f t="shared" si="0"/>
-        <v>6.1612672547228797E-8</v>
+        <v>1.2148369800402126E-7</v>
       </c>
       <c r="X26" s="2">
         <f t="shared" si="8"/>
-        <v>5.0245761871337891E-2</v>
+        <v>4.2504072189331055E-2</v>
       </c>
       <c r="Y26" s="2">
         <f t="shared" si="1"/>
-        <v>-1.772071317462931E-7</v>
+        <v>-1.1748585034693226E-7</v>
       </c>
       <c r="Z26" s="2">
         <f t="shared" si="3"/>
-        <v>5.024564266204834E-2</v>
+        <v>4.2503952980041504E-2</v>
       </c>
       <c r="AA26" s="2">
         <f t="shared" si="2"/>
-        <v>-5.7797229363609759E-8</v>
+        <v>1.9989242067142143E-9</v>
       </c>
       <c r="AB26" s="2">
         <f t="shared" si="4"/>
-        <v>-3.5610417669171652E-15</v>
+        <v>2.4283670466139735E-16</v>
       </c>
       <c r="AC26" s="2">
         <f t="shared" si="5"/>
-        <v>1.0242081238407915E-14</v>
+        <v>-2.3484531020488647E-16</v>
       </c>
       <c r="AD26" s="2">
         <f t="shared" si="6"/>
@@ -16937,36 +16937,36 @@
       </c>
       <c r="AG26" s="2">
         <f t="shared" si="13"/>
-        <v>2976.9465923309326</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AH26" s="2">
-        <v>-1.7377381118421908E-3</v>
+        <v>-7.3622360562044378</v>
       </c>
       <c r="AI26" s="2">
         <f t="shared" si="14"/>
-        <v>2976.9511222839355</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AJ26" s="2">
-        <v>2.5649583267295384E-4</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AK26" s="2">
         <f t="shared" si="9"/>
-        <v>2976.9488573074341</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AL26" s="2">
-        <v>-7.4964876466765418E-4</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AM26" s="2">
         <f t="shared" si="10"/>
-        <v>1.3026932288584002E-6</v>
+        <v>26.322225483958952</v>
       </c>
       <c r="AN26" s="2">
         <f t="shared" si="11"/>
-        <v>-1.9228178410568116E-7</v>
+        <v>12.782792343582694</v>
       </c>
       <c r="AO26" s="2">
         <f t="shared" si="12"/>
-        <v>4.5299530029296875E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:41" x14ac:dyDescent="0.2">
@@ -16994,7 +16994,7 @@
       </c>
       <c r="K27" s="10">
         <f>$C$5 - $C$13 - SUM(K13:K26)</f>
-        <v>-9.52461617453082E-3</v>
+        <v>-8.2266087024436274E-3</v>
       </c>
       <c r="L27" s="10" t="s">
         <v>7</v>
@@ -17010,35 +17010,35 @@
       </c>
       <c r="V27" s="2">
         <f t="shared" si="7"/>
-        <v>5.0245523452758789E-2</v>
+        <v>4.2503952980041504E-2</v>
       </c>
       <c r="W27" s="2">
         <f t="shared" si="0"/>
-        <v>6.1612672547228797E-8</v>
+        <v>1.9989242067142143E-9</v>
       </c>
       <c r="X27" s="2">
         <f t="shared" si="8"/>
-        <v>5.024564266204834E-2</v>
+        <v>4.2504072189331055E-2</v>
       </c>
       <c r="Y27" s="2">
         <f t="shared" si="1"/>
-        <v>-5.7797229363609759E-8</v>
+        <v>-1.1748585034693226E-7</v>
       </c>
       <c r="Z27" s="2">
         <f t="shared" si="3"/>
-        <v>5.0245583057403564E-2</v>
+        <v>4.2504012584686279E-2</v>
       </c>
       <c r="AA27" s="2">
         <f t="shared" si="2"/>
-        <v>1.9077216473206704E-9</v>
+        <v>-5.7743462976433957E-8</v>
       </c>
       <c r="AB27" s="2">
         <f t="shared" si="4"/>
-        <v>1.1753982916762838E-16</v>
+        <v>-1.1542480592309984E-16</v>
       </c>
       <c r="AC27" s="2">
         <f t="shared" si="5"/>
-        <v>-1.1026102561211623E-16</v>
+        <v>6.7840398497629439E-15</v>
       </c>
       <c r="AD27" s="2">
         <f t="shared" si="6"/>
@@ -17049,36 +17049,36 @@
       </c>
       <c r="AG27" s="2">
         <f t="shared" si="13"/>
-        <v>2976.9488573074341</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AH27" s="2">
-        <v>-7.4964876466765418E-4</v>
+        <v>-7.3622360562044378</v>
       </c>
       <c r="AI27" s="2">
         <f t="shared" si="14"/>
-        <v>2976.9511222839355</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AJ27" s="2">
-        <v>2.5649583267295384E-4</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AK27" s="2">
         <f t="shared" si="9"/>
-        <v>2976.9499897956848</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AL27" s="2">
-        <v>-2.4657651056259056E-4</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AM27" s="2">
         <f t="shared" si="10"/>
-        <v>1.848457765393068E-7</v>
+        <v>26.322225483958952</v>
       </c>
       <c r="AN27" s="2">
         <f t="shared" si="11"/>
-        <v>-6.3245847394343068E-8</v>
+        <v>12.782792343582694</v>
       </c>
       <c r="AO27" s="2">
         <f t="shared" si="12"/>
-        <v>2.2649765014648438E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:41" x14ac:dyDescent="0.2">
@@ -17087,7 +17087,7 @@
       </c>
       <c r="G28" s="6">
         <f xml:space="preserve"> $C$5 * $C$44 / $C$18</f>
-        <v>7294.5858052051262</v>
+        <v>6634.3510292084729</v>
       </c>
       <c r="H28" t="s">
         <v>20</v>
@@ -17104,42 +17104,42 @@
       </c>
       <c r="O28" s="6">
         <f xml:space="preserve"> 1/$C$53 * LN( EXP($C$53 * O26) + EXP($C$53 * O27) )</f>
-        <v>1.1529071755166089</v>
+        <v>1.1586214854299901</v>
       </c>
       <c r="U28" s="2">
         <v>24</v>
       </c>
       <c r="V28" s="2">
         <f t="shared" si="7"/>
-        <v>5.0245583057403564E-2</v>
+        <v>4.2503952980041504E-2</v>
       </c>
       <c r="W28" s="2">
         <f t="shared" si="0"/>
-        <v>1.9077216473206704E-9</v>
+        <v>1.9989242067142143E-9</v>
       </c>
       <c r="X28" s="2">
         <f t="shared" si="8"/>
-        <v>5.024564266204834E-2</v>
+        <v>4.2504012584686279E-2</v>
       </c>
       <c r="Y28" s="2">
         <f t="shared" si="1"/>
-        <v>-5.7797229363609759E-8</v>
+        <v>-5.7743462976433957E-8</v>
       </c>
       <c r="Z28" s="2">
         <f t="shared" si="3"/>
-        <v>5.0245612859725952E-2</v>
+        <v>4.2503982782363892E-2</v>
       </c>
       <c r="AA28" s="2">
         <f t="shared" si="2"/>
-        <v>-2.7944753844266756E-8</v>
+        <v>-2.7872269367512637E-8</v>
       </c>
       <c r="AB28" s="2">
         <f t="shared" si="4"/>
-        <v>-5.3310811837755214E-17</v>
+        <v>-5.5714553934780094E-17</v>
       </c>
       <c r="AC28" s="2">
         <f t="shared" si="5"/>
-        <v>1.6151293474467012E-15</v>
+        <v>1.6094413542921602E-15</v>
       </c>
       <c r="AD28" s="2">
         <f t="shared" si="6"/>
@@ -17150,50 +17150,50 @@
       </c>
       <c r="AG28" s="2">
         <f t="shared" si="13"/>
-        <v>2976.9499897956848</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AH28" s="2">
-        <v>-2.4657651056259056E-4</v>
+        <v>-7.3622360562044378</v>
       </c>
       <c r="AI28" s="2">
         <f t="shared" si="14"/>
-        <v>2976.9511222839355</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AJ28" s="2">
-        <v>2.5649583267295384E-4</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AK28" s="2">
         <f t="shared" si="9"/>
-        <v>2976.9505560398102</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AL28" s="2">
-        <v>1.3987109468871495E-5</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AM28" s="2">
         <f t="shared" si="10"/>
-        <v>-3.4488926456913027E-9</v>
+        <v>26.322225483958952</v>
       </c>
       <c r="AN28" s="2">
         <f t="shared" si="11"/>
-        <v>3.5876352899059514E-9</v>
+        <v>12.782792343582694</v>
       </c>
       <c r="AO28" s="2">
         <f t="shared" si="12"/>
-        <v>1.1324882507324219E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
       <c r="F29" t="s">
         <v>97</v>
       </c>
       <c r="G29" s="6">
         <f>G31/$C$18</f>
-        <v>83.476643501685416</v>
+        <v>82.509449203588176</v>
       </c>
       <c r="H29" t="s">
         <v>18</v>
@@ -17203,35 +17203,35 @@
       </c>
       <c r="V29" s="2">
         <f t="shared" si="7"/>
-        <v>5.0245583057403564E-2</v>
+        <v>4.2503952980041504E-2</v>
       </c>
       <c r="W29" s="2">
         <f t="shared" si="0"/>
-        <v>1.9077216473206704E-9</v>
+        <v>1.9989242067142143E-9</v>
       </c>
       <c r="X29" s="2">
         <f t="shared" si="8"/>
-        <v>5.0245612859725952E-2</v>
+        <v>4.2503982782363892E-2</v>
       </c>
       <c r="Y29" s="2">
         <f t="shared" si="1"/>
-        <v>-2.7944753844266756E-8</v>
+        <v>-2.7872269367512637E-8</v>
       </c>
       <c r="Z29" s="2">
         <f t="shared" si="3"/>
-        <v>5.0245597958564758E-2</v>
+        <v>4.2503967881202698E-2</v>
       </c>
       <c r="AA29" s="2">
         <f t="shared" si="2"/>
-        <v>-1.3018516091534149E-8</v>
+        <v>-1.2936672573460317E-8</v>
       </c>
       <c r="AB29" s="2">
         <f t="shared" si="4"/>
-        <v>-2.4835704963812183E-17</v>
+        <v>-2.5859427961425698E-17</v>
       </c>
       <c r="AC29" s="2">
         <f t="shared" si="5"/>
-        <v>3.6379922759554753E-16</v>
+        <v>3.6057442268679886E-16</v>
       </c>
       <c r="AD29" s="2">
         <f t="shared" si="6"/>
@@ -17242,36 +17242,36 @@
       </c>
       <c r="AG29" s="2">
         <f t="shared" si="13"/>
-        <v>2976.9499897956848</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AH29" s="2">
-        <v>-2.4657651056259056E-4</v>
+        <v>-7.3622360562044378</v>
       </c>
       <c r="AI29" s="2">
         <f t="shared" si="14"/>
-        <v>2976.9505560398102</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AJ29" s="2">
-        <v>1.3987109468871495E-5</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AK29" s="2">
         <f t="shared" si="9"/>
-        <v>2976.9502729177475</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AL29" s="2">
-        <v>-1.2532216305771726E-4</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AM29" s="2">
         <f t="shared" si="10"/>
-        <v>3.0901501662927918E-8</v>
+        <v>26.322225483958952</v>
       </c>
       <c r="AN29" s="2">
         <f t="shared" si="11"/>
-        <v>-1.7528948135640546E-9</v>
+        <v>12.782792343582694</v>
       </c>
       <c r="AO29" s="2">
         <f t="shared" si="12"/>
-        <v>5.6624412536621094E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:41" x14ac:dyDescent="0.2">
@@ -17286,50 +17286,50 @@
       </c>
       <c r="G30" s="6">
         <f xml:space="preserve"> (G28/$C$44*1000) / (G29*1000)</f>
-        <v>8.9154548491208043</v>
+        <v>8.2035646448080914</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="J30" s="32" t="s">
+      <c r="J30" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
       <c r="U30" s="2">
         <v>26</v>
       </c>
       <c r="V30" s="2">
         <f t="shared" si="7"/>
-        <v>5.0245583057403564E-2</v>
+        <v>4.2503952980041504E-2</v>
       </c>
       <c r="W30" s="2">
         <f t="shared" si="0"/>
-        <v>1.9077216473206704E-9</v>
+        <v>1.9989242067142143E-9</v>
       </c>
       <c r="X30" s="2">
         <f t="shared" si="8"/>
-        <v>5.0245597958564758E-2</v>
+        <v>4.2503967881202698E-2</v>
       </c>
       <c r="Y30" s="2">
         <f t="shared" si="1"/>
-        <v>-1.3018516091534149E-8</v>
+        <v>-1.2936672573460317E-8</v>
       </c>
       <c r="Z30" s="2">
         <f t="shared" si="3"/>
-        <v>5.0245590507984161E-2</v>
+        <v>4.2503960430622101E-2</v>
       </c>
       <c r="AA30" s="2">
         <f t="shared" si="2"/>
-        <v>-5.5553972186372924E-9</v>
+        <v>-5.4688741868424984E-9</v>
       </c>
       <c r="AB30" s="2">
         <f t="shared" si="4"/>
-        <v>-1.0598151533459407E-17</v>
+        <v>-1.0931864995553986E-17</v>
       </c>
       <c r="AC30" s="2">
         <f t="shared" si="5"/>
-        <v>7.2323028085693644E-17</v>
+        <v>7.0749034700630446E-17</v>
       </c>
       <c r="AD30" s="2">
         <f t="shared" si="6"/>
@@ -17340,36 +17340,36 @@
       </c>
       <c r="AG30" s="2">
         <f t="shared" si="13"/>
-        <v>2976.9502729177475</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AH30" s="2">
-        <v>-1.2532216305771726E-4</v>
+        <v>-7.3622360562044378</v>
       </c>
       <c r="AI30" s="2">
         <f t="shared" si="14"/>
-        <v>2976.9505560398102</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AJ30" s="2">
-        <v>1.3987109468871495E-5</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AK30" s="2">
         <f t="shared" si="9"/>
-        <v>2976.9504144787788</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AL30" s="2">
-        <v>-4.6640070195280714E-5</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AM30" s="2">
         <f t="shared" si="10"/>
-        <v>5.8450344820363484E-9</v>
+        <v>26.322225483958952</v>
       </c>
       <c r="AN30" s="2">
         <f t="shared" si="11"/>
-        <v>-6.5235976745724206E-10</v>
+        <v>12.782792343582694</v>
       </c>
       <c r="AO30" s="2">
         <f t="shared" si="12"/>
-        <v>2.8312206268310547E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:41" x14ac:dyDescent="0.2">
@@ -17385,7 +17385,7 @@
       </c>
       <c r="G31" s="25">
         <f xml:space="preserve"> 1/1000 * IF($G$25&gt;= 2*SQRT(($C$5*$C$44)/(2*$C$41*$C$18*PI()*$C$9*$C$9)), ($C$5*$C$44)/$C$21 * ( ($G$25/2) - SQRT( ($G$25/2)^2 - ($C$5*$C$44)/(2*$C$41*$C$18*PI()*$C$9*$C$9 ) ) ), 1/$C$21 * SQRT(($C$5*$C$44)^3/(2*$C$41*$C$18*PI()*$C$9*$C$9)) )</f>
-        <v>333.90657400674166</v>
+        <v>330.0377968143527</v>
       </c>
       <c r="H31" s="24" t="s">
         <v>101</v>
@@ -17405,35 +17405,35 @@
       </c>
       <c r="V31" s="2">
         <f t="shared" si="7"/>
-        <v>5.0245583057403564E-2</v>
+        <v>4.2503952980041504E-2</v>
       </c>
       <c r="W31" s="2">
         <f t="shared" si="0"/>
-        <v>1.9077216473206704E-9</v>
+        <v>1.9989242067142143E-9</v>
       </c>
       <c r="X31" s="2">
         <f t="shared" si="8"/>
-        <v>5.0245590507984161E-2</v>
+        <v>4.2503960430622101E-2</v>
       </c>
       <c r="Y31" s="2">
         <f t="shared" si="1"/>
-        <v>-5.5553972186372924E-9</v>
+        <v>-5.4688741868424984E-9</v>
       </c>
       <c r="Z31" s="2">
         <f t="shared" si="3"/>
-        <v>5.0245586782693863E-2</v>
+        <v>4.2503956705331802E-2</v>
       </c>
       <c r="AA31" s="2">
         <f t="shared" si="2"/>
-        <v>-1.8238377821888641E-9</v>
+        <v>-1.734974990064142E-9</v>
       </c>
       <c r="AB31" s="2">
         <f t="shared" si="4"/>
-        <v>-3.4793748182830178E-18</v>
+        <v>-3.4680835056829671E-18</v>
       </c>
       <c r="AC31" s="2">
         <f t="shared" si="5"/>
-        <v>1.0132143342417623E-17</v>
+        <v>9.488359937979106E-18</v>
       </c>
       <c r="AD31" s="2">
         <f t="shared" si="6"/>
@@ -17444,36 +17444,36 @@
       </c>
       <c r="AG31" s="2">
         <f t="shared" si="13"/>
-        <v>2976.9504144787788</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AH31" s="2">
-        <v>-4.6640070195280714E-5</v>
+        <v>-7.3622360562044378</v>
       </c>
       <c r="AI31" s="2">
         <f t="shared" si="14"/>
-        <v>2976.9505560398102</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AJ31" s="2">
-        <v>1.3987109468871495E-5</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AK31" s="2">
         <f t="shared" si="9"/>
-        <v>2976.9504852592945</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AL31" s="2">
-        <v>-2.5353939690830885E-5</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AM31" s="2">
         <f t="shared" si="10"/>
-        <v>1.1825095269072663E-9</v>
+        <v>26.322225483958952</v>
       </c>
       <c r="AN31" s="2">
         <f t="shared" si="11"/>
-        <v>-3.5462832992281748E-10</v>
+        <v>12.782792343582694</v>
       </c>
       <c r="AO31" s="2">
         <f t="shared" si="12"/>
-        <v>1.4156103134155273E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:41" x14ac:dyDescent="0.2">
@@ -17491,7 +17491,7 @@
       </c>
       <c r="K32" s="6">
         <f>ROUND(K13,2)</f>
-        <v>1341.91</v>
+        <v>1201.8699999999999</v>
       </c>
       <c r="L32" s="6" t="s">
         <v>7</v>
@@ -17501,35 +17501,35 @@
       </c>
       <c r="V32" s="2">
         <f t="shared" si="7"/>
-        <v>5.0245583057403564E-2</v>
+        <v>4.2503952980041504E-2</v>
       </c>
       <c r="W32" s="2">
         <f t="shared" si="0"/>
-        <v>1.9077216473206704E-9</v>
+        <v>1.9989242067142143E-9</v>
       </c>
       <c r="X32" s="2">
         <f t="shared" si="8"/>
-        <v>5.0245586782693863E-2</v>
+        <v>4.2503956705331802E-2</v>
       </c>
       <c r="Y32" s="2">
         <f t="shared" si="1"/>
-        <v>-1.8238377821888641E-9</v>
+        <v>-1.734974990064142E-9</v>
       </c>
       <c r="Z32" s="2">
         <f t="shared" si="3"/>
-        <v>5.0245584920048714E-2</v>
+        <v>4.2503954842686653E-2</v>
       </c>
       <c r="AA32" s="2">
         <f t="shared" si="2"/>
-        <v>4.1941936035350125E-11</v>
+        <v>1.3197460485558921E-10</v>
       </c>
       <c r="AB32" s="2">
         <f t="shared" si="4"/>
-        <v>8.0013539305176328E-20</v>
+        <v>2.6380723231738055E-19</v>
       </c>
       <c r="AC32" s="2">
         <f t="shared" si="5"/>
-        <v>-7.6495287599420169E-20</v>
+        <v>-2.2897263874804495E-19</v>
       </c>
       <c r="AD32" s="2">
         <f t="shared" si="6"/>
@@ -17540,36 +17540,36 @@
       </c>
       <c r="AG32" s="2">
         <f t="shared" si="13"/>
-        <v>2976.9504852592945</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AH32" s="2">
-        <v>-2.5353939690830885E-5</v>
+        <v>-7.3622360562044378</v>
       </c>
       <c r="AI32" s="2">
         <f t="shared" si="14"/>
-        <v>2976.9505560398102</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AJ32" s="2">
-        <v>1.3987109468871495E-5</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AK32" s="2">
         <f t="shared" si="9"/>
-        <v>2976.9505206495523</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AL32" s="2">
-        <v>-1.4710873983858619E-5</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AM32" s="2">
         <f t="shared" si="10"/>
-        <v>3.7297861178616449E-10</v>
+        <v>26.322225483958952</v>
       </c>
       <c r="AN32" s="2">
         <f t="shared" si="11"/>
-        <v>-2.0576260479500422E-10</v>
+        <v>12.782792343582694</v>
       </c>
       <c r="AO32" s="2">
         <f t="shared" si="12"/>
-        <v>7.0780515670776367E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:41" x14ac:dyDescent="0.2">
@@ -17581,7 +17581,7 @@
         <v>0.80011066800000008</v>
       </c>
       <c r="D33"/>
-      <c r="F33" s="28" t="s">
+      <c r="F33" s="30" t="s">
         <v>156</v>
       </c>
       <c r="G33" s="31"/>
@@ -17591,7 +17591,7 @@
       </c>
       <c r="K33" s="6">
         <f>ROUND(SUM(K14:K17),2)</f>
-        <v>691.48</v>
+        <v>581.72</v>
       </c>
       <c r="L33" s="6" t="s">
         <v>7</v>
@@ -17601,35 +17601,35 @@
       </c>
       <c r="V33" s="2">
         <f t="shared" si="7"/>
-        <v>5.0245584920048714E-2</v>
+        <v>4.2503954842686653E-2</v>
       </c>
       <c r="W33" s="2">
         <f t="shared" si="0"/>
-        <v>4.1941936035350125E-11</v>
+        <v>1.3197460485558921E-10</v>
       </c>
       <c r="X33" s="2">
         <f t="shared" si="8"/>
-        <v>5.0245586782693863E-2</v>
+        <v>4.2503956705331802E-2</v>
       </c>
       <c r="Y33" s="2">
         <f t="shared" si="1"/>
-        <v>-1.8238377821888641E-9</v>
+        <v>-1.734974990064142E-9</v>
       </c>
       <c r="Z33" s="2">
         <f t="shared" si="3"/>
-        <v>5.0245585851371288E-2</v>
+        <v>4.2503955774009228E-2</v>
       </c>
       <c r="AA33" s="2">
         <f t="shared" si="2"/>
-        <v>-8.9094792654620392E-10</v>
+        <v>-8.0150019260427641E-10</v>
       </c>
       <c r="AB33" s="2">
         <f t="shared" si="4"/>
-        <v>-3.7368080946028706E-20</v>
+        <v>-1.0577767121062802E-19</v>
       </c>
       <c r="AC33" s="2">
         <f t="shared" si="5"/>
-        <v>1.6249444903977955E-18</v>
+        <v>1.3905827887000123E-18</v>
       </c>
       <c r="AD33" s="2">
         <f t="shared" si="6"/>
@@ -17640,36 +17640,36 @@
       </c>
       <c r="AG33" s="2">
         <f t="shared" si="13"/>
-        <v>2976.9505206495523</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AH33" s="2">
-        <v>-1.4710873983858619E-5</v>
+        <v>-7.3622360562044378</v>
       </c>
       <c r="AI33" s="2">
         <f t="shared" si="14"/>
-        <v>2976.9505560398102</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AJ33" s="2">
-        <v>1.3987109468871495E-5</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AK33" s="2">
         <f t="shared" si="9"/>
-        <v>2976.9505383446813</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AL33" s="2">
-        <v>8.6655768427590374E-6</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AM33" s="2">
         <f t="shared" si="10"/>
-        <v>-1.2747820893127163E-10</v>
+        <v>26.322225483958952</v>
       </c>
       <c r="AN33" s="2">
         <f t="shared" si="11"/>
-        <v>1.2120637191058848E-10</v>
+        <v>12.782792343582694</v>
       </c>
       <c r="AO33" s="2">
         <f t="shared" si="12"/>
-        <v>3.5390257835388184E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:41" x14ac:dyDescent="0.2">
@@ -17688,7 +17688,7 @@
       </c>
       <c r="K34" s="6">
         <f>ROUND(SUM(K18:K22),2)</f>
-        <v>197.37</v>
+        <v>191.88</v>
       </c>
       <c r="L34" s="6" t="s">
         <v>7</v>
@@ -17698,35 +17698,35 @@
       </c>
       <c r="V34" s="2">
         <f t="shared" si="7"/>
-        <v>5.0245584920048714E-2</v>
+        <v>4.2503954842686653E-2</v>
       </c>
       <c r="W34" s="2">
         <f t="shared" si="0"/>
-        <v>4.1941936035350125E-11</v>
+        <v>1.3197460485558921E-10</v>
       </c>
       <c r="X34" s="2">
         <f t="shared" si="8"/>
-        <v>5.0245585851371288E-2</v>
+        <v>4.2503955774009228E-2</v>
       </c>
       <c r="Y34" s="2">
         <f t="shared" si="1"/>
-        <v>-8.9094792654620392E-10</v>
+        <v>-8.0150019260427641E-10</v>
       </c>
       <c r="Z34" s="2">
         <f t="shared" si="3"/>
-        <v>5.0245585385710001E-2</v>
+        <v>4.250395530834794E-2</v>
       </c>
       <c r="AA34" s="2">
         <f t="shared" si="2"/>
-        <v>-4.245029952554269E-10</v>
+        <v>-3.347627938743436E-10</v>
       </c>
       <c r="AB34" s="2">
         <f t="shared" si="4"/>
-        <v>-1.7804477473817652E-20</v>
+        <v>-4.4180187441919555E-20</v>
       </c>
       <c r="AC34" s="2">
         <f t="shared" si="5"/>
-        <v>3.7821006343547563E-19</v>
+        <v>2.6831244376703208E-19</v>
       </c>
       <c r="AD34" s="2">
         <f>X34-V34</f>
@@ -17737,50 +17737,50 @@
       </c>
       <c r="AG34" s="2">
         <f t="shared" si="13"/>
-        <v>2976.9505206495523</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AH34" s="2">
-        <v>-1.4710873983858619E-5</v>
+        <v>-7.3622360562044378</v>
       </c>
       <c r="AI34" s="2">
         <f t="shared" si="14"/>
-        <v>2976.9505383446813</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AJ34" s="2">
-        <v>8.6655768427590374E-6</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AK34" s="2">
         <f t="shared" si="9"/>
-        <v>2976.9505294971168</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AL34" s="2">
-        <v>-1.2050108580297092E-5</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AM34" s="2">
         <f t="shared" si="10"/>
-        <v>1.7726762881656401E-10</v>
+        <v>26.322225483958952</v>
       </c>
       <c r="AN34" s="2">
         <f t="shared" si="11"/>
-        <v>-1.0442114186615446E-10</v>
+        <v>12.782792343582694</v>
       </c>
       <c r="AO34" s="2">
         <f t="shared" si="12"/>
-        <v>1.7695128917694092E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
       <c r="F35" s="26" t="s">
         <v>132</v>
       </c>
       <c r="G35" s="25">
         <f xml:space="preserve"> G22</f>
-        <v>268.19543930186342</v>
+        <v>226.27580503822972</v>
       </c>
       <c r="H35" s="25" t="s">
         <v>101</v>
@@ -17790,7 +17790,7 @@
       </c>
       <c r="K35" s="6">
         <f>ROUND(SUM(K23:K26),2)</f>
-        <v>146.18</v>
+        <v>132.03</v>
       </c>
       <c r="L35" s="6" t="s">
         <v>7</v>
@@ -17800,36 +17800,36 @@
       </c>
       <c r="AG35" s="2">
         <f t="shared" si="13"/>
-        <v>2976.9505294971168</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AH35" s="2">
-        <v>-1.2050108580297092E-5</v>
+        <v>-7.3622360562044378</v>
       </c>
       <c r="AI35" s="2">
         <f t="shared" si="14"/>
-        <v>2976.9505383446813</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AJ35" s="2">
-        <v>8.6655768427590374E-6</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AK35" s="2">
         <f t="shared" si="9"/>
-        <v>2976.950533920899</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AL35" s="2">
-        <v>-1.0719725651142653E-5</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AM35" s="2">
         <f t="shared" si="10"/>
-        <v>1.2917385804726492E-10</v>
+        <v>26.322225483958952</v>
       </c>
       <c r="AN35" s="2">
         <f t="shared" si="11"/>
-        <v>-9.2892606363271818E-11</v>
+        <v>12.782792343582694</v>
       </c>
       <c r="AO35" s="2">
         <f t="shared" si="12"/>
-        <v>8.8475644588470459E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:41" x14ac:dyDescent="0.2">
@@ -17847,7 +17847,7 @@
       </c>
       <c r="K36" s="10">
         <f>SUM(K31:K35)</f>
-        <v>2976.94</v>
+        <v>2707.5000000000005</v>
       </c>
       <c r="L36" s="6" t="s">
         <v>7</v>
@@ -17857,36 +17857,36 @@
       </c>
       <c r="AG36" s="2">
         <f t="shared" si="13"/>
-        <v>2976.950533920899</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AH36" s="2">
-        <v>-1.0719725651142653E-5</v>
+        <v>-7.3622360562044378</v>
       </c>
       <c r="AI36" s="2">
         <f t="shared" si="14"/>
-        <v>2976.9505383446813</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AJ36" s="2">
-        <v>8.6655768427590374E-6</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AK36" s="2">
         <f t="shared" si="9"/>
-        <v>2976.9505361327901</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AL36" s="2">
-        <v>-1.0054533049697056E-5</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AM36" s="2">
         <f t="shared" si="10"/>
-        <v>1.077818358430991E-10</v>
+        <v>26.322225483958952</v>
       </c>
       <c r="AN36" s="2">
         <f t="shared" si="11"/>
-        <v>-8.7128328760210214E-11</v>
+        <v>12.782792343582694</v>
       </c>
       <c r="AO36" s="2">
         <f t="shared" si="12"/>
-        <v>4.4237822294235229E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:41" x14ac:dyDescent="0.2">
@@ -17901,36 +17901,36 @@
       </c>
       <c r="AG37" s="2">
         <f t="shared" si="13"/>
-        <v>2976.9505361327901</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AH37" s="2">
-        <v>-1.0054533049697056E-5</v>
+        <v>-7.3622360562044378</v>
       </c>
       <c r="AI37" s="2">
         <f t="shared" si="14"/>
-        <v>2976.9505383446813</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AJ37" s="2">
-        <v>8.6655768427590374E-6</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AK37" s="2">
         <f t="shared" si="9"/>
-        <v>2976.9505372387357</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AL37" s="2">
-        <v>-9.7219390227110125E-6</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AM37" s="2">
         <f t="shared" si="10"/>
-        <v>9.7749557210987377E-11</v>
+        <v>26.322225483958952</v>
       </c>
       <c r="AN37" s="2">
         <f t="shared" si="11"/>
-        <v>-8.4246209661919977E-11</v>
+        <v>12.782792343582694</v>
       </c>
       <c r="AO37" s="2">
         <f t="shared" si="12"/>
-        <v>2.2118911147117615E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:41" x14ac:dyDescent="0.2">
@@ -17940,46 +17940,46 @@
       <c r="C38" s="17">
         <v>0.8</v>
       </c>
-      <c r="J38" s="32" t="s">
+      <c r="J38" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
       <c r="AF38" s="2">
         <v>34</v>
       </c>
       <c r="AG38" s="2">
         <f t="shared" si="13"/>
-        <v>2976.9505372387357</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AH38" s="2">
-        <v>-9.7219390227110125E-6</v>
+        <v>-7.3622360562044378</v>
       </c>
       <c r="AI38" s="2">
         <f t="shared" si="14"/>
-        <v>2976.9505383446813</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AJ38" s="2">
-        <v>8.6655768427590374E-6</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AK38" s="2">
         <f t="shared" si="9"/>
-        <v>2976.9505377917085</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AL38" s="2">
-        <v>8.4992784650239628E-6</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AM38" s="2">
         <f t="shared" si="10"/>
-        <v>-8.2629466974003819E-11</v>
+        <v>26.322225483958952</v>
       </c>
       <c r="AN38" s="2">
         <f t="shared" si="11"/>
-        <v>7.3651150646672229E-11</v>
+        <v>12.782792343582694</v>
       </c>
       <c r="AO38" s="2">
         <f t="shared" si="12"/>
-        <v>1.1059455573558807E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:41" x14ac:dyDescent="0.2">
@@ -17988,7 +17988,7 @@
       </c>
       <c r="K39" s="6">
         <f>ROUND($C$13/$C$5 * 100, 2)</f>
-        <v>20.149999999999999</v>
+        <v>22.16</v>
       </c>
       <c r="L39" s="6" t="s">
         <v>58</v>
@@ -17998,50 +17998,50 @@
       </c>
       <c r="AG39" s="2">
         <f t="shared" si="13"/>
-        <v>2976.9505372387357</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AH39" s="2">
-        <v>-9.7219390227110125E-6</v>
+        <v>-7.3622360562044378</v>
       </c>
       <c r="AI39" s="2">
         <f t="shared" si="14"/>
-        <v>2976.9505377917085</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AJ39" s="2">
-        <v>8.4992784650239628E-6</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AK39" s="2">
         <f t="shared" si="9"/>
-        <v>2976.9505375152221</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AL39" s="2">
-        <v>8.4161301856511272E-6</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AM39" s="2">
         <f t="shared" si="10"/>
-        <v>-8.1821104472097772E-11</v>
+        <v>26.322225483958952</v>
       </c>
       <c r="AN39" s="2">
         <f t="shared" si="11"/>
-        <v>7.1531034045742752E-11</v>
+        <v>12.782792343582694</v>
       </c>
       <c r="AO39" s="2">
         <f t="shared" si="12"/>
-        <v>5.5297277867794037E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
       <c r="J40" s="11" t="s">
         <v>52</v>
       </c>
       <c r="K40" s="6">
         <f>ROUND(K13/$C$5 * 100, 2)</f>
-        <v>45.08</v>
+        <v>44.39</v>
       </c>
       <c r="L40" s="6" t="s">
         <v>58</v>
@@ -18051,36 +18051,36 @@
       </c>
       <c r="AG40" s="2">
         <f t="shared" si="13"/>
-        <v>2976.9505372387357</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AH40" s="2">
-        <v>-9.7219390227110125E-6</v>
+        <v>-7.3622360562044378</v>
       </c>
       <c r="AI40" s="2">
         <f t="shared" si="14"/>
-        <v>2976.9505375152221</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AJ40" s="2">
-        <v>8.4161301856511272E-6</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AK40" s="2">
         <f t="shared" si="9"/>
-        <v>2976.9505373769789</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AL40" s="2">
-        <v>8.3745562733383849E-6</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AM40" s="2">
         <f t="shared" si="10"/>
-        <v>-8.1416925431657757E-11</v>
+        <v>26.322225483958952</v>
       </c>
       <c r="AN40" s="2">
         <f t="shared" si="11"/>
-        <v>7.0481355843477194E-11</v>
+        <v>12.782792343582694</v>
       </c>
       <c r="AO40" s="2">
         <f t="shared" si="12"/>
-        <v>2.7648638933897018E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:41" x14ac:dyDescent="0.2">
@@ -18098,7 +18098,7 @@
       </c>
       <c r="K41" s="6">
         <f>ROUND(SUM(K14:K17)/$C$5 * 100, 2)</f>
-        <v>23.23</v>
+        <v>21.49</v>
       </c>
       <c r="L41" s="6" t="s">
         <v>58</v>
@@ -18108,36 +18108,36 @@
       </c>
       <c r="AG41" s="2">
         <f t="shared" si="13"/>
-        <v>2976.9505372387357</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AH41" s="2">
-        <v>-9.7219390227110125E-6</v>
+        <v>-7.3622360562044378</v>
       </c>
       <c r="AI41" s="2">
         <f t="shared" si="14"/>
-        <v>2976.9505373769789</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AJ41" s="2">
-        <v>8.3745562733383849E-6</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AK41" s="2">
         <f t="shared" si="9"/>
-        <v>2976.9505373078573</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AL41" s="2">
-        <v>-9.7011497928178869E-6</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AM41" s="2">
         <f t="shared" si="10"/>
-        <v>9.4313986735961069E-11</v>
+        <v>26.322225483958952</v>
       </c>
       <c r="AN41" s="2">
         <f t="shared" si="11"/>
-        <v>-8.1242824856038408E-11</v>
+        <v>12.782792343582694</v>
       </c>
       <c r="AO41" s="2">
         <f t="shared" si="12"/>
-        <v>1.3824319466948509E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:41" x14ac:dyDescent="0.2">
@@ -18155,7 +18155,7 @@
       </c>
       <c r="K42" s="6">
         <f>ROUND(SUM(K18:K22)/$C$5 * 100, 2)</f>
-        <v>6.63</v>
+        <v>7.09</v>
       </c>
       <c r="L42" s="6" t="s">
         <v>58</v>
@@ -18165,36 +18165,36 @@
       </c>
       <c r="AG42" s="2">
         <f t="shared" si="13"/>
-        <v>2976.9505373078573</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AH42" s="2">
-        <v>-9.7011497928178869E-6</v>
+        <v>-7.3622360562044378</v>
       </c>
       <c r="AI42" s="2">
         <f t="shared" si="14"/>
-        <v>2976.9505373769789</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AJ42" s="2">
-        <v>8.3745562733383849E-6</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AK42" s="2">
         <f t="shared" si="9"/>
-        <v>2976.9505373424181</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AL42" s="2">
-        <v>8.3641616583918221E-6</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AM42" s="2">
         <f t="shared" si="10"/>
-        <v>-8.1141985139403139E-11</v>
+        <v>26.322225483958952</v>
       </c>
       <c r="AN42" s="2">
         <f t="shared" si="11"/>
-        <v>7.0046142487501623E-11</v>
+        <v>12.782792343582694</v>
       </c>
       <c r="AO42" s="2">
         <f t="shared" si="12"/>
-        <v>6.9121597334742546E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:41" x14ac:dyDescent="0.2">
@@ -18212,7 +18212,7 @@
       </c>
       <c r="K43" s="6">
         <f>ROUND(SUM(K23:K26)/$C$5*100, 2)</f>
-        <v>4.91</v>
+        <v>4.88</v>
       </c>
       <c r="L43" s="6" t="s">
         <v>58</v>
@@ -18228,36 +18228,36 @@
       </c>
       <c r="AG43" s="2">
         <f t="shared" si="13"/>
-        <v>2976.9505373078573</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AH43" s="2">
-        <v>-9.7011497928178869E-6</v>
+        <v>-7.3622360562044378</v>
       </c>
       <c r="AI43" s="2">
         <f t="shared" si="14"/>
-        <v>2976.9505373424181</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AJ43" s="2">
-        <v>8.3641616583918221E-6</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AK43" s="2">
         <f t="shared" si="9"/>
-        <v>2976.9505373251377</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AL43" s="2">
-        <v>-9.6959533948393073E-6</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AM43" s="2">
         <f t="shared" si="10"/>
-        <v>9.4061896267517233E-11</v>
+        <v>26.322225483958952</v>
       </c>
       <c r="AN43" s="2">
         <f t="shared" si="11"/>
-        <v>-8.1098521626668958E-11</v>
+        <v>12.782792343582694</v>
       </c>
       <c r="AO43" s="2">
         <f t="shared" si="12"/>
-        <v>3.4560798667371273E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:41" x14ac:dyDescent="0.2">
@@ -18275,7 +18275,7 @@
       </c>
       <c r="K44" s="10">
         <f>SUM(K39:K43)</f>
-        <v>99.999999999999986</v>
+        <v>100.00999999999999</v>
       </c>
       <c r="L44" s="10" t="s">
         <v>58</v>
@@ -18295,36 +18295,36 @@
       </c>
       <c r="AG44" s="2">
         <f t="shared" si="13"/>
-        <v>2976.9505373251377</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AH44" s="2">
-        <v>-9.6959533948393073E-6</v>
+        <v>-7.3622360562044378</v>
       </c>
       <c r="AI44" s="2">
         <f t="shared" si="14"/>
-        <v>2976.9505373424181</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AJ44" s="2">
-        <v>8.3641616583918221E-6</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AK44" s="5">
         <f>(AG44+AI44)/2</f>
-        <v>2976.9505373337779</v>
+        <v>2703.369140625</v>
       </c>
       <c r="AL44" s="2">
-        <v>8.3615614130394533E-6</v>
+        <v>-3.5753031121266758</v>
       </c>
       <c r="AM44" s="2">
         <f t="shared" si="10"/>
-        <v>-8.1073309768917243E-11</v>
+        <v>26.322225483958952</v>
       </c>
       <c r="AN44" s="2">
         <f t="shared" si="11"/>
-        <v>6.9937451375233142E-11</v>
+        <v>12.782792343582694</v>
       </c>
       <c r="AO44" s="2">
         <f t="shared" si="12"/>
-        <v>1.7280399333685637E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:41" x14ac:dyDescent="0.2">
@@ -18340,22 +18340,22 @@
       </c>
     </row>
     <row r="46" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="J46" s="32" t="s">
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="J46" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="K46" s="32"/>
-      <c r="L46" s="32"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
       <c r="N46" s="6" t="s">
         <v>153</v>
       </c>
       <c r="O46" s="6">
         <f>G12*1000/O45</f>
-        <v>3079.2580479890566</v>
+        <v>3008.1845648766275</v>
       </c>
       <c r="P46" s="6" t="s">
         <v>128</v>
@@ -18376,7 +18376,7 @@
       </c>
       <c r="K47" s="6">
         <f>ROUND($C$13/$C$5 * 100, 2)</f>
-        <v>20.149999999999999</v>
+        <v>22.16</v>
       </c>
       <c r="L47" s="6" t="s">
         <v>58</v>
@@ -18386,7 +18386,7 @@
       </c>
       <c r="O47" s="6">
         <f>0.377*O46^0.6945</f>
-        <v>99.785435333833888</v>
+        <v>98.180176964065893</v>
       </c>
     </row>
     <row r="48" spans="2:41" x14ac:dyDescent="0.2">
@@ -18404,7 +18404,7 @@
       </c>
       <c r="K48" s="6">
         <f>ROUND(K13/$C$5 * 100, 2)</f>
-        <v>45.08</v>
+        <v>44.39</v>
       </c>
       <c r="L48" s="6" t="s">
         <v>58</v>
@@ -18425,7 +18425,7 @@
       </c>
       <c r="K49" s="6">
         <f>ROUND(SUM(K14:K26)/$C$5 * 100, 2)</f>
-        <v>34.770000000000003</v>
+        <v>33.450000000000003</v>
       </c>
       <c r="L49" s="6" t="s">
         <v>58</v>
@@ -18453,11 +18453,11 @@
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
@@ -18493,6 +18493,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="F24:H24"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="J38:L38"/>
@@ -18502,20 +18513,9 @@
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="F24:H24"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="J30:L30"/>
     <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <conditionalFormatting sqref="K28">
     <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="FALSE">
@@ -18546,8 +18546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B53BD7-97B4-D149-9E6E-38BC85791D47}">
   <dimension ref="B1:AO56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18591,11 +18591,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="2:41" x14ac:dyDescent="0.2">
       <c r="U2" s="16" t="s">
@@ -18606,26 +18606,26 @@
       </c>
     </row>
     <row r="3" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>118</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="30" t="s">
         <v>80</v>
       </c>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="N3" s="32" t="s">
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="N3" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
       <c r="U3" s="7" t="s">
         <v>41</v>
       </c>
@@ -18709,7 +18709,7 @@
       </c>
       <c r="K4" s="6">
         <f>(1+$C$22/100)*MAX(G12,G22,G31,G35)</f>
-        <v>529.1098251575778</v>
+        <v>531.86442472942997</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>101</v>
@@ -18719,7 +18719,7 @@
       </c>
       <c r="O4" s="6">
         <f xml:space="preserve"> 0.5 * $C$47 * $C$8^2</f>
-        <v>2267.4637855940923</v>
+        <v>2017.6651722010179</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>23</v>
@@ -18732,14 +18732,14 @@
       </c>
       <c r="W4" s="2">
         <f t="shared" ref="W4:W34" si="0" xml:space="preserve"> $O$20 * TAN($O$17/180*PI()) + $O$21 / (2 * SQRT($O$20^2 + V4^2)) - V4</f>
-        <v>5.4618007539526739E-2</v>
+        <v>4.6441748737896957E-2</v>
       </c>
       <c r="X4" s="3">
         <v>1</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" ref="Y4:Y34" si="1" xml:space="preserve"> $O$20 * TAN($O$17/180*PI()) + $O$21 / (2 * SQRT($O$20^2 + X4^2)) - X4</f>
-        <v>-0.94907581817941988</v>
+        <v>-0.95872039124803843</v>
       </c>
       <c r="Z4" s="2">
         <f xml:space="preserve"> (V4 + X4)/2</f>
@@ -18747,15 +18747,15 @@
       </c>
       <c r="AA4" s="2">
         <f t="shared" ref="AA4:AA34" si="2" xml:space="preserve"> $O$20 * TAN($O$17/180*PI()) + $O$21 / (2 * SQRT($O$20^2 + Z4^2)) - Z4</f>
-        <v>-0.44718054566874516</v>
+        <v>-0.4563716267642357</v>
       </c>
       <c r="AB4" s="2">
         <f>W4*AA4</f>
-        <v>-2.4424110414865204E-2</v>
+        <v>-2.1194696421289926E-2</v>
       </c>
       <c r="AC4" s="2">
         <f>Y4*AA4</f>
-        <v>0.42440824225448376</v>
+        <v>0.43753278456591183</v>
       </c>
       <c r="AD4" s="2">
         <f>X4-V4</f>
@@ -18767,17 +18767,17 @@
       <c r="AG4" s="2"/>
       <c r="AH4" s="2">
         <f>K27</f>
-        <v>-8.1107807664011489E-3</v>
+        <v>-9.96474264866265E-3</v>
       </c>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2">
         <f>K27</f>
-        <v>-8.1107807664011489E-3</v>
+        <v>-9.96474264866265E-3</v>
       </c>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2">
         <f>K27</f>
-        <v>-8.1107807664011489E-3</v>
+        <v>-9.96474264866265E-3</v>
       </c>
       <c r="AM4" s="2"/>
       <c r="AN4" s="2"/>
@@ -18788,7 +18788,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="10">
-        <v>3064.5075943960801</v>
+        <v>2735.4408269800301</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>7</v>
@@ -18808,7 +18808,7 @@
       </c>
       <c r="K5" s="6">
         <f>K4/$C$18</f>
-        <v>132.27745628939445</v>
+        <v>132.96610618235749</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>101</v>
@@ -18818,7 +18818,7 @@
       </c>
       <c r="O5" s="6">
         <f xml:space="preserve"> $C$18 * 0.85 * ($C$5/$C$18 *2.20462/1000)^(2/3) * 0.3048^2</f>
-        <v>0.44798672482965984</v>
+        <v>0.41531367038868106</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>115</v>
@@ -18832,7 +18832,7 @@
       </c>
       <c r="W5" s="2">
         <f t="shared" si="0"/>
-        <v>5.4618007539526739E-2</v>
+        <v>4.6441748737896957E-2</v>
       </c>
       <c r="X5" s="2">
         <f>IF(AC4&gt;0, Z4, X4)</f>
@@ -18840,7 +18840,7 @@
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="1"/>
-        <v>-0.44718054566874516</v>
+        <v>-0.4563716267642357</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" ref="Z5:Z34" si="3" xml:space="preserve"> (V5 + X5)/2</f>
@@ -18848,15 +18848,15 @@
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="2"/>
-        <v>-0.19598758552256609</v>
+        <v>-0.20459820655801031</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" ref="AB5:AB34" si="4">W5*AA5</f>
-        <v>-1.0704451423725156E-2</v>
+        <v>-9.5018985011914563E-3</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" ref="AC5:AC34" si="5">Y5*AA5</f>
-        <v>8.7641835438280968E-2</v>
+        <v>9.3372816359924282E-2</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" ref="AD5:AD33" si="6">X5-V5</f>
@@ -18869,15 +18869,15 @@
         <v>500</v>
       </c>
       <c r="AH5" s="2">
-        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5"/>
-        <v>-1323.9072065329785</v>
+        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5" ca="1"/>
+        <v>-1148.1488459793502</v>
       </c>
       <c r="AI5" s="3">
         <v>10000</v>
       </c>
       <c r="AJ5" s="2">
-        <f t="dataTable" ref="AJ5:AJ44" dt2D="0" dtr="0" r1="C5" ca="1"/>
-        <v>2267.7189575332168</v>
+        <f t="dataTable" ref="AJ5:AJ44" dt2D="0" dtr="0" r1="C5"/>
+        <v>1387.1171175999734</v>
       </c>
       <c r="AK5" s="2">
         <f>(AG5+AI5)/2</f>
@@ -18885,15 +18885,15 @@
       </c>
       <c r="AL5" s="2">
         <f t="dataTable" ref="AL5:AL44" dt2D="0" dtr="0" r1="C5" ca="1"/>
-        <v>937.06733025709536</v>
+        <v>881.72700808516765</v>
       </c>
       <c r="AM5" s="2">
         <f>AH5*AL5</f>
-        <v>-1240590.1915339872</v>
+        <v>-1012353.8468018104</v>
       </c>
       <c r="AN5" s="2">
         <f>AJ5*AL5</f>
-        <v>2125005.3493090547</v>
+        <v>1223058.6259651461</v>
       </c>
       <c r="AO5" s="2">
         <f>AI5-AG5</f>
@@ -18938,7 +18938,7 @@
       </c>
       <c r="W6" s="2">
         <f t="shared" si="0"/>
-        <v>5.4618007539526739E-2</v>
+        <v>4.6441748737896957E-2</v>
       </c>
       <c r="X6" s="2">
         <f t="shared" ref="X6:X34" si="8">IF(AC5&gt;0, Z5, X5)</f>
@@ -18946,7 +18946,7 @@
       </c>
       <c r="Y6" s="2">
         <f t="shared" si="1"/>
-        <v>-0.19598758552256609</v>
+        <v>-0.20459820655801031</v>
       </c>
       <c r="Z6" s="2">
         <f t="shared" si="3"/>
@@ -18954,15 +18954,15 @@
       </c>
       <c r="AA6" s="2">
         <f t="shared" si="2"/>
-        <v>-7.0548417774564734E-2</v>
+        <v>-7.8855752787848538E-2</v>
       </c>
       <c r="AB6" s="2">
         <f t="shared" si="4"/>
-        <v>-3.8532140139128589E-3</v>
+        <v>-3.6621990575109791E-3</v>
       </c>
       <c r="AC6" s="2">
         <f t="shared" si="5"/>
-        <v>1.3826614062074227E-2</v>
+        <v>1.6133745597175633E-2</v>
       </c>
       <c r="AD6" s="2">
         <f t="shared" si="6"/>
@@ -18976,29 +18976,29 @@
         <v>500</v>
       </c>
       <c r="AH6" s="2">
-        <v>-1323.9072065329785</v>
+        <v>-1148.1488459793502</v>
       </c>
       <c r="AI6" s="2">
         <f>IF(AN5&gt;0, AK5, AI5)</f>
         <v>5250</v>
       </c>
       <c r="AJ6" s="2">
-        <v>937.06733025709536</v>
+        <v>881.72700808516765</v>
       </c>
       <c r="AK6" s="2">
         <f t="shared" ref="AK6:AK43" si="9">(AG6+AI6)/2</f>
         <v>2875</v>
       </c>
       <c r="AL6" s="2">
-        <v>-90.34879665104927</v>
+        <v>60.813887443495787</v>
       </c>
       <c r="AM6" s="2">
         <f t="shared" ref="AM6:AM44" si="10">AH6*AL6</f>
-        <v>119613.42298790677</v>
+        <v>-69823.394687767781</v>
       </c>
       <c r="AN6" s="2">
         <f t="shared" ref="AN6:AN44" si="11">AJ6*AL6</f>
-        <v>-84662.905669739936</v>
+        <v>53621.247025581688</v>
       </c>
       <c r="AO6" s="2">
         <f t="shared" ref="AO6:AO44" si="12">AI6-AG6</f>
@@ -19010,7 +19010,7 @@
         <v>142</v>
       </c>
       <c r="C7" s="17">
-        <v>241.199756057435</v>
+        <v>338.41668921802</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>125</v>
@@ -19020,22 +19020,22 @@
       </c>
       <c r="G7" s="8">
         <f>$C$6*2*PI()/60*$C$9</f>
-        <v>191.13641237185402</v>
+        <v>156.83724371884483</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
       <c r="N7" s="6" t="s">
         <v>159</v>
       </c>
       <c r="O7" s="6">
         <f>O5+$O$6</f>
-        <v>1.0782633481647559</v>
+        <v>1.0455902937237771</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>115</v>
@@ -19049,7 +19049,7 @@
       </c>
       <c r="W7" s="2">
         <f t="shared" si="0"/>
-        <v>5.4618007539526739E-2</v>
+        <v>4.6441748737896957E-2</v>
       </c>
       <c r="X7" s="2">
         <f t="shared" si="8"/>
@@ -19057,7 +19057,7 @@
       </c>
       <c r="Y7" s="2">
         <f t="shared" si="1"/>
-        <v>-7.0548417774564734E-2</v>
+        <v>-7.8855752787848538E-2</v>
       </c>
       <c r="Z7" s="2">
         <f t="shared" si="3"/>
@@ -19065,15 +19065,15 @@
       </c>
       <c r="AA7" s="2">
         <f t="shared" si="2"/>
-        <v>-7.9246717771824585E-3</v>
+        <v>-1.6135464104999483E-2</v>
       </c>
       <c r="AB7" s="2">
         <f t="shared" si="4"/>
-        <v>-4.3282978287442628E-4</v>
+        <v>-7.4935916973374139E-4</v>
       </c>
       <c r="AC7" s="2">
         <f t="shared" si="5"/>
-        <v>5.5907305526297041E-4</v>
+        <v>1.2723741685810429E-3</v>
       </c>
       <c r="AD7" s="2">
         <f t="shared" si="6"/>
@@ -19084,32 +19084,32 @@
       </c>
       <c r="AG7" s="2">
         <f t="shared" ref="AG7:AG44" si="13">IF(AM6&gt;0, AK6, AG6)</f>
-        <v>2875</v>
+        <v>500</v>
       </c>
       <c r="AH7" s="2">
-        <v>-90.34879665104927</v>
+        <v>-1148.1488459793502</v>
       </c>
       <c r="AI7" s="2">
         <f t="shared" ref="AI7:AI44" si="14">IF(AN6&gt;0, AK6, AI6)</f>
-        <v>5250</v>
+        <v>2875</v>
       </c>
       <c r="AJ7" s="2">
-        <v>937.06733025709536</v>
+        <v>60.813887443495787</v>
       </c>
       <c r="AK7" s="2">
         <f t="shared" si="9"/>
-        <v>4062.5</v>
+        <v>1687.5</v>
       </c>
       <c r="AL7" s="2">
-        <v>453.75924883863672</v>
+        <v>-498.92366403881783</v>
       </c>
       <c r="AM7" s="2">
         <f t="shared" si="10"/>
-        <v>-40996.602101854856</v>
+        <v>572838.62909795775</v>
       </c>
       <c r="AN7" s="2">
         <f t="shared" si="11"/>
-        <v>425202.96788868634</v>
+        <v>-30341.487547753175</v>
       </c>
       <c r="AO7" s="2">
         <f t="shared" si="12"/>
@@ -19121,8 +19121,8 @@
         <v>9</v>
       </c>
       <c r="C8" s="17">
-        <f>150 * 1609.344 / 3600</f>
-        <v>67.055999999999997</v>
+        <f xml:space="preserve"> 227.716506900748 * 1000 / 3600</f>
+        <v>63.254585250207768</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>10</v>
@@ -19132,7 +19132,7 @@
       </c>
       <c r="G8" s="8">
         <f>G7/$C$43</f>
-        <v>0.57240704754340188</v>
+        <v>0.46968938313696629</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>122</v>
@@ -19142,7 +19142,7 @@
       </c>
       <c r="K8" s="6">
         <f xml:space="preserve"> $C$15 * (G12*G6 + G22*G15 + G31*G27 +G35*G34)/3600</f>
-        <v>222.02850914154357</v>
+        <v>201.98872298928697</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>102</v>
@@ -19152,7 +19152,7 @@
       </c>
       <c r="O8" s="6">
         <f xml:space="preserve"> O4 *O7</f>
-        <v>2444.9230932970181</v>
+        <v>2109.6511200378977</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>20</v>
@@ -19166,7 +19166,7 @@
       </c>
       <c r="W8" s="2">
         <f t="shared" si="0"/>
-        <v>5.4618007539526739E-2</v>
+        <v>4.6441748737896957E-2</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="8"/>
@@ -19174,7 +19174,7 @@
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="1"/>
-        <v>-7.9246717771824585E-3</v>
+        <v>-1.6135464104999483E-2</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="3"/>
@@ -19182,15 +19182,15 @@
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="2"/>
-        <v>2.3357268226073369E-2</v>
+        <v>1.5172258670158152E-2</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="4"/>
-        <v>1.2757274520744236E-3</v>
+        <v>7.0462622494586356E-4</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="5"/>
-        <v>-1.8509868430324422E-4</v>
+        <v>-2.4481143516410408E-4</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" si="6"/>
@@ -19201,32 +19201,32 @@
       </c>
       <c r="AG8" s="2">
         <f t="shared" si="13"/>
-        <v>2875</v>
+        <v>1687.5</v>
       </c>
       <c r="AH8" s="2">
-        <v>-90.34879665104927</v>
+        <v>-498.92366403881783</v>
       </c>
       <c r="AI8" s="2">
         <f t="shared" si="14"/>
-        <v>4062.5</v>
+        <v>2875</v>
       </c>
       <c r="AJ8" s="2">
-        <v>453.75924883863672</v>
+        <v>60.813887443495787</v>
       </c>
       <c r="AK8" s="2">
         <f t="shared" si="9"/>
-        <v>3468.75</v>
+        <v>2281.25</v>
       </c>
       <c r="AL8" s="2">
-        <v>188.5530804138707</v>
+        <v>-206.6456123829621</v>
       </c>
       <c r="AM8" s="2">
         <f t="shared" si="10"/>
-        <v>-17035.543920241744</v>
+        <v>103100.38608765276</v>
       </c>
       <c r="AN8" s="2">
         <f t="shared" si="11"/>
-        <v>85557.704134809042</v>
+        <v>-12566.923012149717</v>
       </c>
       <c r="AO8" s="2">
         <f t="shared" si="12"/>
@@ -19238,7 +19238,7 @@
         <v>95</v>
       </c>
       <c r="C9" s="17">
-        <v>4.5630457250747201</v>
+        <v>3.7442133898143699</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>8</v>
@@ -19248,7 +19248,7 @@
       </c>
       <c r="G9" s="6">
         <f xml:space="preserve"> $C$5 * $C$44 / $C$18</f>
-        <v>7509.1860488797429</v>
+        <v>6702.8497932446771</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>20</v>
@@ -19258,7 +19258,7 @@
       </c>
       <c r="K9" s="6">
         <f xml:space="preserve"> $C$15 * (G6 + G15 + G27 + G34)/60</f>
-        <v>49.333333333333336</v>
+        <v>50.775662828248706</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>103</v>
@@ -19268,7 +19268,7 @@
       </c>
       <c r="O9" s="6">
         <f xml:space="preserve"> O8</f>
-        <v>2444.9230932970181</v>
+        <v>2109.6511200378977</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>20</v>
@@ -19282,7 +19282,7 @@
       </c>
       <c r="W9" s="2">
         <f t="shared" si="0"/>
-        <v>2.3357268226073369E-2</v>
+        <v>1.5172258670158152E-2</v>
       </c>
       <c r="X9" s="2">
         <f t="shared" si="8"/>
@@ -19290,7 +19290,7 @@
       </c>
       <c r="Y9" s="2">
         <f t="shared" si="1"/>
-        <v>-7.9246717771824585E-3</v>
+        <v>-1.6135464104999483E-2</v>
       </c>
       <c r="Z9" s="2">
         <f t="shared" si="3"/>
@@ -19298,15 +19298,15 @@
       </c>
       <c r="AA9" s="2">
         <f t="shared" si="2"/>
-        <v>7.7189094999179989E-3</v>
+        <v>-4.7692764173111468E-4</v>
       </c>
       <c r="AB9" s="2">
         <f t="shared" si="4"/>
-        <v>1.8029263960237055E-4</v>
+        <v>-7.236069547292986E-6</v>
       </c>
       <c r="AC9" s="2">
         <f t="shared" si="5"/>
-        <v>-6.1169824264625735E-5</v>
+        <v>7.6954488438344548E-6</v>
       </c>
       <c r="AD9" s="2">
         <f t="shared" si="6"/>
@@ -19317,32 +19317,32 @@
       </c>
       <c r="AG9" s="2">
         <f t="shared" si="13"/>
-        <v>2875</v>
+        <v>2281.25</v>
       </c>
       <c r="AH9" s="2">
-        <v>-90.34879665104927</v>
+        <v>-206.6456123829621</v>
       </c>
       <c r="AI9" s="2">
         <f t="shared" si="14"/>
-        <v>3468.75</v>
+        <v>2875</v>
       </c>
       <c r="AJ9" s="2">
-        <v>188.5530804138707</v>
+        <v>60.813887443495787</v>
       </c>
       <c r="AK9" s="2">
         <f t="shared" si="9"/>
-        <v>3171.875</v>
+        <v>2578.125</v>
       </c>
       <c r="AL9" s="2">
-        <v>50.644081118998201</v>
+        <v>-70.135691836959722</v>
       </c>
       <c r="AM9" s="2">
         <f t="shared" si="10"/>
-        <v>-4575.6317865996125</v>
+        <v>14493.232989551258</v>
       </c>
       <c r="AN9" s="2">
         <f t="shared" si="11"/>
-        <v>9549.0974997170597</v>
+        <v>-4265.224069144575</v>
       </c>
       <c r="AO9" s="2">
         <f t="shared" si="12"/>
@@ -19362,7 +19362,7 @@
       </c>
       <c r="G10" s="6">
         <f>G12/$C$18</f>
-        <v>88.184970859596305</v>
+        <v>88.644070788238324</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>101</v>
@@ -19372,42 +19372,42 @@
       </c>
       <c r="O10" s="6">
         <f>O7/(0.3048^2)/($C$5*2.20462/1000)^(2/3)</f>
-        <v>3.2476206024907626</v>
+        <v>3.3969636998387207</v>
       </c>
       <c r="U10" s="2">
         <v>6</v>
       </c>
       <c r="V10" s="2">
         <f t="shared" si="7"/>
-        <v>4.6875E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="W10" s="2">
         <f t="shared" si="0"/>
-        <v>7.7189094999179989E-3</v>
+        <v>1.5172258670158152E-2</v>
       </c>
       <c r="X10" s="2">
         <f t="shared" si="8"/>
-        <v>6.25E-2</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="Y10" s="2">
         <f t="shared" si="1"/>
-        <v>-7.9246717771824585E-3</v>
+        <v>-4.7692764173111468E-4</v>
       </c>
       <c r="Z10" s="2">
         <f t="shared" si="3"/>
-        <v>5.46875E-2</v>
+        <v>3.90625E-2</v>
       </c>
       <c r="AA10" s="2">
         <f t="shared" si="2"/>
-        <v>-1.0223498178781043E-4</v>
+        <v>7.3488507278796078E-3</v>
       </c>
       <c r="AB10" s="2">
         <f t="shared" si="4"/>
-        <v>-7.8914257214587352E-7</v>
+        <v>1.1149866417176943E-4</v>
       </c>
       <c r="AC10" s="2">
         <f t="shared" si="5"/>
-        <v>8.1017867481462401E-7</v>
+        <v>-3.5048700470816069E-6</v>
       </c>
       <c r="AD10" s="2">
         <f t="shared" si="6"/>
@@ -19418,32 +19418,32 @@
       </c>
       <c r="AG10" s="2">
         <f t="shared" si="13"/>
-        <v>2875</v>
+        <v>2578.125</v>
       </c>
       <c r="AH10" s="2">
-        <v>-90.34879665104927</v>
+        <v>-70.135691836959722</v>
       </c>
       <c r="AI10" s="2">
         <f t="shared" si="14"/>
-        <v>3171.875</v>
+        <v>2875</v>
       </c>
       <c r="AJ10" s="2">
-        <v>50.644081118998201</v>
+        <v>60.813887443495787</v>
       </c>
       <c r="AK10" s="2">
         <f t="shared" si="9"/>
-        <v>3023.4375</v>
+        <v>2726.5625</v>
       </c>
       <c r="AL10" s="2">
-        <v>-19.48686870875099</v>
+        <v>-3.9243345166673862</v>
       </c>
       <c r="AM10" s="2">
         <f t="shared" si="10"/>
-        <v>1760.6151383326383</v>
+        <v>275.23591632612806</v>
       </c>
       <c r="AN10" s="2">
         <f t="shared" si="11"/>
-        <v>-986.89455964125284</v>
+        <v>-238.65403758723588</v>
       </c>
       <c r="AO10" s="2">
         <f t="shared" si="12"/>
@@ -19456,50 +19456,50 @@
       </c>
       <c r="G11" s="6">
         <f xml:space="preserve"> (G9/$C$44*1000) / ($G$10*1000)</f>
-        <v>8.6877263906886011</v>
+        <v>7.7146751120972326</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
       <c r="U11" s="2">
         <v>7</v>
       </c>
       <c r="V11" s="2">
         <f t="shared" si="7"/>
-        <v>4.6875E-2</v>
+        <v>3.90625E-2</v>
       </c>
       <c r="W11" s="2">
         <f t="shared" si="0"/>
-        <v>7.7189094999179989E-3</v>
+        <v>7.3488507278796078E-3</v>
       </c>
       <c r="X11" s="2">
         <f t="shared" si="8"/>
-        <v>5.46875E-2</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="Y11" s="2">
         <f t="shared" si="1"/>
-        <v>-1.0223498178781043E-4</v>
+        <v>-4.7692764173111468E-4</v>
       </c>
       <c r="Z11" s="2">
         <f t="shared" si="3"/>
-        <v>5.078125E-2</v>
+        <v>4.296875E-2</v>
       </c>
       <c r="AA11" s="2">
         <f t="shared" si="2"/>
-        <v>3.8084997093214071E-3</v>
+        <v>3.4362559983368984E-3</v>
       </c>
       <c r="AB11" s="2">
         <f t="shared" si="4"/>
-        <v>2.9397464586715947E-5</v>
+        <v>2.5252532394558786E-5</v>
       </c>
       <c r="AC11" s="2">
         <f t="shared" si="5"/>
-        <v>-3.8936189842135536E-7</v>
+        <v>-1.6388454696712141E-6</v>
       </c>
       <c r="AD11" s="2">
         <f t="shared" si="6"/>
@@ -19510,32 +19510,32 @@
       </c>
       <c r="AG11" s="2">
         <f t="shared" si="13"/>
-        <v>3023.4375</v>
+        <v>2726.5625</v>
       </c>
       <c r="AH11" s="2">
-        <v>-19.48686870875099</v>
+        <v>-3.9243345166673862</v>
       </c>
       <c r="AI11" s="2">
         <f t="shared" si="14"/>
-        <v>3171.875</v>
+        <v>2875</v>
       </c>
       <c r="AJ11" s="2">
-        <v>50.644081118998201</v>
+        <v>60.813887443495787</v>
       </c>
       <c r="AK11" s="2">
         <f t="shared" si="9"/>
-        <v>3097.65625</v>
+        <v>2800.78125</v>
       </c>
       <c r="AL11" s="2">
-        <v>15.67233388356226</v>
+        <v>28.634077283313673</v>
       </c>
       <c r="AM11" s="2">
         <f t="shared" si="10"/>
-        <v>-305.4047127486873</v>
+        <v>-112.36969783582934</v>
       </c>
       <c r="AN11" s="2">
         <f t="shared" si="11"/>
-        <v>793.71094852315116</v>
+        <v>1741.3495529557972</v>
       </c>
       <c r="AO11" s="2">
         <f t="shared" si="12"/>
@@ -19543,17 +19543,17 @@
       </c>
     </row>
     <row r="12" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
       <c r="F12" s="24" t="s">
         <v>82</v>
       </c>
       <c r="G12" s="25">
         <f xml:space="preserve"> 1/1000 * (($C$5*$C$44)/$C$21 * ( ($G$4/2) + SQRT( ($G$4/2)^2 + ($C$5*$C$44) / (2*$C$41*PI()*$C$9^2 * $C$18) ) ) )</f>
-        <v>352.73988343838522</v>
+        <v>354.57628315295329</v>
       </c>
       <c r="H12" s="25" t="s">
         <v>101</v>
@@ -19563,50 +19563,50 @@
       </c>
       <c r="K12" s="6">
         <f>C5</f>
-        <v>3064.5075943960801</v>
+        <v>2735.4408269800301</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N12" s="28" t="s">
+      <c r="N12" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
       <c r="U12" s="2">
         <v>8</v>
       </c>
       <c r="V12" s="2">
         <f t="shared" si="7"/>
-        <v>5.078125E-2</v>
+        <v>4.296875E-2</v>
       </c>
       <c r="W12" s="2">
         <f t="shared" si="0"/>
-        <v>3.8084997093214071E-3</v>
+        <v>3.4362559983368984E-3</v>
       </c>
       <c r="X12" s="2">
         <f t="shared" si="8"/>
-        <v>5.46875E-2</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="Y12" s="2">
         <f t="shared" si="1"/>
-        <v>-1.0223498178781043E-4</v>
+        <v>-4.7692764173111468E-4</v>
       </c>
       <c r="Z12" s="2">
         <f t="shared" si="3"/>
-        <v>5.2734375E-2</v>
+        <v>4.4921875E-2</v>
       </c>
       <c r="AA12" s="2">
         <f t="shared" si="2"/>
-        <v>1.853172867263192E-3</v>
+        <v>1.4797375426206863E-3</v>
       </c>
       <c r="AB12" s="2">
         <f t="shared" si="4"/>
-        <v>7.0578083262941851E-6</v>
+        <v>5.0847570067946356E-6</v>
       </c>
       <c r="AC12" s="2">
         <f t="shared" si="5"/>
-        <v>-1.8945909433431686E-7</v>
+        <v>-7.0572773658307874E-7</v>
       </c>
       <c r="AD12" s="2">
         <f t="shared" si="6"/>
@@ -19617,32 +19617,32 @@
       </c>
       <c r="AG12" s="2">
         <f t="shared" si="13"/>
-        <v>3023.4375</v>
+        <v>2726.5625</v>
       </c>
       <c r="AH12" s="2">
-        <v>-19.48686870875099</v>
+        <v>-3.9243345166673862</v>
       </c>
       <c r="AI12" s="2">
         <f t="shared" si="14"/>
-        <v>3097.65625</v>
+        <v>2800.78125</v>
       </c>
       <c r="AJ12" s="2">
-        <v>15.67233388356226</v>
+        <v>28.634077283313673</v>
       </c>
       <c r="AK12" s="2">
         <f t="shared" si="9"/>
-        <v>3060.546875</v>
+        <v>2763.671875</v>
       </c>
       <c r="AL12" s="2">
-        <v>-1.8841370725872366</v>
+        <v>12.401568199522444</v>
       </c>
       <c r="AM12" s="2">
         <f t="shared" si="10"/>
-        <v>36.715931762797915</v>
+        <v>-48.667902146190535</v>
       </c>
       <c r="AN12" s="2">
         <f t="shared" si="11"/>
-        <v>-29.528825283984755</v>
+        <v>355.10746225941085</v>
       </c>
       <c r="AO12" s="2">
         <f t="shared" si="12"/>
@@ -19665,7 +19665,7 @@
       </c>
       <c r="K13" s="6">
         <f xml:space="preserve"> K8 * 1000 / ($C$36 * $C$37 * $C$38)</f>
-        <v>1306.0500537737857</v>
+        <v>1188.1689587605115</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>7</v>
@@ -19675,7 +19675,7 @@
       </c>
       <c r="O13" s="6">
         <f xml:space="preserve"> SQRT( ($C$5*$C$50)^2 + O9^2)</f>
-        <v>30133.221936578731</v>
+        <v>26891.7132517342</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>20</v>
@@ -19685,35 +19685,35 @@
       </c>
       <c r="V13" s="2">
         <f t="shared" si="7"/>
-        <v>5.2734375E-2</v>
+        <v>4.4921875E-2</v>
       </c>
       <c r="W13" s="2">
         <f t="shared" si="0"/>
-        <v>1.853172867263192E-3</v>
+        <v>1.4797375426206863E-3</v>
       </c>
       <c r="X13" s="2">
         <f t="shared" si="8"/>
-        <v>5.46875E-2</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="Y13" s="2">
         <f t="shared" si="1"/>
-        <v>-1.0223498178781043E-4</v>
+        <v>-4.7692764173111468E-4</v>
       </c>
       <c r="Z13" s="2">
         <f t="shared" si="3"/>
-        <v>5.37109375E-2</v>
+        <v>4.58984375E-2</v>
       </c>
       <c r="AA13" s="2">
         <f t="shared" si="2"/>
-        <v>8.754790545541305E-4</v>
+        <v>5.0142325919824704E-4</v>
       </c>
       <c r="AB13" s="2">
         <f t="shared" si="4"/>
-        <v>1.6224140297569464E-6</v>
+        <v>7.4197482137886956E-7</v>
       </c>
       <c r="AC13" s="2">
         <f t="shared" si="5"/>
-        <v>-8.9504585197951027E-8</v>
+        <v>-2.391426125185494E-7</v>
       </c>
       <c r="AD13" s="2">
         <f t="shared" si="6"/>
@@ -19724,32 +19724,32 @@
       </c>
       <c r="AG13" s="2">
         <f t="shared" si="13"/>
-        <v>3060.546875</v>
+        <v>2726.5625</v>
       </c>
       <c r="AH13" s="2">
-        <v>-1.8841370725872366</v>
+        <v>-3.9243345166673862</v>
       </c>
       <c r="AI13" s="2">
         <f t="shared" si="14"/>
-        <v>3097.65625</v>
+        <v>2763.671875</v>
       </c>
       <c r="AJ13" s="2">
-        <v>15.67233388356226</v>
+        <v>12.401568199522444</v>
       </c>
       <c r="AK13" s="2">
         <f t="shared" si="9"/>
-        <v>3079.1015625</v>
+        <v>2745.1171875</v>
       </c>
       <c r="AL13" s="2">
-        <v>6.8999204693841421</v>
+        <v>4.2502080302538161</v>
       </c>
       <c r="AM13" s="2">
         <f t="shared" si="10"/>
-        <v>-13.000395954270189</v>
+        <v>-16.679238076141953</v>
       </c>
       <c r="AN13" s="2">
         <f t="shared" si="11"/>
-        <v>108.13785736621391</v>
+        <v>52.709244749350653</v>
       </c>
       <c r="AO13" s="2">
         <f t="shared" si="12"/>
@@ -19767,7 +19767,7 @@
       <c r="D14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="30" t="s">
         <v>86</v>
       </c>
       <c r="G14" s="31"/>
@@ -19777,7 +19777,7 @@
       </c>
       <c r="K14" s="6">
         <f xml:space="preserve"> $C$54 * $C$18 * (0.0095 * MAX(G9,O18,G28) - 1.9275)</f>
-        <v>222.84448671799839</v>
+        <v>198.20902071317994</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>7</v>
@@ -19787,42 +19787,42 @@
       </c>
       <c r="O14" s="6">
         <f>$C$5*$C$50/O13</f>
-        <v>0.99670294793230985</v>
+        <v>0.99691806061533528</v>
       </c>
       <c r="U14" s="2">
         <v>10</v>
       </c>
       <c r="V14" s="2">
         <f t="shared" si="7"/>
-        <v>5.37109375E-2</v>
+        <v>4.58984375E-2</v>
       </c>
       <c r="W14" s="2">
         <f t="shared" si="0"/>
-        <v>8.754790545541305E-4</v>
+        <v>5.0142325919824704E-4</v>
       </c>
       <c r="X14" s="2">
         <f t="shared" si="8"/>
-        <v>5.46875E-2</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="Y14" s="2">
         <f t="shared" si="1"/>
-        <v>-1.0223498178781043E-4</v>
+        <v>-4.7692764173111468E-4</v>
       </c>
       <c r="Z14" s="2">
         <f t="shared" si="3"/>
-        <v>5.419921875E-2</v>
+        <v>4.638671875E-2</v>
       </c>
       <c r="AA14" s="2">
         <f t="shared" si="2"/>
-        <v>3.8662456255370709E-4</v>
+        <v>1.2252381810538837E-5</v>
       </c>
       <c r="AB14" s="2">
         <f t="shared" si="4"/>
-        <v>3.3848170649192375E-7</v>
+        <v>6.1436292203817025E-9</v>
       </c>
       <c r="AC14" s="2">
         <f t="shared" si="5"/>
-        <v>-3.9526555111398419E-8</v>
+        <v>-5.8434995624894927E-9</v>
       </c>
       <c r="AD14" s="2">
         <f t="shared" si="6"/>
@@ -19833,32 +19833,32 @@
       </c>
       <c r="AG14" s="2">
         <f t="shared" si="13"/>
-        <v>3060.546875</v>
+        <v>2726.5625</v>
       </c>
       <c r="AH14" s="2">
-        <v>-1.8841370725872366</v>
+        <v>-3.9243345166673862</v>
       </c>
       <c r="AI14" s="2">
         <f t="shared" si="14"/>
-        <v>3079.1015625</v>
+        <v>2745.1171875</v>
       </c>
       <c r="AJ14" s="2">
-        <v>6.8999204693841421</v>
+        <v>4.2502080302538161</v>
       </c>
       <c r="AK14" s="2">
         <f t="shared" si="9"/>
-        <v>3069.82421875</v>
+        <v>2735.83984375</v>
       </c>
       <c r="AL14" s="2">
-        <v>2.5093338309179671</v>
+        <v>0.16583622360803929</v>
       </c>
       <c r="AM14" s="2">
         <f t="shared" si="10"/>
-        <v>-4.7279288983298944</v>
+        <v>-0.6507968164187995</v>
       </c>
       <c r="AN14" s="2">
         <f t="shared" si="11"/>
-        <v>17.314203864469007</v>
+        <v>0.70483844928585604</v>
       </c>
       <c r="AO14" s="2">
         <f t="shared" si="12"/>
@@ -19877,7 +19877,7 @@
       </c>
       <c r="G15" s="6">
         <f xml:space="preserve"> $C$14/$C$8</f>
-        <v>1440</v>
+        <v>1526.5397696949224</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>13</v>
@@ -19887,7 +19887,7 @@
       </c>
       <c r="K15" s="6">
         <f xml:space="preserve"> $C$54 * $C$18 * ( 0.0037 * $C$19^0.28 * ($C$9*3.28084)^1.5 * ($G$7*3.28084)^0.43 * ( 0.01742 * $C$19^0.66 * ($C$10*$C$9*3.28084) * ($C$9*3.28084)^1.3 * ($G$7*3.28084)^0.67 + 0.5*(K14/$C$18)* 2.20462 * 9.80665*3.28084 )^0.55 ) * 0.453592</f>
-        <v>449.07837221428639</v>
+        <v>284.92952896390676</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>7</v>
@@ -19897,35 +19897,35 @@
       </c>
       <c r="V15" s="2">
         <f t="shared" si="7"/>
-        <v>5.419921875E-2</v>
+        <v>4.638671875E-2</v>
       </c>
       <c r="W15" s="2">
         <f t="shared" si="0"/>
-        <v>3.8662456255370709E-4</v>
+        <v>1.2252381810538837E-5</v>
       </c>
       <c r="X15" s="2">
         <f t="shared" si="8"/>
-        <v>5.46875E-2</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="Y15" s="2">
         <f t="shared" si="1"/>
-        <v>-1.0223498178781043E-4</v>
+        <v>-4.7692764173111468E-4</v>
       </c>
       <c r="Z15" s="2">
         <f t="shared" si="3"/>
-        <v>5.4443359375E-2</v>
+        <v>4.6630859375E-2</v>
       </c>
       <c r="AA15" s="2">
         <f t="shared" si="2"/>
-        <v>1.4219542170099825E-4</v>
+        <v>-2.3233648720936972E-4</v>
       </c>
       <c r="AB15" s="2">
         <f t="shared" si="4"/>
-        <v>5.4976242712288355E-8</v>
+        <v>-2.8466753498085707E-9</v>
       </c>
       <c r="AC15" s="2">
         <f t="shared" si="5"/>
-        <v>-1.4537346347911579E-8</v>
+        <v>1.10807692932856E-7</v>
       </c>
       <c r="AD15" s="2">
         <f t="shared" si="6"/>
@@ -19936,32 +19936,32 @@
       </c>
       <c r="AG15" s="2">
         <f t="shared" si="13"/>
-        <v>3060.546875</v>
+        <v>2726.5625</v>
       </c>
       <c r="AH15" s="2">
-        <v>-1.8841370725872366</v>
+        <v>-3.9243345166673862</v>
       </c>
       <c r="AI15" s="2">
         <f t="shared" si="14"/>
-        <v>3069.82421875</v>
+        <v>2735.83984375</v>
       </c>
       <c r="AJ15" s="2">
-        <v>2.5093338309179671</v>
+        <v>0.16583622360803929</v>
       </c>
       <c r="AK15" s="2">
         <f t="shared" si="9"/>
-        <v>3065.185546875</v>
+        <v>2731.201171875</v>
       </c>
       <c r="AL15" s="2">
-        <v>0.31296096291134745</v>
+        <v>-1.8785385698915888</v>
       </c>
       <c r="AM15" s="2">
         <f t="shared" si="10"/>
-        <v>-0.58966135249386897</v>
+        <v>7.3720137507165511</v>
       </c>
       <c r="AN15" s="2">
         <f t="shared" si="11"/>
-        <v>0.78532353199010729</v>
+        <v>-0.3115297423328679</v>
       </c>
       <c r="AO15" s="2">
         <f t="shared" si="12"/>
@@ -19974,7 +19974,7 @@
       </c>
       <c r="G16" s="8">
         <f>O19*$C$9</f>
-        <v>115.25514009446123</v>
+        <v>132.69085191352792</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>10</v>
@@ -19984,50 +19984,50 @@
       </c>
       <c r="K16" s="6">
         <f xml:space="preserve"> $C$54 * 0.2138 * K4</f>
-        <v>90.498944494952113</v>
+        <v>90.970091205721701</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N16" s="28" t="s">
+      <c r="N16" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
       <c r="U16" s="2">
         <v>12</v>
       </c>
       <c r="V16" s="2">
         <f t="shared" si="7"/>
-        <v>5.4443359375E-2</v>
+        <v>4.638671875E-2</v>
       </c>
       <c r="W16" s="2">
         <f t="shared" si="0"/>
-        <v>1.4219542170099825E-4</v>
+        <v>1.2252381810538837E-5</v>
       </c>
       <c r="X16" s="2">
         <f t="shared" si="8"/>
-        <v>5.46875E-2</v>
+        <v>4.6630859375E-2</v>
       </c>
       <c r="Y16" s="2">
         <f t="shared" si="1"/>
-        <v>-1.0223498178781043E-4</v>
+        <v>-2.3233648720936972E-4</v>
       </c>
       <c r="Z16" s="2">
         <f t="shared" si="3"/>
-        <v>5.45654296875E-2</v>
+        <v>4.65087890625E-2</v>
       </c>
       <c r="AA16" s="2">
         <f t="shared" si="2"/>
-        <v>1.9980377757931878E-5</v>
+        <v>-1.1004176694669188E-4</v>
       </c>
       <c r="AB16" s="2">
         <f t="shared" si="4"/>
-        <v>2.8411182410343693E-9</v>
+        <v>-1.3482737437372014E-9</v>
       </c>
       <c r="AC16" s="2">
         <f t="shared" si="5"/>
-        <v>-2.0426935561957383E-9</v>
+        <v>2.5566717578706521E-8</v>
       </c>
       <c r="AD16" s="2">
         <f t="shared" si="6"/>
@@ -20038,32 +20038,32 @@
       </c>
       <c r="AG16" s="2">
         <f t="shared" si="13"/>
-        <v>3060.546875</v>
+        <v>2731.201171875</v>
       </c>
       <c r="AH16" s="2">
-        <v>-1.8841370725872366</v>
+        <v>-3.9243345166673862</v>
       </c>
       <c r="AI16" s="2">
         <f t="shared" si="14"/>
-        <v>3065.185546875</v>
+        <v>2735.83984375</v>
       </c>
       <c r="AJ16" s="2">
-        <v>0.31296096291134745</v>
+        <v>0.16583622360803929</v>
       </c>
       <c r="AK16" s="2">
         <f t="shared" si="9"/>
-        <v>3062.8662109375</v>
+        <v>2733.5205078125</v>
       </c>
       <c r="AL16" s="2">
-        <v>-0.78549615465908573</v>
+        <v>-2.9012534879684608</v>
       </c>
       <c r="AM16" s="2">
         <f t="shared" si="10"/>
-        <v>1.479982425367901</v>
+        <v>11.385489204436277</v>
       </c>
       <c r="AN16" s="2">
         <f t="shared" si="11"/>
-        <v>-0.24582963292526816</v>
+        <v>-0.48113292217434162</v>
       </c>
       <c r="AO16" s="2">
         <f t="shared" si="12"/>
@@ -20071,17 +20071,17 @@
       </c>
     </row>
     <row r="17" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
       <c r="F17" s="6" t="s">
         <v>124</v>
       </c>
       <c r="G17" s="6">
         <f>G16/$C$49</f>
-        <v>0.3464009772440777</v>
+        <v>0.39880425928530155</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>122</v>
@@ -20091,7 +20091,7 @@
       </c>
       <c r="K17" s="6">
         <f xml:space="preserve"> $C$54 * 0.1149 * K4</f>
-        <v>48.635775128484553</v>
+        <v>48.888977921129204</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>7</v>
@@ -20101,7 +20101,7 @@
       </c>
       <c r="O17" s="6">
         <f xml:space="preserve"> ACOS(O14)/PI()*180</f>
-        <v>4.6539308873209624</v>
+        <v>4.4994691535268627</v>
       </c>
       <c r="P17" s="6" t="s">
         <v>40</v>
@@ -20111,35 +20111,35 @@
       </c>
       <c r="V17" s="2">
         <f t="shared" si="7"/>
-        <v>5.45654296875E-2</v>
+        <v>4.638671875E-2</v>
       </c>
       <c r="W17" s="2">
         <f t="shared" si="0"/>
-        <v>1.9980377757931878E-5</v>
+        <v>1.2252381810538837E-5</v>
       </c>
       <c r="X17" s="2">
         <f t="shared" si="8"/>
-        <v>5.46875E-2</v>
+        <v>4.65087890625E-2</v>
       </c>
       <c r="Y17" s="2">
         <f t="shared" si="1"/>
-        <v>-1.0223498178781043E-4</v>
+        <v>-1.1004176694669188E-4</v>
       </c>
       <c r="Z17" s="2">
         <f t="shared" si="3"/>
-        <v>5.462646484375E-2</v>
+        <v>4.644775390625E-2</v>
       </c>
       <c r="AA17" s="2">
         <f t="shared" si="2"/>
-        <v>-4.1127262568135814E-5</v>
+        <v>-4.8894621121793602E-5</v>
       </c>
       <c r="AB17" s="2">
         <f t="shared" si="4"/>
-        <v>-8.2173824226100506E-10</v>
+        <v>-5.9907556646585199E-10</v>
       </c>
       <c r="AC17" s="2">
         <f t="shared" si="5"/>
-        <v>4.2046449396358624E-9</v>
+        <v>5.3804505024312101E-9</v>
       </c>
       <c r="AD17" s="2">
         <f t="shared" si="6"/>
@@ -20150,32 +20150,32 @@
       </c>
       <c r="AG17" s="2">
         <f t="shared" si="13"/>
-        <v>3062.8662109375</v>
+        <v>2733.5205078125</v>
       </c>
       <c r="AH17" s="2">
-        <v>-0.78549615465908573</v>
+        <v>-3.9243345166673862</v>
       </c>
       <c r="AI17" s="2">
         <f t="shared" si="14"/>
-        <v>3065.185546875</v>
+        <v>2735.83984375</v>
       </c>
       <c r="AJ17" s="2">
-        <v>0.31296096291134745</v>
+        <v>0.16583622360803929</v>
       </c>
       <c r="AK17" s="2">
         <f t="shared" si="9"/>
-        <v>3064.02587890625</v>
+        <v>2734.68017578125</v>
       </c>
       <c r="AL17" s="2">
-        <v>-0.2362425196733966</v>
+        <v>-3.4127568842086475</v>
       </c>
       <c r="AM17" s="2">
         <f t="shared" si="10"/>
-        <v>0.18556759077042645</v>
+        <v>13.392799637694237</v>
       </c>
       <c r="AN17" s="2">
         <f t="shared" si="11"/>
-        <v>-7.3934686437589145E-2</v>
+        <v>-0.56595871376950069</v>
       </c>
       <c r="AO17" s="2">
         <f t="shared" si="12"/>
@@ -20194,7 +20194,7 @@
       </c>
       <c r="G18" s="6">
         <f>O18</f>
-        <v>7533.3054841446829</v>
+        <v>6722.9283129335499</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>20</v>
@@ -20204,7 +20204,7 @@
       </c>
       <c r="K18" s="6">
         <f xml:space="preserve"> $C$55 * (14.86 * ($C$5*2.20462)^0.144 * ($C$26/(PI()*$C$27))^0.778 * ($C$26*3.28084)^0.383 * $C$25^0.455 * 0.453592)</f>
-        <v>138.24518091757665</v>
+        <v>136.00221915900795</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>7</v>
@@ -20214,7 +20214,7 @@
       </c>
       <c r="O18" s="6">
         <f xml:space="preserve"> O13 / $C$18</f>
-        <v>7533.3054841446829</v>
+        <v>6722.9283129335499</v>
       </c>
       <c r="P18" s="6" t="s">
         <v>20</v>
@@ -20224,35 +20224,35 @@
       </c>
       <c r="V18" s="2">
         <f t="shared" si="7"/>
-        <v>5.45654296875E-2</v>
+        <v>4.638671875E-2</v>
       </c>
       <c r="W18" s="2">
         <f t="shared" si="0"/>
-        <v>1.9980377757931878E-5</v>
+        <v>1.2252381810538837E-5</v>
       </c>
       <c r="X18" s="2">
         <f t="shared" si="8"/>
-        <v>5.462646484375E-2</v>
+        <v>4.644775390625E-2</v>
       </c>
       <c r="Y18" s="2">
         <f t="shared" si="1"/>
-        <v>-4.1127262568135814E-5</v>
+        <v>-4.8894621121793602E-5</v>
       </c>
       <c r="Z18" s="2">
         <f t="shared" si="3"/>
-        <v>5.4595947265625E-2</v>
+        <v>4.6417236328125E-2</v>
       </c>
       <c r="AA18" s="2">
         <f t="shared" si="2"/>
-        <v>-1.0573432542959615E-5</v>
+        <v>-1.8321101793040973E-5</v>
       </c>
       <c r="AB18" s="2">
         <f t="shared" si="4"/>
-        <v>-2.1126117640634339E-10</v>
+        <v>-2.2447713435808568E-10</v>
       </c>
       <c r="AC18" s="2">
         <f t="shared" si="5"/>
-        <v>4.3485633644077207E-10</v>
+        <v>8.9580333070455181E-10</v>
       </c>
       <c r="AD18" s="2">
         <f t="shared" si="6"/>
@@ -20263,32 +20263,32 @@
       </c>
       <c r="AG18" s="2">
         <f t="shared" si="13"/>
-        <v>3064.02587890625</v>
+        <v>2734.68017578125</v>
       </c>
       <c r="AH18" s="2">
-        <v>-0.2362425196733966</v>
+        <v>-3.9243345166673862</v>
       </c>
       <c r="AI18" s="2">
         <f t="shared" si="14"/>
-        <v>3065.185546875</v>
+        <v>2735.83984375</v>
       </c>
       <c r="AJ18" s="2">
-        <v>0.31296096291134745</v>
+        <v>0.16583622360803929</v>
       </c>
       <c r="AK18" s="2">
         <f t="shared" si="9"/>
-        <v>3064.605712890625</v>
+        <v>2735.260009765625</v>
       </c>
       <c r="AL18" s="2">
-        <v>3.8353460620328406E-2</v>
+        <v>-3.6685300459057544</v>
       </c>
       <c r="AM18" s="2">
         <f t="shared" si="10"/>
-        <v>-9.0607181751407757E-3</v>
+        <v>14.396539084579343</v>
       </c>
       <c r="AN18" s="2">
         <f t="shared" si="11"/>
-        <v>1.2003135966720422E-2</v>
+        <v>-0.60837516900563737</v>
       </c>
       <c r="AO18" s="2">
         <f t="shared" si="12"/>
@@ -20308,7 +20308,7 @@
       </c>
       <c r="G19" s="6">
         <f xml:space="preserve"> 1/1000 * (O23 + O18 * (O25 * O28 + $C$8 * SIN(O17/180*PI())))</f>
-        <v>66.047485046677153</v>
+        <v>57.164527846583958</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>101</v>
@@ -20318,7 +20318,7 @@
       </c>
       <c r="K19" s="6">
         <f xml:space="preserve"> $C$55 * C31 * $C$5</f>
-        <v>34.322485057236101</v>
+        <v>30.636937262176343</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>7</v>
@@ -20328,7 +20328,7 @@
       </c>
       <c r="O19" s="6">
         <f>$C$7*2*PI()/60</f>
-        <v>25.258379389256266</v>
+        <v>35.438912823317061</v>
       </c>
       <c r="P19" s="6" t="s">
         <v>27</v>
@@ -20338,35 +20338,35 @@
       </c>
       <c r="V19" s="2">
         <f t="shared" si="7"/>
-        <v>5.45654296875E-2</v>
+        <v>4.638671875E-2</v>
       </c>
       <c r="W19" s="2">
         <f t="shared" si="0"/>
-        <v>1.9980377757931878E-5</v>
+        <v>1.2252381810538837E-5</v>
       </c>
       <c r="X19" s="2">
         <f t="shared" si="8"/>
-        <v>5.4595947265625E-2</v>
+        <v>4.6417236328125E-2</v>
       </c>
       <c r="Y19" s="2">
         <f t="shared" si="1"/>
-        <v>-1.0573432542959615E-5</v>
+        <v>-1.8321101793040973E-5</v>
       </c>
       <c r="Z19" s="2">
         <f t="shared" si="3"/>
-        <v>5.45806884765625E-2</v>
+        <v>4.64019775390625E-2</v>
       </c>
       <c r="AA19" s="2">
         <f t="shared" si="2"/>
-        <v>4.7034750730798325E-6</v>
+        <v>-3.0343555254760957E-6</v>
       </c>
       <c r="AB19" s="2">
         <f t="shared" si="4"/>
-        <v>9.3977208735151301E-11</v>
+        <v>-3.7178082447051331E-11</v>
       </c>
       <c r="AC19" s="2">
         <f t="shared" si="5"/>
-        <v>-4.9731876402701659E-11</v>
+        <v>5.5592736458523877E-11</v>
       </c>
       <c r="AD19" s="2">
         <f t="shared" si="6"/>
@@ -20377,32 +20377,32 @@
       </c>
       <c r="AG19" s="2">
         <f t="shared" si="13"/>
-        <v>3064.02587890625</v>
+        <v>2735.260009765625</v>
       </c>
       <c r="AH19" s="2">
-        <v>-0.2362425196733966</v>
+        <v>-3.9243345166673862</v>
       </c>
       <c r="AI19" s="2">
         <f t="shared" si="14"/>
-        <v>3064.605712890625</v>
+        <v>2735.83984375</v>
       </c>
       <c r="AJ19" s="2">
-        <v>3.8353460620328406E-2</v>
+        <v>0.16583622360803929</v>
       </c>
       <c r="AK19" s="2">
         <f t="shared" si="9"/>
-        <v>3064.3157958984375</v>
+        <v>2735.5499267578125</v>
       </c>
       <c r="AL19" s="2">
-        <v>-9.8939949927626003E-2</v>
+        <v>-3.7964347584656934</v>
       </c>
       <c r="AM19" s="2">
         <f t="shared" si="10"/>
-        <v>2.3373823067262059E-2</v>
+        <v>14.898479962922732</v>
       </c>
       <c r="AN19" s="2">
         <f t="shared" si="11"/>
-        <v>-3.7946894733264683E-3</v>
+        <v>-0.62958640351824935</v>
       </c>
       <c r="AO19" s="2">
         <f t="shared" si="12"/>
@@ -20422,7 +20422,7 @@
       </c>
       <c r="G20" s="6">
         <f xml:space="preserve"> (G18/$C$50*1000) / ($G$19*1000)</f>
-        <v>11.638008837170609</v>
+        <v>12.000000068493188</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>147</v>
@@ -20442,42 +20442,42 @@
       </c>
       <c r="O20" s="6">
         <f xml:space="preserve"> $C$8 * COS(O17/180*PI()) / (O19 * $C$9)</f>
-        <v>0.57988661348875348</v>
+        <v>0.4752372717733343</v>
       </c>
       <c r="U20" s="2">
         <v>16</v>
       </c>
       <c r="V20" s="2">
         <f t="shared" si="7"/>
-        <v>5.45806884765625E-2</v>
+        <v>4.638671875E-2</v>
       </c>
       <c r="W20" s="2">
         <f t="shared" si="0"/>
-        <v>4.7034750730798325E-6</v>
+        <v>1.2252381810538837E-5</v>
       </c>
       <c r="X20" s="2">
         <f t="shared" si="8"/>
-        <v>5.4595947265625E-2</v>
+        <v>4.64019775390625E-2</v>
       </c>
       <c r="Y20" s="2">
         <f t="shared" si="1"/>
-        <v>-1.0573432542959615E-5</v>
+        <v>-3.0343555254760957E-6</v>
       </c>
       <c r="Z20" s="2">
         <f t="shared" si="3"/>
-        <v>5.458831787109375E-2</v>
+        <v>4.639434814453125E-2</v>
       </c>
       <c r="AA20" s="2">
         <f t="shared" si="2"/>
-        <v>-2.9349781185475377E-6</v>
+        <v>4.609014258992461E-6</v>
       </c>
       <c r="AB20" s="2">
         <f t="shared" si="4"/>
-        <v>-1.3804596420623088E-11</v>
+        <v>5.6471402471393366E-11</v>
       </c>
       <c r="AC20" s="2">
         <f t="shared" si="5"/>
-        <v>3.103279315152492E-11</v>
+        <v>-1.3985387883771886E-11</v>
       </c>
       <c r="AD20" s="2">
         <f t="shared" si="6"/>
@@ -20488,32 +20488,32 @@
       </c>
       <c r="AG20" s="2">
         <f t="shared" si="13"/>
-        <v>3064.3157958984375</v>
+        <v>2735.5499267578125</v>
       </c>
       <c r="AH20" s="2">
-        <v>-9.8939949927626003E-2</v>
+        <v>-3.9243345166673862</v>
       </c>
       <c r="AI20" s="2">
         <f t="shared" si="14"/>
-        <v>3064.605712890625</v>
+        <v>2735.83984375</v>
       </c>
       <c r="AJ20" s="2">
-        <v>3.8353460620328406E-2</v>
+        <v>0.16583622360803929</v>
       </c>
       <c r="AK20" s="2">
         <f t="shared" si="9"/>
-        <v>3064.4607543945312</v>
+        <v>2735.6948852539062</v>
       </c>
       <c r="AL20" s="2">
-        <v>-3.0294106387827924E-2</v>
+        <v>-3.8603767393406088</v>
       </c>
       <c r="AM20" s="2">
         <f t="shared" si="10"/>
-        <v>2.99729736911387E-3</v>
+        <v>15.149409685534248</v>
       </c>
       <c r="AN20" s="2">
         <f t="shared" si="11"/>
-        <v>-1.1618838163735975E-3</v>
+        <v>-0.64019030015656275</v>
       </c>
       <c r="AO20" s="2">
         <f t="shared" si="12"/>
@@ -20532,7 +20532,7 @@
       </c>
       <c r="G21" s="6">
         <f>O21/ ($C$19*$C$10/PI())</f>
-        <v>0.13999999999814736</v>
+        <v>0.13999999999032714</v>
       </c>
       <c r="J21" s="14" t="s">
         <v>63</v>
@@ -20549,42 +20549,42 @@
       </c>
       <c r="O21" s="6">
         <f xml:space="preserve"> O18 / ($C$47 * PI() * $C$9^2 * O19^2 * $C$9^2)</f>
-        <v>8.5962767861656932E-3</v>
+        <v>8.5962767856855166E-3</v>
       </c>
       <c r="U21" s="2">
         <v>17</v>
       </c>
       <c r="V21" s="2">
         <f t="shared" si="7"/>
-        <v>5.45806884765625E-2</v>
+        <v>4.639434814453125E-2</v>
       </c>
       <c r="W21" s="2">
         <f t="shared" si="0"/>
-        <v>4.7034750730798325E-6</v>
+        <v>4.609014258992461E-6</v>
       </c>
       <c r="X21" s="2">
         <f t="shared" si="8"/>
-        <v>5.458831787109375E-2</v>
+        <v>4.64019775390625E-2</v>
       </c>
       <c r="Y21" s="2">
         <f t="shared" si="1"/>
-        <v>-2.9349781185475377E-6</v>
+        <v>-3.0343555254760957E-6</v>
       </c>
       <c r="Z21" s="2">
         <f t="shared" si="3"/>
-        <v>5.4584503173828125E-2</v>
+        <v>4.6398162841796875E-2</v>
       </c>
       <c r="AA21" s="2">
         <f t="shared" si="2"/>
-        <v>8.8424863136510323E-7</v>
+        <v>7.8732964586825105E-7</v>
       </c>
       <c r="AB21" s="2">
         <f t="shared" si="4"/>
-        <v>4.1590413960307205E-12</v>
+        <v>3.6288135643342538E-12</v>
       </c>
       <c r="AC21" s="2">
         <f t="shared" si="5"/>
-        <v>-2.5952503844121858E-12</v>
+        <v>-2.3890380613114652E-12</v>
       </c>
       <c r="AD21" s="2">
         <f t="shared" si="6"/>
@@ -20595,32 +20595,32 @@
       </c>
       <c r="AG21" s="2">
         <f t="shared" si="13"/>
-        <v>3064.4607543945312</v>
+        <v>2735.6948852539062</v>
       </c>
       <c r="AH21" s="2">
-        <v>-3.0294106387827924E-2</v>
+        <v>-3.9243345166673862</v>
       </c>
       <c r="AI21" s="2">
         <f t="shared" si="14"/>
-        <v>3064.605712890625</v>
+        <v>2735.83984375</v>
       </c>
       <c r="AJ21" s="2">
-        <v>3.8353460620328406E-2</v>
+        <v>0.16583622360803929</v>
       </c>
       <c r="AK21" s="2">
         <f t="shared" si="9"/>
-        <v>3064.5332336425781</v>
+        <v>2735.7673645019531</v>
       </c>
       <c r="AL21" s="2">
-        <v>4.0374895947934419E-3</v>
+        <v>-3.8923643002608515</v>
       </c>
       <c r="AM21" s="2">
         <f t="shared" si="10"/>
-        <v>-1.2231213932442078E-4</v>
+        <v>15.274939574957557</v>
       </c>
       <c r="AN21" s="2">
         <f t="shared" si="11"/>
-        <v>1.5485169817889598E-4</v>
+        <v>-0.64549499646200792</v>
       </c>
       <c r="AO21" s="2">
         <f t="shared" si="12"/>
@@ -20642,7 +20642,7 @@
       </c>
       <c r="G22" s="25">
         <f>$C$18 * G19</f>
-        <v>264.18994018670861</v>
+        <v>228.65811138633583</v>
       </c>
       <c r="H22" s="25" t="s">
         <v>101</v>
@@ -20652,7 +20652,7 @@
       </c>
       <c r="K22" s="6">
         <f>$C$55*(0.14*$G$12*1000/745.7)*0.453592</f>
-        <v>24.031110086310061</v>
+        <v>24.156218489910707</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>7</v>
@@ -20668,35 +20668,35 @@
       </c>
       <c r="V22" s="2">
         <f t="shared" si="7"/>
-        <v>5.4584503173828125E-2</v>
+        <v>4.6398162841796875E-2</v>
       </c>
       <c r="W22" s="2">
         <f t="shared" si="0"/>
-        <v>8.8424863136510323E-7</v>
+        <v>7.8732964586825105E-7</v>
       </c>
       <c r="X22" s="2">
         <f t="shared" si="8"/>
-        <v>5.458831787109375E-2</v>
+        <v>4.64019775390625E-2</v>
       </c>
       <c r="Y22" s="2">
         <f t="shared" si="1"/>
-        <v>-2.9349781185475377E-6</v>
+        <v>-3.0343555254760957E-6</v>
       </c>
       <c r="Z22" s="2">
         <f t="shared" si="3"/>
-        <v>5.4586410522460938E-2</v>
+        <v>4.6400070190429688E-2</v>
       </c>
       <c r="AA22" s="2">
         <f t="shared" si="2"/>
-        <v>-1.0253647050664783E-6</v>
+        <v>-1.1235128700298747E-6</v>
       </c>
       <c r="AB22" s="2">
         <f t="shared" si="4"/>
-        <v>-9.0667733710511608E-13</v>
+        <v>-8.845749900890436E-13</v>
       </c>
       <c r="AC22" s="2">
         <f t="shared" si="5"/>
-        <v>3.0094229729010631E-12</v>
+        <v>3.4091374851186568E-12</v>
       </c>
       <c r="AD22" s="2">
         <f t="shared" si="6"/>
@@ -20707,32 +20707,32 @@
       </c>
       <c r="AG22" s="2">
         <f t="shared" si="13"/>
-        <v>3064.4607543945312</v>
+        <v>2735.7673645019531</v>
       </c>
       <c r="AH22" s="2">
-        <v>-3.0294106387827924E-2</v>
+        <v>-3.9243345166673862</v>
       </c>
       <c r="AI22" s="2">
         <f t="shared" si="14"/>
-        <v>3064.5332336425781</v>
+        <v>2735.83984375</v>
       </c>
       <c r="AJ22" s="2">
-        <v>4.0374895947934419E-3</v>
+        <v>0.16583622360803929</v>
       </c>
       <c r="AK22" s="2">
         <f t="shared" si="9"/>
-        <v>3064.4969940185547</v>
+        <v>2735.8036041259766</v>
       </c>
       <c r="AL22" s="2">
-        <v>-1.3120334489030938E-2</v>
+        <v>-3.9083409299537379</v>
       </c>
       <c r="AM22" s="2">
         <f t="shared" si="10"/>
-        <v>3.9746880885459116E-4</v>
+        <v>15.337637214321365</v>
       </c>
       <c r="AN22" s="2">
         <f t="shared" si="11"/>
-        <v>-5.2973213979671942E-5</v>
+        <v>-0.64814450039626026</v>
       </c>
       <c r="AO22" s="2">
         <f t="shared" si="12"/>
@@ -20745,7 +20745,7 @@
       </c>
       <c r="K23" s="6">
         <f xml:space="preserve"> $C$56 * (0.0268 * $C$5)</f>
-        <v>65.703042823851959</v>
+        <v>58.647851330451857</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>7</v>
@@ -20755,7 +20755,7 @@
       </c>
       <c r="O23" s="6">
         <f xml:space="preserve"> ($C$20 * O22 / 8) * (1 + 4.65 *O20^ 2) * ( PI() * $C$47 * O19^3 *$C$9^ 5)</f>
-        <v>17687.902555953682</v>
+        <v>14533.448065703187</v>
       </c>
       <c r="P23" s="6" t="s">
         <v>18</v>
@@ -20765,35 +20765,35 @@
       </c>
       <c r="V23" s="2">
         <f t="shared" si="7"/>
-        <v>5.4584503173828125E-2</v>
+        <v>4.6398162841796875E-2</v>
       </c>
       <c r="W23" s="2">
         <f t="shared" si="0"/>
-        <v>8.8424863136510323E-7</v>
+        <v>7.8732964586825105E-7</v>
       </c>
       <c r="X23" s="2">
         <f t="shared" si="8"/>
-        <v>5.4586410522460938E-2</v>
+        <v>4.6400070190429688E-2</v>
       </c>
       <c r="Y23" s="2">
         <f t="shared" si="1"/>
-        <v>-1.0253647050664783E-6</v>
+        <v>-1.1235128700298747E-6</v>
       </c>
       <c r="Z23" s="2">
         <f t="shared" si="3"/>
-        <v>5.4585456848144531E-2</v>
+        <v>4.6399116516113281E-2</v>
       </c>
       <c r="AA23" s="2">
         <f t="shared" si="2"/>
-        <v>-7.0558027219502772E-8</v>
+        <v>-1.6809159463643253E-7</v>
       </c>
       <c r="AB23" s="2">
         <f t="shared" si="4"/>
-        <v>-6.2390839000667029E-14</v>
+        <v>-1.3234349567853203E-13</v>
       </c>
       <c r="AC23" s="2">
         <f t="shared" si="5"/>
-        <v>7.2347710769998002E-14</v>
+        <v>1.8885306991787659E-13</v>
       </c>
       <c r="AD23" s="2">
         <f t="shared" si="6"/>
@@ -20804,32 +20804,32 @@
       </c>
       <c r="AG23" s="2">
         <f t="shared" si="13"/>
-        <v>3064.4969940185547</v>
+        <v>2735.8036041259766</v>
       </c>
       <c r="AH23" s="2">
-        <v>-1.3120334489030938E-2</v>
+        <v>-3.9243345166673862</v>
       </c>
       <c r="AI23" s="2">
         <f t="shared" si="14"/>
-        <v>3064.5332336425781</v>
+        <v>2735.83984375</v>
       </c>
       <c r="AJ23" s="2">
-        <v>4.0374895947934419E-3</v>
+        <v>0.16583622360803929</v>
       </c>
       <c r="AK23" s="2">
         <f t="shared" si="9"/>
-        <v>3064.5151138305664</v>
+        <v>2735.8217239379883</v>
       </c>
       <c r="AL23" s="2">
-        <v>-4.5494637611227517E-3</v>
+        <v>-3.9163377330105504</v>
       </c>
       <c r="AM23" s="2">
         <f t="shared" si="10"/>
-        <v>5.9690486291655252E-5</v>
+        <v>15.369019344580206</v>
       </c>
       <c r="AN23" s="2">
         <f t="shared" si="11"/>
-        <v>-1.8368412597422947E-5</v>
+        <v>-0.64947066001613929</v>
       </c>
       <c r="AO23" s="2">
         <f t="shared" si="12"/>
@@ -20837,12 +20837,12 @@
       </c>
     </row>
     <row r="24" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="F24" s="28" t="s">
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="F24" s="30" t="s">
         <v>81</v>
       </c>
       <c r="G24" s="31"/>
@@ -20852,7 +20852,7 @@
       </c>
       <c r="K24" s="6">
         <f xml:space="preserve"> $C$56 * (11.5 * ($C$5*2.20462/1000)^0.4 * 0.453592)</f>
-        <v>8.9604741568246169</v>
+        <v>8.5624419596701244</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>7</v>
@@ -20862,42 +20862,42 @@
       </c>
       <c r="O24" s="18">
         <f>Z34</f>
-        <v>5.4585386533290148E-2</v>
+        <v>4.6398948412388563E-2</v>
       </c>
       <c r="U24" s="2">
         <v>20</v>
       </c>
       <c r="V24" s="2">
         <f t="shared" si="7"/>
-        <v>5.4584503173828125E-2</v>
+        <v>4.6398162841796875E-2</v>
       </c>
       <c r="W24" s="2">
         <f t="shared" si="0"/>
-        <v>8.8424863136510323E-7</v>
+        <v>7.8732964586825105E-7</v>
       </c>
       <c r="X24" s="2">
         <f t="shared" si="8"/>
-        <v>5.4585456848144531E-2</v>
+        <v>4.6399116516113281E-2</v>
       </c>
       <c r="Y24" s="2">
         <f t="shared" si="1"/>
-        <v>-7.0558027219502772E-8</v>
+        <v>-1.6809159463643253E-7</v>
       </c>
       <c r="Z24" s="2">
         <f t="shared" si="3"/>
-        <v>5.4584980010986328E-2</v>
+        <v>4.6398639678955078E-2</v>
       </c>
       <c r="AA24" s="2">
         <f t="shared" si="2"/>
-        <v>4.0684530448059641E-7</v>
+        <v>3.0961902997700408E-7</v>
       </c>
       <c r="AB24" s="2">
         <f t="shared" si="4"/>
-        <v>3.597524036642861E-13</v>
+        <v>2.4377224122586605E-13</v>
       </c>
       <c r="AC24" s="2">
         <f t="shared" si="5"/>
-        <v>-2.8706202067668817E-14</v>
+        <v>-5.204435647862002E-14</v>
       </c>
       <c r="AD24" s="2">
         <f t="shared" si="6"/>
@@ -20908,32 +20908,32 @@
       </c>
       <c r="AG24" s="2">
         <f t="shared" si="13"/>
-        <v>3064.5151138305664</v>
+        <v>2735.8217239379883</v>
       </c>
       <c r="AH24" s="2">
-        <v>-4.5494637611227517E-3</v>
+        <v>-3.9243345166673862</v>
       </c>
       <c r="AI24" s="2">
         <f t="shared" si="14"/>
-        <v>3064.5332336425781</v>
+        <v>2735.83984375</v>
       </c>
       <c r="AJ24" s="2">
-        <v>4.0374895947934419E-3</v>
+        <v>0.16583622360803929</v>
       </c>
       <c r="AK24" s="2">
         <f t="shared" si="9"/>
-        <v>3064.5241737365723</v>
+        <v>2735.8307838439941</v>
       </c>
       <c r="AL24" s="2">
-        <v>-2.6401834475109354E-4</v>
+        <v>-3.9203361272607253</v>
       </c>
       <c r="AM24" s="2">
         <f t="shared" si="10"/>
-        <v>1.2011418917167134E-6</v>
+        <v>15.384710381147411</v>
       </c>
       <c r="AN24" s="2">
         <f t="shared" si="11"/>
-        <v>-1.065971319767128E-6</v>
+        <v>-0.65013373861908441</v>
       </c>
       <c r="AO24" s="2">
         <f t="shared" si="12"/>
@@ -20963,7 +20963,7 @@
       </c>
       <c r="K25" s="6">
         <f xml:space="preserve"> $C$56 * (8 * ($C$5/1000))</f>
-        <v>19.612848604134914</v>
+        <v>17.506821292672196</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>7</v>
@@ -20973,7 +20973,7 @@
       </c>
       <c r="O25" s="6">
         <f xml:space="preserve"> O19 * $C$9 * O24 - $C$8 * SIN(O17/180*PI())</f>
-        <v>0.85051509908659639</v>
+        <v>1.1944026818819511</v>
       </c>
       <c r="P25" s="6" t="s">
         <v>10</v>
@@ -20983,35 +20983,35 @@
       </c>
       <c r="V25" s="2">
         <f t="shared" si="7"/>
-        <v>5.4584980010986328E-2</v>
+        <v>4.6398639678955078E-2</v>
       </c>
       <c r="W25" s="2">
         <f t="shared" si="0"/>
-        <v>4.0684530448059641E-7</v>
+        <v>3.0961902997700408E-7</v>
       </c>
       <c r="X25" s="2">
         <f t="shared" si="8"/>
-        <v>5.4585456848144531E-2</v>
+        <v>4.6399116516113281E-2</v>
       </c>
       <c r="Y25" s="2">
         <f t="shared" si="1"/>
-        <v>-7.0558027219502772E-8</v>
+        <v>-1.6809159463643253E-7</v>
       </c>
       <c r="Z25" s="2">
         <f t="shared" si="3"/>
-        <v>5.458521842956543E-2</v>
+        <v>4.639887809753418E-2</v>
       </c>
       <c r="AA25" s="2">
         <f t="shared" si="2"/>
-        <v>1.6814363923423059E-7</v>
+        <v>7.0763718759692118E-8</v>
       </c>
       <c r="AB25" s="2">
         <f t="shared" si="4"/>
-        <v>6.8408450100726099E-14</v>
+        <v>2.1909793959941401E-14</v>
       </c>
       <c r="AC25" s="2">
         <f t="shared" si="5"/>
-        <v>-1.1863883473875097E-14</v>
+        <v>-1.1894786328720684E-14</v>
       </c>
       <c r="AD25" s="2">
         <f t="shared" si="6"/>
@@ -21022,32 +21022,32 @@
       </c>
       <c r="AG25" s="2">
         <f t="shared" si="13"/>
-        <v>3064.5241737365723</v>
+        <v>2735.8307838439941</v>
       </c>
       <c r="AH25" s="2">
-        <v>-2.6401834475109354E-4</v>
+        <v>-3.9243345166673862</v>
       </c>
       <c r="AI25" s="2">
         <f t="shared" si="14"/>
-        <v>3064.5332336425781</v>
+        <v>2735.83984375</v>
       </c>
       <c r="AJ25" s="2">
-        <v>4.0374895947934419E-3</v>
+        <v>0.16583622360803929</v>
       </c>
       <c r="AK25" s="2">
         <f t="shared" si="9"/>
-        <v>3064.5287036895752</v>
+        <v>2735.8353137969971</v>
       </c>
       <c r="AL25" s="2">
-        <v>1.8947626695080544E-3</v>
+        <v>-3.9223353225697792</v>
       </c>
       <c r="AM25" s="2">
         <f t="shared" si="10"/>
-        <v>-5.0025210369967981E-7</v>
+        <v>15.392555892304291</v>
       </c>
       <c r="AN25" s="2">
         <f t="shared" si="11"/>
-        <v>7.6500845627418149E-6</v>
+        <v>-0.65046527761939288</v>
       </c>
       <c r="AO25" s="2">
         <f t="shared" si="12"/>
@@ -21079,7 +21079,7 @@
       </c>
       <c r="K26" s="6">
         <f xml:space="preserve"> $C$56 * (13 * ($C$5*2.20462/1000)^1.3 * 0.453592)</f>
-        <v>56.532931201405511</v>
+        <v>48.771724664340745</v>
       </c>
       <c r="L26" s="6" t="s">
         <v>7</v>
@@ -21089,42 +21089,42 @@
       </c>
       <c r="O26" s="6">
         <f xml:space="preserve"> 1/$C$21 - O23 * SQRT( (2*$C$47*PI()*$C$9^2) / O18^3 )</f>
-        <v>1.022598272961851</v>
+        <v>1.0848318400521417</v>
       </c>
       <c r="U26" s="2">
         <v>22</v>
       </c>
       <c r="V26" s="2">
         <f t="shared" si="7"/>
-        <v>5.458521842956543E-2</v>
+        <v>4.639887809753418E-2</v>
       </c>
       <c r="W26" s="2">
         <f t="shared" si="0"/>
-        <v>1.6814363923423059E-7</v>
+        <v>7.0763718759692118E-8</v>
       </c>
       <c r="X26" s="2">
         <f t="shared" si="8"/>
-        <v>5.4585456848144531E-2</v>
+        <v>4.6399116516113281E-2</v>
       </c>
       <c r="Y26" s="2">
         <f t="shared" si="1"/>
-        <v>-7.0558027219502772E-8</v>
+        <v>-1.6809159463643253E-7</v>
       </c>
       <c r="Z26" s="2">
         <f t="shared" si="3"/>
-        <v>5.458533763885498E-2</v>
+        <v>4.639899730682373E-2</v>
       </c>
       <c r="AA26" s="2">
         <f t="shared" si="2"/>
-        <v>4.8792806156550128E-8</v>
+        <v>-4.8663937664283896E-8</v>
       </c>
       <c r="AB26" s="2">
         <f t="shared" si="4"/>
-        <v>8.2041999956127093E-15</v>
+        <v>-3.4436411986145743E-15</v>
       </c>
       <c r="AC26" s="2">
         <f t="shared" si="5"/>
-        <v>-3.4427241449097864E-15</v>
+        <v>8.1799988832774297E-15</v>
       </c>
       <c r="AD26" s="2">
         <f t="shared" si="6"/>
@@ -21135,32 +21135,32 @@
       </c>
       <c r="AG26" s="2">
         <f t="shared" si="13"/>
-        <v>3064.5241737365723</v>
+        <v>2735.8353137969971</v>
       </c>
       <c r="AH26" s="2">
-        <v>-2.6401834475109354E-4</v>
+        <v>-3.9243345166673862</v>
       </c>
       <c r="AI26" s="2">
         <f t="shared" si="14"/>
-        <v>3064.5287036895752</v>
+        <v>2735.83984375</v>
       </c>
       <c r="AJ26" s="2">
-        <v>1.8947626695080544E-3</v>
+        <v>0.16583622360803929</v>
       </c>
       <c r="AK26" s="2">
         <f t="shared" si="9"/>
-        <v>3064.5264387130737</v>
+        <v>2735.8375787734985</v>
       </c>
       <c r="AL26" s="2">
-        <v>8.2339983828205732E-4</v>
+        <v>-3.9233434368507005</v>
       </c>
       <c r="AM26" s="2">
         <f t="shared" si="10"/>
-        <v>-2.1739266237154688E-7</v>
+        <v>15.396512069973655</v>
       </c>
       <c r="AN26" s="2">
         <f t="shared" si="11"/>
-        <v>1.5601472756558112E-6</v>
+        <v>-0.65063245948470616</v>
       </c>
       <c r="AO26" s="2">
         <f t="shared" si="12"/>
@@ -21192,7 +21192,7 @@
       </c>
       <c r="K27" s="10">
         <f>$C$5 - $C$13 - SUM(K13:K26)</f>
-        <v>-8.1107807664011489E-3</v>
+        <v>-9.96474264866265E-3</v>
       </c>
       <c r="L27" s="10" t="s">
         <v>7</v>
@@ -21208,35 +21208,35 @@
       </c>
       <c r="V27" s="2">
         <f t="shared" si="7"/>
-        <v>5.458533763885498E-2</v>
+        <v>4.639887809753418E-2</v>
       </c>
       <c r="W27" s="2">
         <f t="shared" si="0"/>
-        <v>4.8792806156550128E-8</v>
+        <v>7.0763718759692118E-8</v>
       </c>
       <c r="X27" s="2">
         <f t="shared" si="8"/>
-        <v>5.4585456848144531E-2</v>
+        <v>4.639899730682373E-2</v>
       </c>
       <c r="Y27" s="2">
         <f t="shared" si="1"/>
-        <v>-7.0558027219502772E-8</v>
+        <v>-4.8663937664283896E-8</v>
       </c>
       <c r="Z27" s="2">
         <f t="shared" si="3"/>
-        <v>5.4585397243499756E-2</v>
+        <v>4.6398937702178955E-2</v>
       </c>
       <c r="AA27" s="2">
         <f t="shared" si="2"/>
-        <v>-1.0882610493312406E-8</v>
+        <v>1.1049890613623603E-8</v>
       </c>
       <c r="AB27" s="2">
         <f t="shared" si="4"/>
-        <v>-5.3099310427743054E-16</v>
+        <v>7.8193135170782245E-16</v>
       </c>
       <c r="AC27" s="2">
         <f t="shared" si="5"/>
-        <v>7.6785552740638325E-16</v>
+        <v>-5.3773118801853479E-16</v>
       </c>
       <c r="AD27" s="2">
         <f t="shared" si="6"/>
@@ -21247,32 +21247,32 @@
       </c>
       <c r="AG27" s="2">
         <f t="shared" si="13"/>
-        <v>3064.5241737365723</v>
+        <v>2735.8375787734985</v>
       </c>
       <c r="AH27" s="2">
-        <v>-2.6401834475109354E-4</v>
+        <v>-3.9243345166673862</v>
       </c>
       <c r="AI27" s="2">
         <f t="shared" si="14"/>
-        <v>3064.5264387130737</v>
+        <v>2735.83984375</v>
       </c>
       <c r="AJ27" s="2">
-        <v>8.2339983828205732E-4</v>
+        <v>0.16583622360803929</v>
       </c>
       <c r="AK27" s="2">
         <f t="shared" si="9"/>
-        <v>3064.525306224823</v>
+        <v>2735.8387112617493</v>
       </c>
       <c r="AL27" s="2">
-        <v>2.7969069105893141E-4</v>
+        <v>-3.9238389767951958</v>
       </c>
       <c r="AM27" s="2">
         <f t="shared" si="10"/>
-        <v>-7.3843473295668553E-8</v>
+        <v>15.398456734482226</v>
       </c>
       <c r="AN27" s="2">
         <f t="shared" si="11"/>
-        <v>2.3029726978692096E-7</v>
+        <v>-0.6507146379577482</v>
       </c>
       <c r="AO27" s="2">
         <f t="shared" si="12"/>
@@ -21285,7 +21285,7 @@
       </c>
       <c r="G28" s="6">
         <f xml:space="preserve"> $C$5 * $C$44 / $C$18</f>
-        <v>7509.1860488797429</v>
+        <v>6702.8497932446771</v>
       </c>
       <c r="H28" t="s">
         <v>20</v>
@@ -21302,42 +21302,42 @@
       </c>
       <c r="O28" s="6">
         <f xml:space="preserve"> 1/$C$53 * LN( EXP($C$53 * O26) + EXP($C$53 * O27) )</f>
-        <v>1.1507215620743692</v>
+        <v>1.1544131371422173</v>
       </c>
       <c r="U28" s="2">
         <v>24</v>
       </c>
       <c r="V28" s="2">
         <f t="shared" si="7"/>
-        <v>5.458533763885498E-2</v>
+        <v>4.6398937702178955E-2</v>
       </c>
       <c r="W28" s="2">
         <f t="shared" si="0"/>
-        <v>4.8792806156550128E-8</v>
+        <v>1.1049890613623603E-8</v>
       </c>
       <c r="X28" s="2">
         <f t="shared" si="8"/>
-        <v>5.4585397243499756E-2</v>
+        <v>4.639899730682373E-2</v>
       </c>
       <c r="Y28" s="2">
         <f t="shared" si="1"/>
-        <v>-1.0882610493312406E-8</v>
+        <v>-4.8663937664283896E-8</v>
       </c>
       <c r="Z28" s="2">
         <f t="shared" si="3"/>
-        <v>5.4585367441177368E-2</v>
+        <v>4.6398967504501343E-2</v>
       </c>
       <c r="AA28" s="2">
         <f t="shared" si="2"/>
-        <v>1.8955097838557755E-8</v>
+        <v>-1.8807023507982912E-8</v>
       </c>
       <c r="AB28" s="2">
         <f t="shared" si="4"/>
-        <v>9.2487241451519088E-16</v>
+        <v>-2.0781555253105881E-16</v>
       </c>
       <c r="AC28" s="2">
         <f t="shared" si="5"/>
-        <v>-2.0628094663965193E-16</v>
+        <v>9.1522381964320217E-16</v>
       </c>
       <c r="AD28" s="2">
         <f t="shared" si="6"/>
@@ -21348,32 +21348,32 @@
       </c>
       <c r="AG28" s="2">
         <f t="shared" si="13"/>
-        <v>3064.5241737365723</v>
+        <v>2735.8387112617493</v>
       </c>
       <c r="AH28" s="2">
-        <v>-2.6401834475109354E-4</v>
+        <v>-3.9243345166673862</v>
       </c>
       <c r="AI28" s="2">
         <f t="shared" si="14"/>
-        <v>3064.525306224823</v>
+        <v>2735.83984375</v>
       </c>
       <c r="AJ28" s="2">
-        <v>2.7969069105893141E-4</v>
+        <v>0.16583622360803929</v>
       </c>
       <c r="AK28" s="2">
         <f t="shared" si="9"/>
-        <v>3064.5247399806976</v>
+        <v>2735.8392775058746</v>
       </c>
       <c r="AL28" s="2">
-        <v>1.5864045963098761E-5</v>
+        <v>-3.9240867467378848</v>
       </c>
       <c r="AM28" s="2">
         <f t="shared" si="10"/>
-        <v>-4.1883991562326023E-9</v>
+        <v>15.399429066620513</v>
       </c>
       <c r="AN28" s="2">
         <f t="shared" si="11"/>
-        <v>4.4370259784097434E-9</v>
+        <v>-0.65075572718936736</v>
       </c>
       <c r="AO28" s="2">
         <f t="shared" si="12"/>
@@ -21381,17 +21381,17 @@
       </c>
     </row>
     <row r="29" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
       <c r="F29" t="s">
         <v>97</v>
       </c>
       <c r="G29" s="6">
         <f>G31/$C$18</f>
-        <v>74.390506005049943</v>
+        <v>76.456018031128352</v>
       </c>
       <c r="H29" t="s">
         <v>18</v>
@@ -21401,35 +21401,35 @@
       </c>
       <c r="V29" s="2">
         <f t="shared" si="7"/>
-        <v>5.4585367441177368E-2</v>
+        <v>4.6398937702178955E-2</v>
       </c>
       <c r="W29" s="2">
         <f t="shared" si="0"/>
-        <v>1.8955097838557755E-8</v>
+        <v>1.1049890613623603E-8</v>
       </c>
       <c r="X29" s="2">
         <f t="shared" si="8"/>
-        <v>5.4585397243499756E-2</v>
+        <v>4.6398967504501343E-2</v>
       </c>
       <c r="Y29" s="2">
         <f t="shared" si="1"/>
-        <v>-1.0882610493312406E-8</v>
+        <v>-1.8807023507982912E-8</v>
       </c>
       <c r="Z29" s="2">
         <f t="shared" si="3"/>
-        <v>5.4585382342338562E-2</v>
+        <v>4.6398952603340149E-2</v>
       </c>
       <c r="AA29" s="2">
         <f t="shared" si="2"/>
-        <v>4.0362436726226747E-9</v>
+        <v>-3.8785664402407605E-9</v>
       </c>
       <c r="AB29" s="2">
         <f t="shared" si="4"/>
-        <v>7.6507393714822472E-17</v>
+        <v>-4.2857734902331892E-17</v>
       </c>
       <c r="AC29" s="2">
         <f t="shared" si="5"/>
-        <v>-4.3924867745249324E-17</v>
+        <v>7.2944290218881587E-17</v>
       </c>
       <c r="AD29" s="2">
         <f t="shared" si="6"/>
@@ -21440,32 +21440,32 @@
       </c>
       <c r="AG29" s="2">
         <f t="shared" si="13"/>
-        <v>3064.5241737365723</v>
+        <v>2735.8392775058746</v>
       </c>
       <c r="AH29" s="2">
-        <v>-2.6401834475109354E-4</v>
+        <v>-3.9243345166673862</v>
       </c>
       <c r="AI29" s="2">
         <f t="shared" si="14"/>
-        <v>3064.5247399806976</v>
+        <v>2735.83984375</v>
       </c>
       <c r="AJ29" s="2">
-        <v>1.5864045963098761E-5</v>
+        <v>0.16583622360803929</v>
       </c>
       <c r="AK29" s="2">
         <f t="shared" si="9"/>
-        <v>3064.5244568586349</v>
+        <v>2735.8395606279373</v>
       </c>
       <c r="AL29" s="2">
-        <v>-1.240771539414709E-4</v>
+        <v>-3.9242106317051366</v>
       </c>
       <c r="AM29" s="2">
         <f t="shared" si="10"/>
-        <v>3.2758644805053771E-8</v>
+        <v>15.399915232673596</v>
       </c>
       <c r="AN29" s="2">
         <f t="shared" si="11"/>
-        <v>-1.9683656730979749E-9</v>
+        <v>-0.65077627180449815</v>
       </c>
       <c r="AO29" s="2">
         <f t="shared" si="12"/>
@@ -21484,50 +21484,50 @@
       </c>
       <c r="G30" s="6">
         <f xml:space="preserve"> (G28/$C$44*1000) / (G29*1000)</f>
-        <v>10.298718744392087</v>
+        <v>8.9444915437079171</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="J30" s="32" t="s">
+      <c r="J30" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
       <c r="U30" s="2">
         <v>26</v>
       </c>
       <c r="V30" s="2">
         <f t="shared" si="7"/>
-        <v>5.4585382342338562E-2</v>
+        <v>4.6398937702178955E-2</v>
       </c>
       <c r="W30" s="2">
         <f t="shared" si="0"/>
-        <v>4.0362436726226747E-9</v>
+        <v>1.1049890613623603E-8</v>
       </c>
       <c r="X30" s="2">
         <f t="shared" si="8"/>
-        <v>5.4585397243499756E-2</v>
+        <v>4.6398952603340149E-2</v>
       </c>
       <c r="Y30" s="2">
         <f t="shared" si="1"/>
-        <v>-1.0882610493312406E-8</v>
+        <v>-3.8785664402407605E-9</v>
       </c>
       <c r="Z30" s="2">
         <f t="shared" si="3"/>
-        <v>5.4585389792919159E-2</v>
+        <v>4.6398945152759552E-2</v>
       </c>
       <c r="AA30" s="2">
         <f t="shared" si="2"/>
-        <v>-3.4231834103448655E-9</v>
+        <v>3.5856620866914213E-9</v>
       </c>
       <c r="AB30" s="2">
         <f t="shared" si="4"/>
-        <v>-1.3816802380231373E-17</v>
+        <v>3.9621173835357556E-17</v>
       </c>
       <c r="AC30" s="2">
         <f t="shared" si="5"/>
-        <v>3.7253171701951981E-17</v>
+        <v>-1.3907228635485004E-17</v>
       </c>
       <c r="AD30" s="2">
         <f t="shared" si="6"/>
@@ -21538,32 +21538,32 @@
       </c>
       <c r="AG30" s="2">
         <f t="shared" si="13"/>
-        <v>3064.5244568586349</v>
+        <v>2735.8395606279373</v>
       </c>
       <c r="AH30" s="2">
-        <v>-1.240771539414709E-4</v>
+        <v>-3.9243345166673862</v>
       </c>
       <c r="AI30" s="2">
         <f t="shared" si="14"/>
-        <v>3064.5247399806976</v>
+        <v>2735.83984375</v>
       </c>
       <c r="AJ30" s="2">
-        <v>1.5864045963098761E-5</v>
+        <v>0.16583622360803929</v>
       </c>
       <c r="AK30" s="2">
         <f t="shared" si="9"/>
-        <v>3064.5245984196663</v>
+        <v>2735.8397021889687</v>
       </c>
       <c r="AL30" s="2">
-        <v>-6.2134439303918043E-5</v>
+        <v>-3.9242725741887625</v>
       </c>
       <c r="AM30" s="2">
         <f t="shared" si="10"/>
-        <v>7.709464390579219E-9</v>
+        <v>15.400158315700137</v>
       </c>
       <c r="AN30" s="2">
         <f t="shared" si="11"/>
-        <v>-9.85703601008726E-10</v>
+        <v>-0.6507865441120636</v>
       </c>
       <c r="AO30" s="2">
         <f t="shared" si="12"/>
@@ -21583,7 +21583,7 @@
       </c>
       <c r="G31" s="25">
         <f xml:space="preserve"> 1/1000 * IF($G$25&gt;= 2*SQRT(($C$5*$C$44)/(2*$C$41*$C$18*PI()*$C$9*$C$9)), ($C$5*$C$44)/$C$21 * ( ($G$25/2) - SQRT( ($G$25/2)^2 - ($C$5*$C$44)/(2*$C$41*$C$18*PI()*$C$9*$C$9 ) ) ), 1/$C$21 * SQRT(($C$5*$C$44)^3/(2*$C$41*$C$18*PI()*$C$9*$C$9)) )</f>
-        <v>297.56202402019977</v>
+        <v>305.82407212451341</v>
       </c>
       <c r="H31" s="24" t="s">
         <v>101</v>
@@ -21603,35 +21603,35 @@
       </c>
       <c r="V31" s="2">
         <f t="shared" si="7"/>
-        <v>5.4585382342338562E-2</v>
+        <v>4.6398945152759552E-2</v>
       </c>
       <c r="W31" s="2">
         <f t="shared" si="0"/>
-        <v>4.0362436726226747E-9</v>
+        <v>3.5856620866914213E-9</v>
       </c>
       <c r="X31" s="2">
         <f t="shared" si="8"/>
-        <v>5.4585389792919159E-2</v>
+        <v>4.6398952603340149E-2</v>
       </c>
       <c r="Y31" s="2">
         <f t="shared" si="1"/>
-        <v>-3.4231834103448655E-9</v>
+        <v>-3.8785664402407605E-9</v>
       </c>
       <c r="Z31" s="2">
         <f t="shared" si="3"/>
-        <v>5.458538606762886E-2</v>
+        <v>4.639894887804985E-2</v>
       </c>
       <c r="AA31" s="2">
         <f t="shared" si="2"/>
-        <v>3.0653013460835155E-10</v>
+        <v>-1.464521767746696E-10</v>
       </c>
       <c r="AB31" s="2">
         <f t="shared" si="4"/>
-        <v>1.2372303162811357E-18</v>
+        <v>-5.2512801777436269E-19</v>
       </c>
       <c r="AC31" s="2">
         <f t="shared" si="5"/>
-        <v>-1.0493088715620875E-18</v>
+        <v>5.6802449793844083E-19</v>
       </c>
       <c r="AD31" s="2">
         <f t="shared" si="6"/>
@@ -21642,32 +21642,32 @@
       </c>
       <c r="AG31" s="2">
         <f t="shared" si="13"/>
-        <v>3064.5245984196663</v>
+        <v>2735.8397021889687</v>
       </c>
       <c r="AH31" s="2">
-        <v>-6.2134439303918043E-5</v>
+        <v>-3.9243345166673862</v>
       </c>
       <c r="AI31" s="2">
         <f t="shared" si="14"/>
-        <v>3064.5247399806976</v>
+        <v>2735.83984375</v>
       </c>
       <c r="AJ31" s="2">
-        <v>1.5864045963098761E-5</v>
+        <v>0.16583622360803929</v>
       </c>
       <c r="AK31" s="2">
         <f t="shared" si="9"/>
-        <v>3064.524669200182</v>
+        <v>2735.8397729694843</v>
       </c>
       <c r="AL31" s="2">
-        <v>-2.3135197807278018E-5</v>
+        <v>-3.9243120625001211</v>
       </c>
       <c r="AM31" s="2">
         <f t="shared" si="10"/>
-        <v>1.4374925439404538E-9</v>
+        <v>15.400313281043406</v>
       </c>
       <c r="AN31" s="2">
         <f t="shared" si="11"/>
-        <v>-3.6701784138004015E-10</v>
+        <v>-0.65079309270449592</v>
       </c>
       <c r="AO31" s="2">
         <f t="shared" si="12"/>
@@ -21689,7 +21689,7 @@
       </c>
       <c r="K32" s="6">
         <f>ROUND(K13,2)</f>
-        <v>1306.05</v>
+        <v>1188.17</v>
       </c>
       <c r="L32" s="6" t="s">
         <v>7</v>
@@ -21699,35 +21699,35 @@
       </c>
       <c r="V32" s="2">
         <f t="shared" si="7"/>
-        <v>5.458538606762886E-2</v>
+        <v>4.6398945152759552E-2</v>
       </c>
       <c r="W32" s="2">
         <f t="shared" si="0"/>
-        <v>3.0653013460835155E-10</v>
+        <v>3.5856620866914213E-9</v>
       </c>
       <c r="X32" s="2">
         <f t="shared" si="8"/>
-        <v>5.4585389792919159E-2</v>
+        <v>4.639894887804985E-2</v>
       </c>
       <c r="Y32" s="2">
         <f t="shared" si="1"/>
-        <v>-3.4231834103448655E-9</v>
+        <v>-1.464521767746696E-10</v>
       </c>
       <c r="Z32" s="2">
         <f t="shared" si="3"/>
-        <v>5.458538793027401E-2</v>
+        <v>4.6398947015404701E-2</v>
       </c>
       <c r="AA32" s="2">
         <f t="shared" si="2"/>
-        <v>-1.5583266413377039E-9</v>
+        <v>1.7196049584278228E-9</v>
       </c>
       <c r="AB32" s="2">
         <f t="shared" si="4"/>
-        <v>-4.7767407513302675E-19</v>
+        <v>6.1659223035212218E-18</v>
       </c>
       <c r="AC32" s="2">
         <f t="shared" si="5"/>
-        <v>5.3344379065256618E-18</v>
+        <v>-2.5183988935426987E-19</v>
       </c>
       <c r="AD32" s="2">
         <f t="shared" si="6"/>
@@ -21738,32 +21738,32 @@
       </c>
       <c r="AG32" s="2">
         <f t="shared" si="13"/>
-        <v>3064.524669200182</v>
+        <v>2735.8397729694843</v>
       </c>
       <c r="AH32" s="2">
-        <v>-2.3135197807278018E-5</v>
+        <v>-3.9243345166673862</v>
       </c>
       <c r="AI32" s="2">
         <f t="shared" si="14"/>
-        <v>3064.5247399806976</v>
+        <v>2735.83984375</v>
       </c>
       <c r="AJ32" s="2">
-        <v>1.5864045963098761E-5</v>
+        <v>0.16583622360803929</v>
       </c>
       <c r="AK32" s="2">
         <f t="shared" si="9"/>
-        <v>3064.5247045904398</v>
+        <v>2735.8398083597422</v>
       </c>
       <c r="AL32" s="2">
-        <v>-1.1663462373689981E-5</v>
+        <v>-3.9243232895828442</v>
       </c>
       <c r="AM32" s="2">
         <f t="shared" si="10"/>
-        <v>2.6983650913306212E-10</v>
+        <v>15.400357339871658</v>
       </c>
       <c r="AN32" s="2">
         <f t="shared" si="11"/>
-        <v>-1.8502970318509083E-10</v>
+        <v>-0.65079495456149683</v>
       </c>
       <c r="AO32" s="2">
         <f t="shared" si="12"/>
@@ -21779,7 +21779,7 @@
         <v>0.80011066800000008</v>
       </c>
       <c r="D33"/>
-      <c r="F33" s="28" t="s">
+      <c r="F33" s="30" t="s">
         <v>156</v>
       </c>
       <c r="G33" s="31"/>
@@ -21789,7 +21789,7 @@
       </c>
       <c r="K33" s="6">
         <f>ROUND(SUM(K14:K17),2)</f>
-        <v>811.06</v>
+        <v>623</v>
       </c>
       <c r="L33" s="6" t="s">
         <v>7</v>
@@ -21799,35 +21799,35 @@
       </c>
       <c r="V33" s="2">
         <f t="shared" si="7"/>
-        <v>5.458538606762886E-2</v>
+        <v>4.6398947015404701E-2</v>
       </c>
       <c r="W33" s="2">
         <f t="shared" si="0"/>
-        <v>3.0653013460835155E-10</v>
+        <v>1.7196049584278228E-9</v>
       </c>
       <c r="X33" s="2">
         <f t="shared" si="8"/>
-        <v>5.458538793027401E-2</v>
+        <v>4.639894887804985E-2</v>
       </c>
       <c r="Y33" s="2">
         <f t="shared" si="1"/>
-        <v>-1.5583266413377039E-9</v>
+        <v>-1.464521767746696E-10</v>
       </c>
       <c r="Z33" s="2">
         <f t="shared" si="3"/>
-        <v>5.4585386998951435E-2</v>
+        <v>4.6398947946727276E-2</v>
       </c>
       <c r="AA33" s="2">
         <f t="shared" si="2"/>
-        <v>-6.2589824989522924E-10</v>
+        <v>7.8657639429602355E-10</v>
       </c>
       <c r="AB33" s="2">
         <f t="shared" si="4"/>
-        <v>-1.9185667479151627E-19</v>
+        <v>1.3526006678137203E-18</v>
       </c>
       <c r="AC33" s="2">
         <f t="shared" si="5"/>
-        <v>9.7535391757837949E-19</v>
+        <v>-1.1519582514422345E-19</v>
       </c>
       <c r="AD33" s="2">
         <f t="shared" si="6"/>
@@ -21838,32 +21838,32 @@
       </c>
       <c r="AG33" s="2">
         <f t="shared" si="13"/>
-        <v>3064.5247045904398</v>
+        <v>2735.8398083597422</v>
       </c>
       <c r="AH33" s="2">
-        <v>-1.1663462373689981E-5</v>
+        <v>-3.9243345166673862</v>
       </c>
       <c r="AI33" s="2">
         <f t="shared" si="14"/>
-        <v>3064.5247399806976</v>
+        <v>2735.83984375</v>
       </c>
       <c r="AJ33" s="2">
-        <v>1.5864045963098761E-5</v>
+        <v>0.16583622360803929</v>
       </c>
       <c r="AK33" s="2">
         <f t="shared" si="9"/>
-        <v>3064.5247222855687</v>
+        <v>2735.8398260548711</v>
       </c>
       <c r="AL33" s="2">
-        <v>1.0128178473678418E-5</v>
+        <v>-3.9243289031260247</v>
       </c>
       <c r="AM33" s="2">
         <f t="shared" si="10"/>
-        <v>-1.1812962854176505E-10</v>
+        <v>15.400379369292923</v>
       </c>
       <c r="AN33" s="2">
         <f t="shared" si="11"/>
-        <v>1.6067388882890187E-10</v>
+        <v>-0.65079588549029899</v>
       </c>
       <c r="AO33" s="2">
         <f t="shared" si="12"/>
@@ -21886,7 +21886,7 @@
       </c>
       <c r="K34" s="6">
         <f>ROUND(SUM(K18:K22),2)</f>
-        <v>196.6</v>
+        <v>190.8</v>
       </c>
       <c r="L34" s="6" t="s">
         <v>7</v>
@@ -21896,35 +21896,35 @@
       </c>
       <c r="V34" s="2">
         <f t="shared" si="7"/>
-        <v>5.458538606762886E-2</v>
+        <v>4.6398947946727276E-2</v>
       </c>
       <c r="W34" s="2">
         <f t="shared" si="0"/>
-        <v>3.0653013460835155E-10</v>
+        <v>7.8657639429602355E-10</v>
       </c>
       <c r="X34" s="2">
         <f t="shared" si="8"/>
-        <v>5.4585386998951435E-2</v>
+        <v>4.639894887804985E-2</v>
       </c>
       <c r="Y34" s="2">
         <f t="shared" si="1"/>
-        <v>-6.2589824989522924E-10</v>
+        <v>-1.464521767746696E-10</v>
       </c>
       <c r="Z34" s="2">
         <f t="shared" si="3"/>
-        <v>5.4585386533290148E-2</v>
+        <v>4.6398948412388563E-2</v>
       </c>
       <c r="AA34" s="2">
         <f t="shared" si="2"/>
-        <v>-1.5968405764343885E-10</v>
+        <v>3.2006210876067698E-10</v>
       </c>
       <c r="AB34" s="2">
         <f t="shared" si="4"/>
-        <v>-4.8947975684251078E-20</v>
+        <v>2.5175329945975503E-19</v>
       </c>
       <c r="AC34" s="2">
         <f t="shared" si="5"/>
-        <v>9.9945972215197279E-20</v>
+        <v>-4.6873792531092191E-20</v>
       </c>
       <c r="AD34" s="2">
         <f>X34-V34</f>
@@ -21935,32 +21935,32 @@
       </c>
       <c r="AG34" s="2">
         <f t="shared" si="13"/>
-        <v>3064.5247045904398</v>
+        <v>2735.8398260548711</v>
       </c>
       <c r="AH34" s="2">
-        <v>-1.1663462373689981E-5</v>
+        <v>-3.9243345166673862</v>
       </c>
       <c r="AI34" s="2">
         <f t="shared" si="14"/>
-        <v>3064.5247222855687</v>
+        <v>2735.83984375</v>
       </c>
       <c r="AJ34" s="2">
-        <v>1.0128178473678418E-5</v>
+        <v>0.16583622360803929</v>
       </c>
       <c r="AK34" s="2">
         <f t="shared" si="9"/>
-        <v>3064.5247134380043</v>
+        <v>2735.8398349024355</v>
       </c>
       <c r="AL34" s="2">
-        <v>7.2602438194735441E-6</v>
+        <v>-3.9243317098953412</v>
       </c>
       <c r="AM34" s="2">
         <f t="shared" si="10"/>
-        <v>-8.4679580612244918E-11</v>
+        <v>15.400390383994631</v>
       </c>
       <c r="AN34" s="2">
         <f t="shared" si="11"/>
-        <v>7.3533045166048724E-11</v>
+        <v>-0.65079635095432298</v>
       </c>
       <c r="AO34" s="2">
         <f t="shared" si="12"/>
@@ -21968,17 +21968,17 @@
       </c>
     </row>
     <row r="35" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
       <c r="F35" s="26" t="s">
         <v>132</v>
       </c>
       <c r="G35" s="25">
         <f xml:space="preserve"> G22</f>
-        <v>264.18994018670861</v>
+        <v>228.65811138633583</v>
       </c>
       <c r="H35" s="25" t="s">
         <v>101</v>
@@ -21988,7 +21988,7 @@
       </c>
       <c r="K35" s="6">
         <f>ROUND(SUM(K23:K26),2)</f>
-        <v>150.81</v>
+        <v>133.49</v>
       </c>
       <c r="L35" s="6" t="s">
         <v>7</v>
@@ -21998,32 +21998,32 @@
       </c>
       <c r="AG35" s="2">
         <f t="shared" si="13"/>
-        <v>3064.5247045904398</v>
+        <v>2735.8398349024355</v>
       </c>
       <c r="AH35" s="2">
-        <v>-1.1663462373689981E-5</v>
+        <v>-3.9243345166673862</v>
       </c>
       <c r="AI35" s="2">
         <f t="shared" si="14"/>
-        <v>3064.5247134380043</v>
+        <v>2735.83984375</v>
       </c>
       <c r="AJ35" s="2">
-        <v>7.2602438194735441E-6</v>
+        <v>0.16583622360803929</v>
       </c>
       <c r="AK35" s="2">
         <f t="shared" si="9"/>
-        <v>3064.524709014222</v>
+        <v>2735.8398393262178</v>
       </c>
       <c r="AL35" s="2">
-        <v>-1.0229493000224466E-5</v>
+        <v>-3.9243331132806816</v>
       </c>
       <c r="AM35" s="2">
         <f t="shared" si="10"/>
-        <v>1.1931130671004309E-10</v>
+        <v>15.400395891348163</v>
       </c>
       <c r="AN35" s="2">
         <f t="shared" si="11"/>
-        <v>-7.4268613331227558E-11</v>
+        <v>-0.6507965836864481</v>
       </c>
       <c r="AO35" s="2">
         <f t="shared" si="12"/>
@@ -22045,7 +22045,7 @@
       </c>
       <c r="K36" s="10">
         <f>SUM(K31:K35)</f>
-        <v>3064.5199999999995</v>
+        <v>2735.46</v>
       </c>
       <c r="L36" s="6" t="s">
         <v>7</v>
@@ -22055,32 +22055,32 @@
       </c>
       <c r="AG36" s="2">
         <f t="shared" si="13"/>
-        <v>3064.524709014222</v>
+        <v>2735.8398393262178</v>
       </c>
       <c r="AH36" s="2">
-        <v>-1.0229493000224466E-5</v>
+        <v>-3.9243345166673862</v>
       </c>
       <c r="AI36" s="2">
         <f t="shared" si="14"/>
-        <v>3064.5247134380043</v>
+        <v>2735.83984375</v>
       </c>
       <c r="AJ36" s="2">
-        <v>7.2602438194735441E-6</v>
+        <v>0.16583622360803929</v>
       </c>
       <c r="AK36" s="2">
         <f t="shared" si="9"/>
-        <v>3064.5247112261131</v>
+        <v>2735.8398415381089</v>
       </c>
       <c r="AL36" s="2">
-        <v>-9.5125119514705148E-6</v>
+        <v>-3.9243338149731244</v>
       </c>
       <c r="AM36" s="2">
         <f t="shared" si="10"/>
-        <v>9.7308174422119201E-11</v>
+        <v>15.400398645024035</v>
       </c>
       <c r="AN36" s="2">
         <f t="shared" si="11"/>
-        <v>-6.9063156103332027E-11</v>
+        <v>-0.65079670005247292</v>
       </c>
       <c r="AO36" s="2">
         <f t="shared" si="12"/>
@@ -22099,32 +22099,32 @@
       </c>
       <c r="AG37" s="2">
         <f t="shared" si="13"/>
-        <v>3064.5247112261131</v>
+        <v>2735.8398415381089</v>
       </c>
       <c r="AH37" s="2">
-        <v>-9.5125119514705148E-6</v>
+        <v>-3.9243345166673862</v>
       </c>
       <c r="AI37" s="2">
         <f t="shared" si="14"/>
-        <v>3064.5247134380043</v>
+        <v>2735.83984375</v>
       </c>
       <c r="AJ37" s="2">
-        <v>7.2602438194735441E-6</v>
+        <v>0.16583622360803929</v>
       </c>
       <c r="AK37" s="2">
         <f t="shared" si="9"/>
-        <v>3064.5247123320587</v>
+        <v>2735.8398426440544</v>
       </c>
       <c r="AL37" s="2">
-        <v>6.9017519308545161E-6</v>
+        <v>-3.9243341658193458</v>
       </c>
       <c r="AM37" s="2">
         <f t="shared" si="10"/>
-        <v>-6.5652997728338286E-11</v>
+        <v>15.400400021861973</v>
       </c>
       <c r="AN37" s="2">
         <f t="shared" si="11"/>
-        <v>5.01084017995261E-11</v>
+        <v>-0.65079675823548533</v>
       </c>
       <c r="AO37" s="2">
         <f t="shared" si="12"/>
@@ -22138,42 +22138,42 @@
       <c r="C38" s="17">
         <v>0.8</v>
       </c>
-      <c r="J38" s="32" t="s">
+      <c r="J38" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
       <c r="AF38" s="2">
         <v>34</v>
       </c>
       <c r="AG38" s="2">
         <f t="shared" si="13"/>
-        <v>3064.5247112261131</v>
+        <v>2735.8398426440544</v>
       </c>
       <c r="AH38" s="2">
-        <v>-9.5125119514705148E-6</v>
+        <v>-3.9243345166673862</v>
       </c>
       <c r="AI38" s="2">
         <f t="shared" si="14"/>
-        <v>3064.5247123320587</v>
+        <v>2735.83984375</v>
       </c>
       <c r="AJ38" s="2">
-        <v>6.9017519308545161E-6</v>
+        <v>0.16583622360803929</v>
       </c>
       <c r="AK38" s="2">
         <f t="shared" si="9"/>
-        <v>3064.5247117790859</v>
+        <v>2735.8398431970272</v>
       </c>
       <c r="AL38" s="2">
-        <v>-9.3332664619083516E-6</v>
+        <v>-3.9243343412426839</v>
       </c>
       <c r="AM38" s="2">
         <f t="shared" si="10"/>
-        <v>8.8782808765162121E-11</v>
+        <v>15.400400710281833</v>
       </c>
       <c r="AN38" s="2">
         <f t="shared" si="11"/>
-        <v>-6.4415889824655664E-11</v>
+        <v>-0.65079678732702928</v>
       </c>
       <c r="AO38" s="2">
         <f t="shared" si="12"/>
@@ -22186,7 +22186,7 @@
       </c>
       <c r="K39" s="6">
         <f>ROUND($C$13/$C$5 * 100, 2)</f>
-        <v>19.579999999999998</v>
+        <v>21.93</v>
       </c>
       <c r="L39" s="6" t="s">
         <v>58</v>
@@ -22196,32 +22196,32 @@
       </c>
       <c r="AG39" s="2">
         <f t="shared" si="13"/>
-        <v>3064.5247117790859</v>
+        <v>2735.8398431970272</v>
       </c>
       <c r="AH39" s="2">
-        <v>-9.3332664619083516E-6</v>
+        <v>-3.9243345166673862</v>
       </c>
       <c r="AI39" s="2">
         <f t="shared" si="14"/>
-        <v>3064.5247123320587</v>
+        <v>2735.83984375</v>
       </c>
       <c r="AJ39" s="2">
-        <v>6.9017519308545161E-6</v>
+        <v>0.16583622360803929</v>
       </c>
       <c r="AK39" s="2">
         <f t="shared" si="9"/>
-        <v>3064.5247120555723</v>
+        <v>2735.8398434735136</v>
       </c>
       <c r="AL39" s="2">
-        <v>-9.2436434897535946E-6</v>
+        <v>-3.9243344289548077</v>
       </c>
       <c r="AM39" s="2">
         <f t="shared" si="10"/>
-        <v>8.62733877687547E-11</v>
+        <v>15.400401054493548</v>
       </c>
       <c r="AN39" s="2">
         <f t="shared" si="11"/>
-        <v>-6.3797334303537649E-11</v>
+        <v>-0.6507968018728767</v>
       </c>
       <c r="AO39" s="2">
         <f t="shared" si="12"/>
@@ -22229,17 +22229,17 @@
       </c>
     </row>
     <row r="40" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
       <c r="J40" s="11" t="s">
         <v>52</v>
       </c>
       <c r="K40" s="6">
         <f>ROUND(K13/$C$5 * 100, 2)</f>
-        <v>42.62</v>
+        <v>43.44</v>
       </c>
       <c r="L40" s="6" t="s">
         <v>58</v>
@@ -22249,32 +22249,32 @@
       </c>
       <c r="AG40" s="2">
         <f t="shared" si="13"/>
-        <v>3064.5247120555723</v>
+        <v>2735.8398434735136</v>
       </c>
       <c r="AH40" s="2">
-        <v>-9.2436434897535946E-6</v>
+        <v>-3.9243345166673862</v>
       </c>
       <c r="AI40" s="2">
         <f t="shared" si="14"/>
-        <v>3064.5247123320587</v>
+        <v>2735.83984375</v>
       </c>
       <c r="AJ40" s="2">
-        <v>6.9017519308545161E-6</v>
+        <v>0.16583622360803929</v>
       </c>
       <c r="AK40" s="2">
         <f t="shared" si="9"/>
-        <v>3064.5247121938155</v>
+        <v>2735.8398436117568</v>
       </c>
       <c r="AL40" s="2">
-        <v>6.8569424911402166E-6</v>
+        <v>-3.9243344728101874</v>
       </c>
       <c r="AM40" s="2">
         <f t="shared" si="10"/>
-        <v>-6.3383131817843058E-11</v>
+        <v>15.400401226596729</v>
       </c>
       <c r="AN40" s="2">
         <f t="shared" si="11"/>
-        <v>4.7324916077985366E-11</v>
+        <v>-0.65079680914568727</v>
       </c>
       <c r="AO40" s="2">
         <f t="shared" si="12"/>
@@ -22296,7 +22296,7 @@
       </c>
       <c r="K41" s="6">
         <f>ROUND(SUM(K14:K17)/$C$5 * 100, 2)</f>
-        <v>26.47</v>
+        <v>22.78</v>
       </c>
       <c r="L41" s="6" t="s">
         <v>58</v>
@@ -22306,32 +22306,32 @@
       </c>
       <c r="AG41" s="2">
         <f t="shared" si="13"/>
-        <v>3064.5247120555723</v>
+        <v>2735.8398436117568</v>
       </c>
       <c r="AH41" s="2">
-        <v>-9.2436434897535946E-6</v>
+        <v>-3.9243345166673862</v>
       </c>
       <c r="AI41" s="2">
         <f t="shared" si="14"/>
-        <v>3064.5247121938155</v>
+        <v>2735.83984375</v>
       </c>
       <c r="AJ41" s="2">
-        <v>6.8569424911402166E-6</v>
+        <v>0.16583622360803929</v>
       </c>
       <c r="AK41" s="2">
         <f t="shared" si="9"/>
-        <v>3064.5247121246939</v>
+        <v>2735.8398436808784</v>
       </c>
       <c r="AL41" s="2">
-        <v>6.8345357249199878E-6</v>
+        <v>-3.9243344947376499</v>
       </c>
       <c r="AM41" s="2">
         <f t="shared" si="10"/>
-        <v>-6.317601165914501E-11</v>
+        <v>15.400401312647427</v>
       </c>
       <c r="AN41" s="2">
         <f t="shared" si="11"/>
-        <v>4.6864018419419667E-11</v>
+        <v>-0.65079681278205481</v>
       </c>
       <c r="AO41" s="2">
         <f t="shared" si="12"/>
@@ -22353,7 +22353,7 @@
       </c>
       <c r="K42" s="6">
         <f>ROUND(SUM(K18:K22)/$C$5 * 100, 2)</f>
-        <v>6.42</v>
+        <v>6.97</v>
       </c>
       <c r="L42" s="6" t="s">
         <v>58</v>
@@ -22363,32 +22363,32 @@
       </c>
       <c r="AG42" s="2">
         <f t="shared" si="13"/>
-        <v>3064.5247120555723</v>
+        <v>2735.8398436808784</v>
       </c>
       <c r="AH42" s="2">
-        <v>-9.2436434897535946E-6</v>
+        <v>-3.9243345166673862</v>
       </c>
       <c r="AI42" s="2">
         <f t="shared" si="14"/>
-        <v>3064.5247121246939</v>
+        <v>2735.83984375</v>
       </c>
       <c r="AJ42" s="2">
-        <v>6.8345357249199878E-6</v>
+        <v>0.16583622360803929</v>
       </c>
       <c r="AK42" s="2">
         <f t="shared" si="9"/>
-        <v>3064.5247120901331</v>
+        <v>2735.8398437154392</v>
       </c>
       <c r="AL42" s="2">
-        <v>-9.2324403340171557E-6</v>
+        <v>-3.9243345057020633</v>
       </c>
       <c r="AM42" s="2">
         <f t="shared" si="10"/>
-        <v>8.5341386988076184E-11</v>
+        <v>15.400401355675452</v>
       </c>
       <c r="AN42" s="2">
         <f t="shared" si="11"/>
-        <v>-6.3099443291032476E-11</v>
+        <v>-0.65079681460035166</v>
       </c>
       <c r="AO42" s="2">
         <f t="shared" si="12"/>
@@ -22410,7 +22410,7 @@
       </c>
       <c r="K43" s="6">
         <f>ROUND(SUM(K23:K26)/$C$5*100, 2)</f>
-        <v>4.92</v>
+        <v>4.88</v>
       </c>
       <c r="L43" s="6" t="s">
         <v>58</v>
@@ -22426,32 +22426,32 @@
       </c>
       <c r="AG43" s="2">
         <f t="shared" si="13"/>
-        <v>3064.5247120901331</v>
+        <v>2735.8398437154392</v>
       </c>
       <c r="AH43" s="2">
-        <v>-9.2324403340171557E-6</v>
+        <v>-3.9243345166673862</v>
       </c>
       <c r="AI43" s="2">
         <f t="shared" si="14"/>
-        <v>3064.5247121246939</v>
+        <v>2735.83984375</v>
       </c>
       <c r="AJ43" s="2">
-        <v>6.8345357249199878E-6</v>
+        <v>0.16583622360803929</v>
       </c>
       <c r="AK43" s="2">
         <f t="shared" si="9"/>
-        <v>3064.5247121074135</v>
+        <v>2735.8398437327196</v>
       </c>
       <c r="AL43" s="2">
-        <v>-9.2268392108962871E-6</v>
+        <v>-3.9243345111849521</v>
       </c>
       <c r="AM43" s="2">
         <f t="shared" si="10"/>
-        <v>8.5186242486169906E-11</v>
+        <v>15.400401377192143</v>
       </c>
       <c r="AN43" s="2">
         <f t="shared" si="11"/>
-        <v>-6.3061162214963224E-11</v>
+        <v>-0.65079681550961332</v>
       </c>
       <c r="AO43" s="2">
         <f t="shared" si="12"/>
@@ -22473,7 +22473,7 @@
       </c>
       <c r="K44" s="10">
         <f>SUM(K39:K43)</f>
-        <v>100.00999999999999</v>
+        <v>100</v>
       </c>
       <c r="L44" s="10" t="s">
         <v>58</v>
@@ -22493,32 +22493,32 @@
       </c>
       <c r="AG44" s="2">
         <f t="shared" si="13"/>
-        <v>3064.5247121074135</v>
+        <v>2735.8398437327196</v>
       </c>
       <c r="AH44" s="2">
-        <v>-9.2268392108962871E-6</v>
+        <v>-3.9243345166673862</v>
       </c>
       <c r="AI44" s="2">
         <f t="shared" si="14"/>
-        <v>3064.5247121246939</v>
+        <v>2735.83984375</v>
       </c>
       <c r="AJ44" s="2">
-        <v>6.8345357249199878E-6</v>
+        <v>0.16583622360803929</v>
       </c>
       <c r="AK44" s="5">
         <f>(AG44+AI44)/2</f>
-        <v>3064.5247121160537</v>
+        <v>2735.8398437413598</v>
       </c>
       <c r="AL44" s="2">
-        <v>6.831735390733229E-6</v>
+        <v>-3.9243345139238954</v>
       </c>
       <c r="AM44" s="2">
         <f t="shared" si="10"/>
-        <v>-6.3035323981685224E-11</v>
+        <v>15.400401387940672</v>
       </c>
       <c r="AN44" s="2">
         <f t="shared" si="11"/>
-        <v>4.6691739591166466E-11</v>
+        <v>-0.65079681596382932</v>
       </c>
       <c r="AO44" s="2">
         <f t="shared" si="12"/>
@@ -22538,22 +22538,22 @@
       </c>
     </row>
     <row r="46" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="J46" s="32" t="s">
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="J46" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="K46" s="32"/>
-      <c r="L46" s="32"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
       <c r="N46" s="6" t="s">
         <v>153</v>
       </c>
       <c r="O46" s="6">
         <f>G12*1000/O45</f>
-        <v>2807.0148037438998</v>
+        <v>2821.6284083472028</v>
       </c>
       <c r="P46" s="6" t="s">
         <v>128</v>
@@ -22574,7 +22574,7 @@
       </c>
       <c r="K47" s="6">
         <f>ROUND($C$13/$C$5 * 100, 2)</f>
-        <v>19.579999999999998</v>
+        <v>21.93</v>
       </c>
       <c r="L47" s="6" t="s">
         <v>58</v>
@@ -22584,7 +22584,7 @@
       </c>
       <c r="O47" s="6">
         <f>0.377*O46^0.6945</f>
-        <v>93.572298262017355</v>
+        <v>93.91035334822665</v>
       </c>
     </row>
     <row r="48" spans="2:41" x14ac:dyDescent="0.2">
@@ -22602,7 +22602,7 @@
       </c>
       <c r="K48" s="6">
         <f>ROUND(K13/$C$5 * 100, 2)</f>
-        <v>42.62</v>
+        <v>43.44</v>
       </c>
       <c r="L48" s="6" t="s">
         <v>58</v>
@@ -22623,7 +22623,7 @@
       </c>
       <c r="K49" s="6">
         <f>ROUND(SUM(K14:K26)/$C$5 * 100, 2)</f>
-        <v>37.799999999999997</v>
+        <v>34.630000000000003</v>
       </c>
       <c r="L49" s="6" t="s">
         <v>58</v>
@@ -22651,11 +22651,11 @@
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
@@ -22691,6 +22691,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="F24:H24"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="J38:L38"/>
@@ -22700,20 +22711,9 @@
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="F24:H24"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="J30:L30"/>
     <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <conditionalFormatting sqref="K28">
     <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="FALSE">
@@ -22745,7 +22745,7 @@
   <dimension ref="B1:AO56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22789,11 +22789,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="2:41" x14ac:dyDescent="0.2">
       <c r="U2" s="16" t="s">
@@ -22804,26 +22804,26 @@
       </c>
     </row>
     <row r="3" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>118</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="30" t="s">
         <v>80</v>
       </c>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="N3" s="32" t="s">
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="N3" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
       <c r="U3" s="7" t="s">
         <v>41</v>
       </c>
@@ -23067,14 +23067,14 @@
         <v>500</v>
       </c>
       <c r="AH5" s="2">
-        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5"/>
+        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5" ca="1"/>
         <v>-2141.8615260933393</v>
       </c>
       <c r="AI5" s="3">
         <v>10000</v>
       </c>
       <c r="AJ5" s="2">
-        <f t="dataTable" ref="AJ5:AJ44" dt2D="0" dtr="0" r1="C5" ca="1"/>
+        <f t="dataTable" ref="AJ5:AJ44" dt2D="0" dtr="0" r1="C5"/>
         <v>1143.1112505342826</v>
       </c>
       <c r="AK5" s="2">
@@ -23223,11 +23223,11 @@
       <c r="H7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
       <c r="N7" s="6" t="s">
         <v>159</v>
       </c>
@@ -23659,11 +23659,11 @@
       <c r="H11" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
       <c r="U11" s="2">
         <v>7</v>
       </c>
@@ -23741,11 +23741,11 @@
       </c>
     </row>
     <row r="12" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
       <c r="F12" s="24" t="s">
         <v>82</v>
       </c>
@@ -23766,11 +23766,11 @@
       <c r="L12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N12" s="28" t="s">
+      <c r="N12" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
       <c r="U12" s="2">
         <v>8</v>
       </c>
@@ -23965,7 +23965,7 @@
       <c r="D14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="30" t="s">
         <v>86</v>
       </c>
       <c r="G14" s="31"/>
@@ -24187,11 +24187,11 @@
       <c r="L16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N16" s="28" t="s">
+      <c r="N16" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
       <c r="U16" s="2">
         <v>12</v>
       </c>
@@ -24269,11 +24269,11 @@
       </c>
     </row>
     <row r="17" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
       <c r="F17" s="6" t="s">
         <v>124</v>
       </c>
@@ -25035,12 +25035,12 @@
       </c>
     </row>
     <row r="24" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="F24" s="28" t="s">
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="F24" s="30" t="s">
         <v>81</v>
       </c>
       <c r="G24" s="31"/>
@@ -25579,11 +25579,11 @@
       </c>
     </row>
     <row r="29" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
       <c r="F29" t="s">
         <v>97</v>
       </c>
@@ -25687,11 +25687,11 @@
       <c r="H30" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="J30" s="32" t="s">
+      <c r="J30" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
       <c r="U30" s="2">
         <v>26</v>
       </c>
@@ -25977,7 +25977,7 @@
         <v>0.80011066800000008</v>
       </c>
       <c r="D33"/>
-      <c r="F33" s="28" t="s">
+      <c r="F33" s="30" t="s">
         <v>156</v>
       </c>
       <c r="G33" s="31"/>
@@ -26166,11 +26166,11 @@
       </c>
     </row>
     <row r="35" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
       <c r="F35" s="26" t="s">
         <v>132</v>
       </c>
@@ -26336,11 +26336,11 @@
       <c r="C38" s="17">
         <v>0.8</v>
       </c>
-      <c r="J38" s="32" t="s">
+      <c r="J38" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
       <c r="AF38" s="2">
         <v>34</v>
       </c>
@@ -26427,11 +26427,11 @@
       </c>
     </row>
     <row r="40" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
       <c r="J40" s="11" t="s">
         <v>52</v>
       </c>
@@ -26736,16 +26736,16 @@
       </c>
     </row>
     <row r="46" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="J46" s="32" t="s">
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="J46" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="K46" s="32"/>
-      <c r="L46" s="32"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
       <c r="N46" s="6" t="s">
         <v>153</v>
       </c>
@@ -26849,11 +26849,11 @@
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
@@ -26889,6 +26889,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="F24:H24"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="J38:L38"/>
@@ -26898,20 +26909,9 @@
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="F24:H24"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="J30:L30"/>
     <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <conditionalFormatting sqref="K28">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="FALSE">
